--- a/public/討論區留言.xlsx
+++ b/public/討論區留言.xlsx
@@ -75,7 +75,7 @@
     <t>國際經驗參考</t>
   </si>
   <si>
-    <t>具體建議</t>
+    <t>潛力與管理建議</t>
   </si>
   <si>
     <t>寵物定義釐清</t>
@@ -2394,7 +2394,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -2417,9 +2417,13 @@
       <name val="Microsoft JhengHei"/>
     </font>
     <font>
+      <sz val="10.0"/>
+      <color theme="1"/>
+      <name val="Microsoft JhengHei"/>
+    </font>
+    <font>
       <color theme="1"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10.0"/>
@@ -2427,12 +2431,18 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -2482,31 +2492,24 @@
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="1" fillId="3" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
+    <xf borderId="1" fillId="3" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="1" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
@@ -2522,7 +2525,14 @@
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="5" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="1" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="6" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2797,7 +2807,7 @@
       <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="4" t="s">
         <v>13</v>
       </c>
       <c r="O1" s="3" t="s">
@@ -2814,7 +2824,7 @@
       <c r="C2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>18</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -2826,28 +2836,28 @@
       <c r="G2" s="2">
         <v>2.0</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="J2" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="K2" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="L2" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="M2" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="N2" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="O2" s="5">
+      <c r="I2" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="J2" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="K2" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="L2" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M2" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="N2" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="O2" s="6">
         <v>0.0</v>
       </c>
     </row>
@@ -2861,7 +2871,7 @@
       <c r="C3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>18</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -2873,28 +2883,28 @@
       <c r="G3" s="2">
         <v>1.0</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="J3" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="K3" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="L3" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="M3" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="N3" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="O3" s="6">
+      <c r="I3" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="J3" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="K3" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="L3" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M3" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="N3" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="O3" s="7">
         <v>1.0</v>
       </c>
     </row>
@@ -2908,7 +2918,7 @@
       <c r="C4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="5" t="s">
         <v>18</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -2920,28 +2930,28 @@
       <c r="G4" s="2">
         <v>2.0</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I4" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="J4" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="K4" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="L4" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="M4" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="N4" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="O4" s="5">
+      <c r="I4" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="J4" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="K4" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="L4" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M4" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="N4" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="O4" s="6">
         <v>0.0</v>
       </c>
     </row>
@@ -2955,7 +2965,7 @@
       <c r="C5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="5" t="s">
         <v>18</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -2967,28 +2977,28 @@
       <c r="G5" s="2">
         <v>2.0</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="I5" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="J5" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="K5" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="L5" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="M5" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="N5" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="O5" s="5">
+      <c r="I5" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="J5" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="K5" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="L5" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M5" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="N5" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="O5" s="6">
         <v>0.0</v>
       </c>
     </row>
@@ -3002,7 +3012,7 @@
       <c r="C6" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="5" t="s">
         <v>18</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -3014,28 +3024,28 @@
       <c r="G6" s="2">
         <v>77.0</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="I6" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="J6" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="K6" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="L6" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="M6" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="N6" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="O6" s="5">
+      <c r="I6" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="J6" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="K6" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="L6" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M6" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="N6" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="O6" s="6">
         <v>0.0</v>
       </c>
     </row>
@@ -3049,7 +3059,7 @@
       <c r="C7" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="5" t="s">
         <v>18</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -3061,28 +3071,28 @@
       <c r="G7" s="2">
         <v>2.0</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="I7" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="J7" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="K7" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="L7" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="M7" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="N7" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="O7" s="5">
+      <c r="I7" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="J7" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="K7" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="L7" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="M7" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="N7" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="O7" s="6">
         <v>0.0</v>
       </c>
     </row>
@@ -3096,7 +3106,7 @@
       <c r="C8" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="5" t="s">
         <v>18</v>
       </c>
       <c r="E8" s="1" t="s">
@@ -3108,28 +3118,28 @@
       <c r="G8" s="2">
         <v>85.0</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H8" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="I8" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="J8" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="K8" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="L8" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="M8" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="N8" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="O8" s="5">
+      <c r="I8" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="J8" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="K8" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="L8" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M8" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="N8" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="O8" s="6">
         <v>0.0</v>
       </c>
     </row>
@@ -3143,7 +3153,7 @@
       <c r="C9" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="5" t="s">
         <v>18</v>
       </c>
       <c r="E9" s="1" t="s">
@@ -3155,28 +3165,28 @@
       <c r="G9" s="2">
         <v>2.0</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="H9" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="I9" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="J9" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="K9" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="L9" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="M9" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="N9" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="O9" s="5">
+      <c r="I9" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="J9" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="K9" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="L9" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M9" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="N9" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="O9" s="6">
         <v>0.0</v>
       </c>
     </row>
@@ -3190,7 +3200,7 @@
       <c r="C10" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="5" t="s">
         <v>18</v>
       </c>
       <c r="E10" s="1" t="s">
@@ -3202,28 +3212,28 @@
       <c r="G10" s="2">
         <v>2.0</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="H10" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="I10" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="J10" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="K10" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="L10" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="M10" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="N10" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="O10" s="5">
+      <c r="I10" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="J10" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="K10" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="L10" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M10" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="N10" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="O10" s="6">
         <v>0.0</v>
       </c>
     </row>
@@ -3252,25 +3262,25 @@
       <c r="H11" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="I11" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="J11" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="K11" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="L11" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="M11" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="N11" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="O11" s="5">
+      <c r="I11" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="J11" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="K11" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="L11" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M11" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="N11" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="O11" s="6">
         <v>0.0</v>
       </c>
       <c r="P11" s="11"/>
@@ -3294,7 +3304,7 @@
       <c r="C12" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="5" t="s">
         <v>18</v>
       </c>
       <c r="E12" s="1" t="s">
@@ -3306,28 +3316,28 @@
       <c r="G12" s="2">
         <v>2.0</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="H12" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="I12" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="J12" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="K12" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="L12" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="M12" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="N12" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="O12" s="5">
+      <c r="I12" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="J12" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="K12" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="L12" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M12" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="N12" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="O12" s="6">
         <v>0.0</v>
       </c>
     </row>
@@ -3341,7 +3351,7 @@
       <c r="C13" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="5" t="s">
         <v>18</v>
       </c>
       <c r="E13" s="1" t="s">
@@ -3353,28 +3363,28 @@
       <c r="G13" s="2">
         <v>2.0</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="H13" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="I13" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="J13" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="K13" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="L13" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="M13" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="N13" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="O13" s="5">
+      <c r="I13" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="J13" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="K13" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="L13" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M13" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="N13" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="O13" s="6">
         <v>0.0</v>
       </c>
     </row>
@@ -3388,7 +3398,7 @@
       <c r="C14" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="5" t="s">
         <v>18</v>
       </c>
       <c r="E14" s="1" t="s">
@@ -3400,28 +3410,28 @@
       <c r="G14" s="2">
         <v>0.0</v>
       </c>
-      <c r="H14" s="4" t="s">
+      <c r="H14" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="I14" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="J14" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="K14" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="L14" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="M14" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="N14" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="O14" s="5">
+      <c r="I14" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="J14" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="K14" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="L14" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M14" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="N14" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="O14" s="6">
         <v>0.0</v>
       </c>
     </row>
@@ -3435,7 +3445,7 @@
       <c r="C15" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="5" t="s">
         <v>18</v>
       </c>
       <c r="E15" s="1" t="s">
@@ -3447,28 +3457,28 @@
       <c r="G15" s="2">
         <v>2.0</v>
       </c>
-      <c r="H15" s="4" t="s">
+      <c r="H15" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="I15" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="J15" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="K15" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="L15" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="M15" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="N15" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="O15" s="5">
+      <c r="I15" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="J15" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="K15" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="L15" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M15" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="N15" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="O15" s="6">
         <v>0.0</v>
       </c>
     </row>
@@ -3482,7 +3492,7 @@
       <c r="C16" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="5" t="s">
         <v>18</v>
       </c>
       <c r="E16" s="1" t="s">
@@ -3494,28 +3504,28 @@
       <c r="G16" s="2">
         <v>2.0</v>
       </c>
-      <c r="H16" s="4" t="s">
+      <c r="H16" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="I16" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="J16" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="K16" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="L16" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="M16" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="N16" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="O16" s="5">
+      <c r="I16" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="J16" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="K16" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="L16" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M16" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="N16" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="O16" s="6">
         <v>0.0</v>
       </c>
     </row>
@@ -3529,7 +3539,7 @@
       <c r="C17" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="5" t="s">
         <v>18</v>
       </c>
       <c r="E17" s="1" t="s">
@@ -3541,28 +3551,28 @@
       <c r="G17" s="2">
         <v>1.0</v>
       </c>
-      <c r="H17" s="4" t="s">
+      <c r="H17" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="I17" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="J17" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="K17" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="L17" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="M17" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="N17" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="O17" s="5">
+      <c r="I17" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="J17" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="K17" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="L17" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M17" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="N17" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="O17" s="6">
         <v>0.0</v>
       </c>
     </row>
@@ -3576,7 +3586,7 @@
       <c r="C18" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="5" t="s">
         <v>18</v>
       </c>
       <c r="E18" s="1" t="s">
@@ -3588,28 +3598,28 @@
       <c r="G18" s="2">
         <v>0.0</v>
       </c>
-      <c r="H18" s="4" t="s">
+      <c r="H18" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="I18" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="J18" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="K18" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="L18" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="M18" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="N18" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="O18" s="5">
+      <c r="I18" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="J18" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="K18" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="L18" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M18" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="N18" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="O18" s="6">
         <v>0.0</v>
       </c>
     </row>
@@ -3623,7 +3633,7 @@
       <c r="C19" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="5" t="s">
         <v>18</v>
       </c>
       <c r="E19" s="1" t="s">
@@ -3635,28 +3645,28 @@
       <c r="G19" s="2">
         <v>2.0</v>
       </c>
-      <c r="H19" s="4" t="s">
+      <c r="H19" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="I19" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="J19" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="K19" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="L19" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="M19" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="N19" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="O19" s="5">
+      <c r="I19" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="J19" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="K19" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="L19" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M19" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="N19" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="O19" s="6">
         <v>0.0</v>
       </c>
     </row>
@@ -3670,7 +3680,7 @@
       <c r="C20" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="5" t="s">
         <v>18</v>
       </c>
       <c r="E20" s="1" t="s">
@@ -3682,28 +3692,28 @@
       <c r="G20" s="2">
         <v>2.0</v>
       </c>
-      <c r="H20" s="4" t="s">
+      <c r="H20" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="I20" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="J20" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="K20" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="L20" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="M20" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="N20" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="O20" s="5">
+      <c r="I20" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="J20" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="K20" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="L20" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M20" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="N20" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="O20" s="6">
         <v>0.0</v>
       </c>
     </row>
@@ -3717,7 +3727,7 @@
       <c r="C21" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="5" t="s">
         <v>18</v>
       </c>
       <c r="E21" s="1" t="s">
@@ -3729,28 +3739,28 @@
       <c r="G21" s="2">
         <v>2.0</v>
       </c>
-      <c r="H21" s="4" t="s">
+      <c r="H21" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="I21" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="J21" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="K21" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="L21" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="M21" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="N21" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="O21" s="5">
+      <c r="I21" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="J21" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="K21" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="L21" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M21" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="N21" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="O21" s="6">
         <v>0.0</v>
       </c>
     </row>
@@ -3764,7 +3774,7 @@
       <c r="C22" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="5" t="s">
         <v>18</v>
       </c>
       <c r="E22" s="1" t="s">
@@ -3776,28 +3786,28 @@
       <c r="G22" s="2">
         <v>2.0</v>
       </c>
-      <c r="H22" s="4" t="s">
+      <c r="H22" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="I22" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="J22" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="K22" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="L22" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="M22" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="N22" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="O22" s="5">
+      <c r="I22" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="J22" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="K22" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="L22" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M22" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="N22" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="O22" s="6">
         <v>0.0</v>
       </c>
     </row>
@@ -3811,7 +3821,7 @@
       <c r="C23" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="5" t="s">
         <v>18</v>
       </c>
       <c r="E23" s="1" t="s">
@@ -3823,28 +3833,28 @@
       <c r="G23" s="2">
         <v>1.0</v>
       </c>
-      <c r="H23" s="4" t="s">
+      <c r="H23" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="I23" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="J23" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="K23" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="L23" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="M23" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="N23" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="O23" s="5">
+      <c r="I23" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="J23" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="K23" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="L23" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M23" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="N23" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="O23" s="6">
         <v>0.0</v>
       </c>
     </row>
@@ -3858,7 +3868,7 @@
       <c r="C24" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" s="5" t="s">
         <v>18</v>
       </c>
       <c r="E24" s="1" t="s">
@@ -3870,28 +3880,28 @@
       <c r="G24" s="2">
         <v>2.0</v>
       </c>
-      <c r="H24" s="4" t="s">
+      <c r="H24" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="I24" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="J24" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="K24" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="L24" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="M24" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="N24" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="O24" s="5">
+      <c r="I24" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="J24" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="K24" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="L24" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M24" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="N24" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="O24" s="6">
         <v>0.0</v>
       </c>
     </row>
@@ -3905,7 +3915,7 @@
       <c r="C25" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="5" t="s">
         <v>18</v>
       </c>
       <c r="E25" s="1" t="s">
@@ -3917,28 +3927,28 @@
       <c r="G25" s="2">
         <v>76.0</v>
       </c>
-      <c r="H25" s="4" t="s">
+      <c r="H25" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="I25" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="J25" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="K25" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="L25" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="M25" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="N25" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="O25" s="5">
+      <c r="I25" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="J25" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="K25" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="L25" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="M25" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="N25" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="O25" s="6">
         <v>0.0</v>
       </c>
     </row>
@@ -3952,7 +3962,7 @@
       <c r="C26" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D26" s="5" t="s">
         <v>18</v>
       </c>
       <c r="E26" s="1" t="s">
@@ -3964,28 +3974,28 @@
       <c r="G26" s="2">
         <v>136.0</v>
       </c>
-      <c r="H26" s="4" t="s">
+      <c r="H26" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="I26" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="J26" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="K26" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="L26" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="M26" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="N26" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="O26" s="5">
+      <c r="I26" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="J26" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="K26" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="L26" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="M26" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="N26" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="O26" s="6">
         <v>0.0</v>
       </c>
     </row>
@@ -4014,25 +4024,25 @@
       <c r="H27" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="I27" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="J27" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="K27" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="L27" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="M27" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="N27" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="O27" s="5">
+      <c r="I27" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="J27" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="K27" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="L27" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M27" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="N27" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="O27" s="6">
         <v>0.0</v>
       </c>
       <c r="P27" s="11"/>
@@ -4056,7 +4066,7 @@
       <c r="C28" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D28" s="5" t="s">
         <v>18</v>
       </c>
       <c r="E28" s="1" t="s">
@@ -4068,28 +4078,28 @@
       <c r="G28" s="2">
         <v>2.0</v>
       </c>
-      <c r="H28" s="4" t="s">
+      <c r="H28" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="I28" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="J28" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="K28" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="L28" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="M28" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="N28" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="O28" s="5">
+      <c r="I28" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="J28" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="K28" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="L28" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M28" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="N28" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="O28" s="6">
         <v>0.0</v>
       </c>
     </row>
@@ -4103,7 +4113,7 @@
       <c r="C29" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D29" s="5" t="s">
         <v>18</v>
       </c>
       <c r="E29" s="1" t="s">
@@ -4115,28 +4125,28 @@
       <c r="G29" s="2">
         <v>0.0</v>
       </c>
-      <c r="H29" s="4" t="s">
+      <c r="H29" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="I29" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="J29" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="K29" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="L29" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="M29" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="N29" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="O29" s="5">
+      <c r="I29" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="J29" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="K29" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="L29" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M29" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="N29" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="O29" s="6">
         <v>0.0</v>
       </c>
     </row>
@@ -4150,7 +4160,7 @@
       <c r="C30" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D30" s="5" t="s">
         <v>18</v>
       </c>
       <c r="E30" s="1" t="s">
@@ -4162,28 +4172,28 @@
       <c r="G30" s="2">
         <v>1.0</v>
       </c>
-      <c r="H30" s="4" t="s">
+      <c r="H30" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="I30" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="J30" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="K30" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="L30" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="M30" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="N30" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="O30" s="5">
+      <c r="I30" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="J30" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="K30" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="L30" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M30" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="N30" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="O30" s="6">
         <v>0.0</v>
       </c>
     </row>
@@ -4197,7 +4207,7 @@
       <c r="C31" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D31" s="5" t="s">
         <v>18</v>
       </c>
       <c r="E31" s="1" t="s">
@@ -4209,28 +4219,28 @@
       <c r="G31" s="2">
         <v>63.0</v>
       </c>
-      <c r="H31" s="4" t="s">
+      <c r="H31" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="I31" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="J31" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="K31" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="L31" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="M31" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="N31" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="O31" s="7">
+      <c r="I31" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="J31" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="K31" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="L31" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M31" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="N31" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="O31" s="6">
         <v>1.0</v>
       </c>
     </row>
@@ -4244,7 +4254,7 @@
       <c r="C32" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="D32" s="5" t="s">
         <v>18</v>
       </c>
       <c r="E32" s="1" t="s">
@@ -4256,28 +4266,28 @@
       <c r="G32" s="2">
         <v>2.0</v>
       </c>
-      <c r="H32" s="4" t="s">
+      <c r="H32" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="I32" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="J32" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="K32" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="L32" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="M32" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="N32" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="O32" s="5">
+      <c r="I32" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="J32" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="K32" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="L32" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M32" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="N32" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="O32" s="6">
         <v>0.0</v>
       </c>
     </row>
@@ -4291,7 +4301,7 @@
       <c r="C33" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="D33" s="5" t="s">
         <v>18</v>
       </c>
       <c r="E33" s="1" t="s">
@@ -4303,28 +4313,28 @@
       <c r="G33" s="2">
         <v>51.0</v>
       </c>
-      <c r="H33" s="4" t="s">
+      <c r="H33" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="I33" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="J33" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="K33" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="L33" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="M33" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="N33" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="O33" s="7">
+      <c r="I33" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="J33" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="K33" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="L33" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M33" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="N33" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="O33" s="6">
         <v>1.0</v>
       </c>
     </row>
@@ -4338,7 +4348,7 @@
       <c r="C34" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="D34" s="5" t="s">
         <v>18</v>
       </c>
       <c r="E34" s="1" t="s">
@@ -4350,28 +4360,28 @@
       <c r="G34" s="2">
         <v>0.0</v>
       </c>
-      <c r="H34" s="4" t="s">
+      <c r="H34" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="I34" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="J34" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="K34" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="L34" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="M34" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="N34" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="O34" s="5">
+      <c r="I34" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="J34" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="K34" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="L34" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M34" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="N34" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="O34" s="6">
         <v>0.0</v>
       </c>
     </row>
@@ -4385,7 +4395,7 @@
       <c r="C35" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="D35" s="5" t="s">
         <v>153</v>
       </c>
       <c r="E35" s="1" t="s">
@@ -4397,28 +4407,28 @@
       <c r="G35" s="2">
         <v>2.0</v>
       </c>
-      <c r="H35" s="4" t="s">
+      <c r="H35" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="I35" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="J35" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="K35" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="L35" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="M35" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="N35" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="O35" s="5">
+      <c r="I35" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="J35" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="K35" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="L35" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M35" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="N35" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="O35" s="6">
         <v>0.0</v>
       </c>
     </row>
@@ -4432,7 +4442,7 @@
       <c r="C36" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="D36" s="5" t="s">
         <v>153</v>
       </c>
       <c r="E36" s="1" t="s">
@@ -4444,28 +4454,28 @@
       <c r="G36" s="2">
         <v>2.0</v>
       </c>
-      <c r="H36" s="4" t="s">
+      <c r="H36" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="I36" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="J36" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="K36" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="L36" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="M36" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="N36" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="O36" s="5">
+      <c r="I36" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="J36" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="K36" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="L36" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M36" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="N36" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="O36" s="6">
         <v>0.0</v>
       </c>
     </row>
@@ -4479,7 +4489,7 @@
       <c r="C37" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="D37" s="5" t="s">
         <v>153</v>
       </c>
       <c r="E37" s="1" t="s">
@@ -4491,28 +4501,28 @@
       <c r="G37" s="2">
         <v>2.0</v>
       </c>
-      <c r="H37" s="4" t="s">
+      <c r="H37" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="I37" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="J37" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="K37" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="L37" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="M37" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="N37" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="O37" s="5">
+      <c r="I37" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="J37" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="K37" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="L37" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M37" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="N37" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="O37" s="6">
         <v>0.0</v>
       </c>
     </row>
@@ -4526,7 +4536,7 @@
       <c r="C38" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="D38" s="5" t="s">
         <v>153</v>
       </c>
       <c r="E38" s="1" t="s">
@@ -4538,28 +4548,28 @@
       <c r="G38" s="2">
         <v>2.0</v>
       </c>
-      <c r="H38" s="4" t="s">
+      <c r="H38" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="I38" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="J38" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="K38" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="L38" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="M38" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="N38" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="O38" s="5">
+      <c r="I38" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="J38" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="K38" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="L38" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M38" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="N38" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="O38" s="6">
         <v>0.0</v>
       </c>
     </row>
@@ -4573,7 +4583,7 @@
       <c r="C39" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="D39" s="5" t="s">
         <v>153</v>
       </c>
       <c r="E39" s="1" t="s">
@@ -4585,28 +4595,28 @@
       <c r="G39" s="2">
         <v>1.0</v>
       </c>
-      <c r="H39" s="4" t="s">
+      <c r="H39" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="I39" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="J39" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="K39" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="L39" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="M39" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="N39" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="O39" s="7">
+      <c r="I39" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="J39" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="K39" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="L39" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M39" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="N39" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="O39" s="6">
         <v>1.0</v>
       </c>
     </row>
@@ -4620,7 +4630,7 @@
       <c r="C40" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="D40" s="4" t="s">
+      <c r="D40" s="5" t="s">
         <v>153</v>
       </c>
       <c r="E40" s="1" t="s">
@@ -4632,28 +4642,28 @@
       <c r="G40" s="2">
         <v>2.0</v>
       </c>
-      <c r="H40" s="4" t="s">
+      <c r="H40" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="I40" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="J40" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="K40" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="L40" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="M40" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="N40" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="O40" s="5">
+      <c r="I40" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="J40" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="K40" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="L40" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M40" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="N40" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="O40" s="6">
         <v>0.0</v>
       </c>
     </row>
@@ -4667,7 +4677,7 @@
       <c r="C41" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="D41" s="4" t="s">
+      <c r="D41" s="5" t="s">
         <v>153</v>
       </c>
       <c r="E41" s="1" t="s">
@@ -4679,28 +4689,28 @@
       <c r="G41" s="2">
         <v>2.0</v>
       </c>
-      <c r="H41" s="4" t="s">
+      <c r="H41" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="I41" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="J41" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="K41" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="L41" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="M41" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="N41" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="O41" s="5">
+      <c r="I41" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="J41" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="K41" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="L41" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M41" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="N41" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="O41" s="6">
         <v>0.0</v>
       </c>
     </row>
@@ -4714,7 +4724,7 @@
       <c r="C42" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="D42" s="4" t="s">
+      <c r="D42" s="5" t="s">
         <v>153</v>
       </c>
       <c r="E42" s="1" t="s">
@@ -4726,28 +4736,28 @@
       <c r="G42" s="2">
         <v>2.0</v>
       </c>
-      <c r="H42" s="4" t="s">
+      <c r="H42" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="I42" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="J42" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="K42" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="L42" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="M42" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="N42" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="O42" s="5">
+      <c r="I42" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="J42" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="K42" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="L42" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M42" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="N42" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="O42" s="6">
         <v>0.0</v>
       </c>
     </row>
@@ -4761,7 +4771,7 @@
       <c r="C43" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="D43" s="4" t="s">
+      <c r="D43" s="5" t="s">
         <v>153</v>
       </c>
       <c r="E43" s="1" t="s">
@@ -4773,28 +4783,28 @@
       <c r="G43" s="2">
         <v>1.0</v>
       </c>
-      <c r="H43" s="4" t="s">
+      <c r="H43" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="I43" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="J43" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="K43" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="L43" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="M43" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="N43" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="O43" s="5">
+      <c r="I43" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="J43" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="K43" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="L43" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M43" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="N43" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="O43" s="6">
         <v>0.0</v>
       </c>
     </row>
@@ -4808,7 +4818,7 @@
       <c r="C44" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="D44" s="4" t="s">
+      <c r="D44" s="5" t="s">
         <v>153</v>
       </c>
       <c r="E44" s="1" t="s">
@@ -4820,28 +4830,28 @@
       <c r="G44" s="2">
         <v>2.0</v>
       </c>
-      <c r="H44" s="4" t="s">
+      <c r="H44" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="I44" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="J44" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="K44" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="L44" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="M44" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="N44" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="O44" s="5">
+      <c r="I44" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="J44" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="K44" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="L44" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M44" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="N44" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="O44" s="6">
         <v>0.0</v>
       </c>
     </row>
@@ -4855,7 +4865,7 @@
       <c r="C45" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="D45" s="4" t="s">
+      <c r="D45" s="5" t="s">
         <v>153</v>
       </c>
       <c r="E45" s="1" t="s">
@@ -4867,28 +4877,28 @@
       <c r="G45" s="2">
         <v>2.0</v>
       </c>
-      <c r="H45" s="4" t="s">
+      <c r="H45" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="I45" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="J45" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="K45" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="L45" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="M45" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="N45" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="O45" s="5">
+      <c r="I45" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="J45" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="K45" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="L45" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M45" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="N45" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="O45" s="6">
         <v>0.0</v>
       </c>
     </row>
@@ -4902,7 +4912,7 @@
       <c r="C46" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="D46" s="4" t="s">
+      <c r="D46" s="5" t="s">
         <v>153</v>
       </c>
       <c r="E46" s="1" t="s">
@@ -4914,28 +4924,28 @@
       <c r="G46" s="2">
         <v>22.0</v>
       </c>
-      <c r="H46" s="4" t="s">
+      <c r="H46" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="I46" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="J46" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="K46" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="L46" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="M46" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="N46" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="O46" s="5">
+      <c r="I46" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="J46" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="K46" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="L46" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M46" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="N46" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="O46" s="6">
         <v>0.0</v>
       </c>
     </row>
@@ -4949,7 +4959,7 @@
       <c r="C47" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="D47" s="4" t="s">
+      <c r="D47" s="5" t="s">
         <v>153</v>
       </c>
       <c r="E47" s="1" t="s">
@@ -4961,28 +4971,28 @@
       <c r="G47" s="2">
         <v>18.0</v>
       </c>
-      <c r="H47" s="4" t="s">
+      <c r="H47" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="I47" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="J47" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="K47" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="L47" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="M47" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="N47" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="O47" s="5">
+      <c r="I47" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="J47" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="K47" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="L47" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M47" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="N47" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="O47" s="6">
         <v>0.0</v>
       </c>
     </row>
@@ -4996,7 +5006,7 @@
       <c r="C48" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="D48" s="4" t="s">
+      <c r="D48" s="5" t="s">
         <v>153</v>
       </c>
       <c r="E48" s="1" t="s">
@@ -5008,28 +5018,28 @@
       <c r="G48" s="2">
         <v>2.0</v>
       </c>
-      <c r="H48" s="4" t="s">
+      <c r="H48" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="I48" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="J48" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="K48" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="L48" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="M48" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="N48" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="O48" s="5">
+      <c r="I48" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="J48" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="K48" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="L48" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M48" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="N48" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="O48" s="6">
         <v>0.0</v>
       </c>
     </row>
@@ -5043,7 +5053,7 @@
       <c r="C49" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="D49" s="4" t="s">
+      <c r="D49" s="5" t="s">
         <v>153</v>
       </c>
       <c r="E49" s="1" t="s">
@@ -5055,28 +5065,28 @@
       <c r="G49" s="2">
         <v>12.0</v>
       </c>
-      <c r="H49" s="4" t="s">
+      <c r="H49" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="I49" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="J49" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="K49" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="L49" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="M49" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="N49" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="O49" s="5">
+      <c r="I49" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="J49" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="K49" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="L49" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M49" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="N49" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="O49" s="6">
         <v>0.0</v>
       </c>
     </row>
@@ -5090,7 +5100,7 @@
       <c r="C50" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="D50" s="4" t="s">
+      <c r="D50" s="5" t="s">
         <v>153</v>
       </c>
       <c r="E50" s="1" t="s">
@@ -5102,28 +5112,28 @@
       <c r="G50" s="2">
         <v>0.0</v>
       </c>
-      <c r="H50" s="4" t="s">
+      <c r="H50" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="I50" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="J50" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="K50" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="L50" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="M50" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="N50" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="O50" s="5">
+      <c r="I50" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="J50" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="K50" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="L50" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M50" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="N50" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="O50" s="6">
         <v>0.0</v>
       </c>
     </row>
@@ -5137,7 +5147,7 @@
       <c r="C51" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="D51" s="4" t="s">
+      <c r="D51" s="5" t="s">
         <v>153</v>
       </c>
       <c r="E51" s="1" t="s">
@@ -5149,28 +5159,28 @@
       <c r="G51" s="2">
         <v>1.0</v>
       </c>
-      <c r="H51" s="4" t="s">
+      <c r="H51" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="I51" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="J51" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="K51" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="L51" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="M51" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="N51" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="O51" s="5">
+      <c r="I51" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="J51" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="K51" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="L51" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M51" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="N51" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="O51" s="6">
         <v>0.0</v>
       </c>
     </row>
@@ -5184,7 +5194,7 @@
       <c r="C52" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="D52" s="4" t="s">
+      <c r="D52" s="5" t="s">
         <v>153</v>
       </c>
       <c r="E52" s="1" t="s">
@@ -5196,28 +5206,28 @@
       <c r="G52" s="2">
         <v>16.0</v>
       </c>
-      <c r="H52" s="4" t="s">
+      <c r="H52" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="I52" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="J52" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="K52" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="L52" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="M52" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="N52" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="O52" s="6">
+      <c r="I52" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="J52" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="K52" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="L52" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M52" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="N52" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="O52" s="7">
         <v>1.0</v>
       </c>
     </row>
@@ -5246,25 +5256,25 @@
       <c r="H53" s="9" t="s">
         <v>226</v>
       </c>
-      <c r="I53" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="J53" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="K53" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="L53" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="M53" s="5">
+      <c r="I53" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="J53" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="K53" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="L53" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M53" s="6">
         <v>0.0</v>
       </c>
       <c r="N53" s="12">
         <v>1.0</v>
       </c>
-      <c r="O53" s="5">
+      <c r="O53" s="6">
         <v>0.0</v>
       </c>
       <c r="P53" s="11"/>
@@ -5288,7 +5298,7 @@
       <c r="C54" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="D54" s="4" t="s">
+      <c r="D54" s="5" t="s">
         <v>153</v>
       </c>
       <c r="E54" s="1" t="s">
@@ -5300,28 +5310,28 @@
       <c r="G54" s="2">
         <v>1.0</v>
       </c>
-      <c r="H54" s="4" t="s">
+      <c r="H54" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="I54" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="J54" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="K54" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="L54" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="M54" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="N54" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="O54" s="5">
+      <c r="I54" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="J54" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="K54" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="L54" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M54" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="N54" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="O54" s="6">
         <v>0.0</v>
       </c>
     </row>
@@ -5335,7 +5345,7 @@
       <c r="C55" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="D55" s="4" t="s">
+      <c r="D55" s="5" t="s">
         <v>153</v>
       </c>
       <c r="E55" s="1" t="s">
@@ -5347,28 +5357,28 @@
       <c r="G55" s="2">
         <v>1.0</v>
       </c>
-      <c r="H55" s="4" t="s">
+      <c r="H55" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="I55" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="J55" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="K55" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="L55" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="M55" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="N55" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="O55" s="5">
+      <c r="I55" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="J55" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="K55" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="L55" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M55" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="N55" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="O55" s="6">
         <v>0.0</v>
       </c>
     </row>
@@ -5382,7 +5392,7 @@
       <c r="C56" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="D56" s="4" t="s">
+      <c r="D56" s="5" t="s">
         <v>153</v>
       </c>
       <c r="E56" s="1" t="s">
@@ -5394,28 +5404,28 @@
       <c r="G56" s="2">
         <v>1.0</v>
       </c>
-      <c r="H56" s="4" t="s">
+      <c r="H56" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="I56" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="J56" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="K56" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="L56" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="M56" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="N56" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="O56" s="5">
+      <c r="I56" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="J56" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="K56" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="L56" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M56" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="N56" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="O56" s="6">
         <v>0.0</v>
       </c>
     </row>
@@ -5429,7 +5439,7 @@
       <c r="C57" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="D57" s="4" t="s">
+      <c r="D57" s="5" t="s">
         <v>153</v>
       </c>
       <c r="E57" s="1" t="s">
@@ -5441,28 +5451,28 @@
       <c r="G57" s="2">
         <v>4.0</v>
       </c>
-      <c r="H57" s="4" t="s">
+      <c r="H57" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="I57" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="J57" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="K57" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="L57" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="M57" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="N57" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="O57" s="5">
+      <c r="I57" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="J57" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="K57" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="L57" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="M57" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="N57" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="O57" s="6">
         <v>0.0</v>
       </c>
     </row>
@@ -5476,7 +5486,7 @@
       <c r="C58" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="D58" s="4" t="s">
+      <c r="D58" s="5" t="s">
         <v>153</v>
       </c>
       <c r="E58" s="1" t="s">
@@ -5488,28 +5498,28 @@
       <c r="G58" s="2">
         <v>1.0</v>
       </c>
-      <c r="H58" s="4" t="s">
+      <c r="H58" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="I58" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="J58" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="K58" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="L58" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="M58" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="N58" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="O58" s="5">
+      <c r="I58" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="J58" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="K58" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="L58" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M58" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="N58" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="O58" s="6">
         <v>0.0</v>
       </c>
     </row>
@@ -5538,25 +5548,25 @@
       <c r="H59" s="9" t="s">
         <v>249</v>
       </c>
-      <c r="I59" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="J59" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="K59" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="L59" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="M59" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="N59" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="O59" s="5">
+      <c r="I59" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="J59" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="K59" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="L59" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M59" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="N59" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="O59" s="6">
         <v>0.0</v>
       </c>
       <c r="P59" s="11"/>
@@ -5580,7 +5590,7 @@
       <c r="C60" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="D60" s="4" t="s">
+      <c r="D60" s="5" t="s">
         <v>153</v>
       </c>
       <c r="E60" s="1" t="s">
@@ -5592,28 +5602,28 @@
       <c r="G60" s="2">
         <v>1.0</v>
       </c>
-      <c r="H60" s="4" t="s">
+      <c r="H60" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="I60" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="J60" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="K60" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="L60" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="M60" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="N60" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="O60" s="5">
+      <c r="I60" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="J60" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="K60" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="L60" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M60" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="N60" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="O60" s="6">
         <v>0.0</v>
       </c>
     </row>
@@ -5627,7 +5637,7 @@
       <c r="C61" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="D61" s="4" t="s">
+      <c r="D61" s="5" t="s">
         <v>153</v>
       </c>
       <c r="E61" s="1" t="s">
@@ -5639,28 +5649,28 @@
       <c r="G61" s="2">
         <v>1.0</v>
       </c>
-      <c r="H61" s="4" t="s">
+      <c r="H61" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="I61" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="J61" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="K61" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="L61" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="M61" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="N61" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="O61" s="5">
+      <c r="I61" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="J61" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="K61" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="L61" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M61" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="N61" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="O61" s="6">
         <v>0.0</v>
       </c>
     </row>
@@ -5674,7 +5684,7 @@
       <c r="C62" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="D62" s="4" t="s">
+      <c r="D62" s="5" t="s">
         <v>153</v>
       </c>
       <c r="E62" s="1" t="s">
@@ -5686,28 +5696,28 @@
       <c r="G62" s="2">
         <v>1.0</v>
       </c>
-      <c r="H62" s="4" t="s">
+      <c r="H62" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="I62" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="J62" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="K62" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="L62" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="M62" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="N62" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="O62" s="5">
+      <c r="I62" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="J62" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="K62" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="L62" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M62" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="N62" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="O62" s="6">
         <v>0.0</v>
       </c>
     </row>
@@ -5736,25 +5746,25 @@
       <c r="H63" s="9" t="s">
         <v>264</v>
       </c>
-      <c r="I63" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="J63" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="K63" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="L63" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="M63" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="N63" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="O63" s="5">
+      <c r="I63" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="J63" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="K63" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="L63" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M63" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="N63" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="O63" s="6">
         <v>0.0</v>
       </c>
       <c r="P63" s="11"/>
@@ -5793,25 +5803,25 @@
       <c r="H64" s="9" t="s">
         <v>268</v>
       </c>
-      <c r="I64" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="J64" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="K64" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="L64" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="M64" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="N64" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="O64" s="5">
+      <c r="I64" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="J64" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="K64" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="L64" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M64" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="N64" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="O64" s="6">
         <v>0.0</v>
       </c>
       <c r="P64" s="11"/>
@@ -5835,7 +5845,7 @@
       <c r="C65" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="D65" s="4" t="s">
+      <c r="D65" s="5" t="s">
         <v>153</v>
       </c>
       <c r="E65" s="1" t="s">
@@ -5847,28 +5857,28 @@
       <c r="G65" s="2">
         <v>11.0</v>
       </c>
-      <c r="H65" s="4" t="s">
+      <c r="H65" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="I65" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="J65" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="K65" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="L65" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="M65" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="N65" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="O65" s="5">
+      <c r="I65" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="J65" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="K65" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="L65" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M65" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="N65" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="O65" s="6">
         <v>0.0</v>
       </c>
     </row>
@@ -5882,7 +5892,7 @@
       <c r="C66" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="D66" s="4" t="s">
+      <c r="D66" s="5" t="s">
         <v>153</v>
       </c>
       <c r="E66" s="1" t="s">
@@ -5894,28 +5904,28 @@
       <c r="G66" s="2">
         <v>1.0</v>
       </c>
-      <c r="H66" s="4" t="s">
+      <c r="H66" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="I66" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="J66" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="K66" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="L66" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="M66" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="N66" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="O66" s="5">
+      <c r="I66" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="J66" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="K66" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="L66" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M66" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="N66" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="O66" s="6">
         <v>0.0</v>
       </c>
     </row>
@@ -5929,7 +5939,7 @@
       <c r="C67" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D67" s="4" t="s">
+      <c r="D67" s="5" t="s">
         <v>153</v>
       </c>
       <c r="E67" s="1" t="s">
@@ -5941,28 +5951,28 @@
       <c r="G67" s="2">
         <v>3.0</v>
       </c>
-      <c r="H67" s="4" t="s">
+      <c r="H67" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="I67" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="J67" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="K67" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="L67" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="M67" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="N67" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="O67" s="5">
+      <c r="I67" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="J67" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="K67" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="L67" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M67" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="N67" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="O67" s="6">
         <v>0.0</v>
       </c>
     </row>
@@ -5976,7 +5986,7 @@
       <c r="C68" s="14" t="s">
         <v>283</v>
       </c>
-      <c r="D68" s="4" t="s">
+      <c r="D68" s="5" t="s">
         <v>153</v>
       </c>
       <c r="E68" s="1" t="s">
@@ -5988,28 +5998,28 @@
       <c r="G68" s="13">
         <v>4.0</v>
       </c>
-      <c r="H68" s="4" t="s">
+      <c r="H68" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="I68" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="J68" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="K68" s="5">
+      <c r="I68" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="J68" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="K68" s="6">
         <v>0.0</v>
       </c>
       <c r="L68" s="15">
         <v>1.0</v>
       </c>
-      <c r="M68" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="N68" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="O68" s="5">
+      <c r="M68" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="N68" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="O68" s="6">
         <v>0.0</v>
       </c>
       <c r="P68" s="15"/>
@@ -6031,7 +6041,7 @@
       <c r="C69" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="D69" s="4" t="s">
+      <c r="D69" s="5" t="s">
         <v>153</v>
       </c>
       <c r="E69" s="1" t="s">
@@ -6043,28 +6053,28 @@
       <c r="G69" s="2">
         <v>0.0</v>
       </c>
-      <c r="H69" s="4" t="s">
+      <c r="H69" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="I69" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="J69" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="K69" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="L69" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="M69" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="N69" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="O69" s="5">
+      <c r="I69" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="J69" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="K69" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="L69" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M69" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="N69" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="O69" s="6">
         <v>0.0</v>
       </c>
     </row>
@@ -6078,7 +6088,7 @@
       <c r="C70" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="D70" s="4" t="s">
+      <c r="D70" s="5" t="s">
         <v>153</v>
       </c>
       <c r="E70" s="1" t="s">
@@ -6090,28 +6100,28 @@
       <c r="G70" s="2">
         <v>4.0</v>
       </c>
-      <c r="H70" s="4" t="s">
+      <c r="H70" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="I70" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="J70" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="K70" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="L70" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="M70" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="N70" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="O70" s="5">
+      <c r="I70" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="J70" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="K70" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="L70" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M70" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="N70" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="O70" s="6">
         <v>0.0</v>
       </c>
     </row>
@@ -6125,7 +6135,7 @@
       <c r="C71" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="D71" s="4" t="s">
+      <c r="D71" s="5" t="s">
         <v>153</v>
       </c>
       <c r="E71" s="1" t="s">
@@ -6137,28 +6147,28 @@
       <c r="G71" s="2">
         <v>1.0</v>
       </c>
-      <c r="H71" s="4" t="s">
+      <c r="H71" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="I71" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="J71" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="K71" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="L71" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="M71" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="N71" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="O71" s="5">
+      <c r="I71" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="J71" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="K71" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="L71" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M71" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="N71" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="O71" s="6">
         <v>0.0</v>
       </c>
     </row>
@@ -6172,7 +6182,7 @@
       <c r="C72" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="D72" s="4" t="s">
+      <c r="D72" s="5" t="s">
         <v>153</v>
       </c>
       <c r="E72" s="1" t="s">
@@ -6184,28 +6194,28 @@
       <c r="G72" s="2">
         <v>4.0</v>
       </c>
-      <c r="H72" s="4" t="s">
+      <c r="H72" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="I72" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="J72" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="K72" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="L72" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="M72" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="N72" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="O72" s="5">
+      <c r="I72" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="J72" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="K72" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="L72" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M72" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="N72" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="O72" s="6">
         <v>0.0</v>
       </c>
     </row>
@@ -6219,7 +6229,7 @@
       <c r="C73" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="D73" s="4" t="s">
+      <c r="D73" s="5" t="s">
         <v>153</v>
       </c>
       <c r="E73" s="1" t="s">
@@ -6231,28 +6241,28 @@
       <c r="G73" s="2">
         <v>4.0</v>
       </c>
-      <c r="H73" s="4" t="s">
+      <c r="H73" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="I73" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="J73" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="K73" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="L73" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="M73" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="N73" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="O73" s="5">
+      <c r="I73" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="J73" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="K73" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="L73" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M73" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="N73" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="O73" s="6">
         <v>0.0</v>
       </c>
     </row>
@@ -6266,7 +6276,7 @@
       <c r="C74" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="D74" s="4" t="s">
+      <c r="D74" s="5" t="s">
         <v>308</v>
       </c>
       <c r="E74" s="1" t="s">
@@ -6278,28 +6288,28 @@
       <c r="G74" s="2">
         <v>1.0</v>
       </c>
-      <c r="H74" s="4" t="s">
+      <c r="H74" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="I74" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="J74" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="K74" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="L74" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="M74" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="N74" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="O74" s="5">
+      <c r="I74" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="J74" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="K74" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="L74" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M74" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="N74" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="O74" s="6">
         <v>0.0</v>
       </c>
     </row>
@@ -6313,7 +6323,7 @@
       <c r="C75" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="D75" s="4" t="s">
+      <c r="D75" s="5" t="s">
         <v>308</v>
       </c>
       <c r="E75" s="1" t="s">
@@ -6325,28 +6335,28 @@
       <c r="G75" s="2">
         <v>1.0</v>
       </c>
-      <c r="H75" s="4" t="s">
+      <c r="H75" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="I75" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="J75" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="K75" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="L75" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="M75" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="N75" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="O75" s="5">
+      <c r="I75" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="J75" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="K75" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="L75" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M75" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="N75" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="O75" s="6">
         <v>0.0</v>
       </c>
     </row>
@@ -6360,7 +6370,7 @@
       <c r="C76" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="D76" s="4" t="s">
+      <c r="D76" s="5" t="s">
         <v>308</v>
       </c>
       <c r="E76" s="1" t="s">
@@ -6372,28 +6382,28 @@
       <c r="G76" s="2">
         <v>0.0</v>
       </c>
-      <c r="H76" s="4" t="s">
+      <c r="H76" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="I76" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="J76" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="K76" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="L76" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="M76" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="N76" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="O76" s="5">
+      <c r="I76" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="J76" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="K76" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="L76" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M76" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="N76" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="O76" s="6">
         <v>0.0</v>
       </c>
     </row>
@@ -6407,7 +6417,7 @@
       <c r="C77" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="D77" s="4" t="s">
+      <c r="D77" s="5" t="s">
         <v>308</v>
       </c>
       <c r="E77" s="1" t="s">
@@ -6419,28 +6429,28 @@
       <c r="G77" s="2">
         <v>0.0</v>
       </c>
-      <c r="H77" s="4" t="s">
+      <c r="H77" s="5" t="s">
         <v>321</v>
       </c>
-      <c r="I77" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="J77" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="K77" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="L77" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="M77" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="N77" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="O77" s="5">
+      <c r="I77" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="J77" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="K77" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="L77" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M77" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="N77" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="O77" s="6">
         <v>0.0</v>
       </c>
     </row>
@@ -6454,7 +6464,7 @@
       <c r="C78" s="17" t="s">
         <v>324</v>
       </c>
-      <c r="D78" s="4" t="s">
+      <c r="D78" s="5" t="s">
         <v>308</v>
       </c>
       <c r="E78" s="1" t="s">
@@ -6466,28 +6476,28 @@
       <c r="G78" s="16">
         <v>2.0</v>
       </c>
-      <c r="H78" s="4" t="s">
+      <c r="H78" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="I78" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="J78" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="K78" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="L78" s="5">
+      <c r="I78" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="J78" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="K78" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="L78" s="6">
         <v>0.0</v>
       </c>
       <c r="M78" s="18">
         <v>1.0</v>
       </c>
-      <c r="N78" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="O78" s="5">
+      <c r="N78" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="O78" s="6">
         <v>0.0</v>
       </c>
       <c r="P78" s="18"/>
@@ -6524,25 +6534,25 @@
       <c r="H79" s="9" t="s">
         <v>329</v>
       </c>
-      <c r="I79" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="J79" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="K79" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="L79" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="M79" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="N79" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="O79" s="5">
+      <c r="I79" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="J79" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="K79" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="L79" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M79" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="N79" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="O79" s="6">
         <v>0.0</v>
       </c>
       <c r="P79" s="11"/>
@@ -6566,7 +6576,7 @@
       <c r="C80" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="D80" s="4" t="s">
+      <c r="D80" s="5" t="s">
         <v>308</v>
       </c>
       <c r="E80" s="1" t="s">
@@ -6578,28 +6588,28 @@
       <c r="G80" s="2">
         <v>3.0</v>
       </c>
-      <c r="H80" s="4" t="s">
+      <c r="H80" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="I80" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="J80" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="K80" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="L80" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="M80" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="N80" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="O80" s="6">
+      <c r="I80" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="J80" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="K80" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="L80" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M80" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="N80" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="O80" s="7">
         <v>1.0</v>
       </c>
     </row>
@@ -6613,7 +6623,7 @@
       <c r="C81" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="D81" s="4" t="s">
+      <c r="D81" s="5" t="s">
         <v>308</v>
       </c>
       <c r="E81" s="1" t="s">
@@ -6625,28 +6635,28 @@
       <c r="G81" s="2">
         <v>3.0</v>
       </c>
-      <c r="H81" s="4" t="s">
+      <c r="H81" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="I81" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="J81" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="K81" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="L81" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="M81" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="N81" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="O81" s="5">
+      <c r="I81" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="J81" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="K81" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="L81" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M81" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="N81" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="O81" s="6">
         <v>0.0</v>
       </c>
     </row>
@@ -6660,7 +6670,7 @@
       <c r="C82" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="D82" s="4" t="s">
+      <c r="D82" s="5" t="s">
         <v>308</v>
       </c>
       <c r="E82" s="1" t="s">
@@ -6672,28 +6682,28 @@
       <c r="G82" s="2">
         <v>2.0</v>
       </c>
-      <c r="H82" s="4" t="s">
+      <c r="H82" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="I82" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="J82" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="K82" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="L82" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="M82" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="N82" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="O82" s="5">
+      <c r="I82" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="J82" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="K82" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="L82" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M82" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="N82" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="O82" s="6">
         <v>0.0</v>
       </c>
     </row>
@@ -6722,25 +6732,25 @@
       <c r="H83" s="9" t="s">
         <v>345</v>
       </c>
-      <c r="I83" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="J83" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="K83" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="L83" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="M83" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="N83" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="O83" s="5">
+      <c r="I83" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="J83" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="K83" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="L83" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M83" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="N83" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="O83" s="6">
         <v>0.0</v>
       </c>
       <c r="P83" s="11"/>
@@ -6764,7 +6774,7 @@
       <c r="C84" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="D84" s="4" t="s">
+      <c r="D84" s="5" t="s">
         <v>308</v>
       </c>
       <c r="E84" s="1" t="s">
@@ -6776,28 +6786,28 @@
       <c r="G84" s="2">
         <v>3.0</v>
       </c>
-      <c r="H84" s="4" t="s">
+      <c r="H84" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="I84" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="J84" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="K84" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="L84" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="M84" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="N84" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="O84" s="5">
+      <c r="I84" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="J84" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="K84" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="L84" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M84" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="N84" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="O84" s="6">
         <v>0.0</v>
       </c>
     </row>
@@ -6811,7 +6821,7 @@
       <c r="C85" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="D85" s="4" t="s">
+      <c r="D85" s="5" t="s">
         <v>308</v>
       </c>
       <c r="E85" s="1" t="s">
@@ -6823,28 +6833,28 @@
       <c r="G85" s="2">
         <v>3.0</v>
       </c>
-      <c r="H85" s="4" t="s">
+      <c r="H85" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="I85" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="J85" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="K85" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="L85" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="M85" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="N85" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="O85" s="5">
+      <c r="I85" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="J85" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="K85" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="L85" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M85" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="N85" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="O85" s="6">
         <v>0.0</v>
       </c>
     </row>
@@ -6858,7 +6868,7 @@
       <c r="C86" s="20" t="s">
         <v>356</v>
       </c>
-      <c r="D86" s="4" t="s">
+      <c r="D86" s="5" t="s">
         <v>308</v>
       </c>
       <c r="E86" s="1" t="s">
@@ -6870,28 +6880,28 @@
       <c r="G86" s="19">
         <v>0.0</v>
       </c>
-      <c r="H86" s="4" t="s">
+      <c r="H86" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="I86" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="J86" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="K86" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="L86" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="M86" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="N86" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="O86" s="5">
+      <c r="I86" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="J86" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="K86" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="L86" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M86" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="N86" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="O86" s="6">
         <v>0.0</v>
       </c>
       <c r="P86" s="21"/>
@@ -6913,7 +6923,7 @@
       <c r="C87" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="D87" s="4" t="s">
+      <c r="D87" s="5" t="s">
         <v>361</v>
       </c>
       <c r="E87" s="1" t="s">
@@ -6925,28 +6935,28 @@
       <c r="G87" s="2">
         <v>0.0</v>
       </c>
-      <c r="H87" s="4" t="s">
+      <c r="H87" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="I87" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="J87" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="K87" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="L87" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="M87" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="N87" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="O87" s="5">
+      <c r="I87" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="J87" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="K87" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="L87" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M87" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="N87" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="O87" s="6">
         <v>0.0</v>
       </c>
     </row>
@@ -6975,25 +6985,25 @@
       <c r="H88" s="9" t="s">
         <v>366</v>
       </c>
-      <c r="I88" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="J88" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="K88" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="L88" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="M88" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="N88" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="O88" s="5">
+      <c r="I88" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="J88" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="K88" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="L88" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M88" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="N88" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="O88" s="6">
         <v>0.0</v>
       </c>
       <c r="P88" s="11"/>
@@ -7032,25 +7042,25 @@
       <c r="H89" s="9" t="s">
         <v>370</v>
       </c>
-      <c r="I89" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="J89" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="K89" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="L89" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="M89" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="N89" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="O89" s="5">
+      <c r="I89" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="J89" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="K89" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="L89" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M89" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="N89" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="O89" s="6">
         <v>0.0</v>
       </c>
       <c r="P89" s="11"/>
@@ -7089,25 +7099,25 @@
       <c r="H90" s="9" t="s">
         <v>374</v>
       </c>
-      <c r="I90" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="J90" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="K90" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="L90" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="M90" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="N90" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="O90" s="5">
+      <c r="I90" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="J90" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="K90" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="L90" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M90" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="N90" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="O90" s="6">
         <v>0.0</v>
       </c>
       <c r="P90" s="11"/>
@@ -7146,25 +7156,25 @@
       <c r="H91" s="9" t="s">
         <v>378</v>
       </c>
-      <c r="I91" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="J91" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="K91" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="L91" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="M91" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="N91" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="O91" s="5">
+      <c r="I91" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="J91" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="K91" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="L91" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M91" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="N91" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="O91" s="6">
         <v>0.0</v>
       </c>
       <c r="P91" s="11"/>
@@ -7778,2133 +7788,715 @@
     <row r="291" ht="12.75" customHeight="1">
       <c r="C291" s="22"/>
     </row>
-    <row r="292" ht="15.75" customHeight="1">
-      <c r="C292" s="22"/>
-    </row>
-    <row r="293" ht="15.75" customHeight="1">
-      <c r="C293" s="22"/>
-    </row>
-    <row r="294" ht="15.75" customHeight="1">
-      <c r="C294" s="22"/>
-    </row>
-    <row r="295" ht="15.75" customHeight="1">
-      <c r="C295" s="22"/>
-    </row>
-    <row r="296" ht="15.75" customHeight="1">
-      <c r="C296" s="22"/>
-    </row>
-    <row r="297" ht="15.75" customHeight="1">
-      <c r="C297" s="22"/>
-    </row>
-    <row r="298" ht="15.75" customHeight="1">
-      <c r="C298" s="22"/>
-    </row>
-    <row r="299" ht="15.75" customHeight="1">
-      <c r="C299" s="22"/>
-    </row>
-    <row r="300" ht="15.75" customHeight="1">
-      <c r="C300" s="22"/>
-    </row>
-    <row r="301" ht="15.75" customHeight="1">
-      <c r="C301" s="22"/>
-    </row>
-    <row r="302" ht="15.75" customHeight="1">
-      <c r="C302" s="22"/>
-    </row>
-    <row r="303" ht="15.75" customHeight="1">
-      <c r="C303" s="22"/>
-    </row>
-    <row r="304" ht="15.75" customHeight="1">
-      <c r="C304" s="22"/>
-    </row>
-    <row r="305" ht="15.75" customHeight="1">
-      <c r="C305" s="22"/>
-    </row>
-    <row r="306" ht="15.75" customHeight="1">
-      <c r="C306" s="22"/>
-    </row>
-    <row r="307" ht="15.75" customHeight="1">
-      <c r="C307" s="22"/>
-    </row>
-    <row r="308" ht="15.75" customHeight="1">
-      <c r="C308" s="22"/>
-    </row>
-    <row r="309" ht="15.75" customHeight="1">
-      <c r="C309" s="22"/>
-    </row>
-    <row r="310" ht="15.75" customHeight="1">
-      <c r="C310" s="22"/>
-    </row>
-    <row r="311" ht="15.75" customHeight="1">
-      <c r="C311" s="22"/>
-    </row>
-    <row r="312" ht="15.75" customHeight="1">
-      <c r="C312" s="22"/>
-    </row>
-    <row r="313" ht="15.75" customHeight="1">
-      <c r="C313" s="22"/>
-    </row>
-    <row r="314" ht="15.75" customHeight="1">
-      <c r="C314" s="22"/>
-    </row>
-    <row r="315" ht="15.75" customHeight="1">
-      <c r="C315" s="22"/>
-    </row>
-    <row r="316" ht="15.75" customHeight="1">
-      <c r="C316" s="22"/>
-    </row>
-    <row r="317" ht="15.75" customHeight="1">
-      <c r="C317" s="22"/>
-    </row>
-    <row r="318" ht="15.75" customHeight="1">
-      <c r="C318" s="22"/>
-    </row>
-    <row r="319" ht="15.75" customHeight="1">
-      <c r="C319" s="22"/>
-    </row>
-    <row r="320" ht="15.75" customHeight="1">
-      <c r="C320" s="22"/>
-    </row>
-    <row r="321" ht="15.75" customHeight="1">
-      <c r="C321" s="22"/>
-    </row>
-    <row r="322" ht="15.75" customHeight="1">
-      <c r="C322" s="22"/>
-    </row>
-    <row r="323" ht="15.75" customHeight="1">
-      <c r="C323" s="22"/>
-    </row>
-    <row r="324" ht="15.75" customHeight="1">
-      <c r="C324" s="22"/>
-    </row>
-    <row r="325" ht="15.75" customHeight="1">
-      <c r="C325" s="22"/>
-    </row>
-    <row r="326" ht="15.75" customHeight="1">
-      <c r="C326" s="22"/>
-    </row>
-    <row r="327" ht="15.75" customHeight="1">
-      <c r="C327" s="22"/>
-    </row>
-    <row r="328" ht="15.75" customHeight="1">
-      <c r="C328" s="22"/>
-    </row>
-    <row r="329" ht="15.75" customHeight="1">
-      <c r="C329" s="22"/>
-    </row>
-    <row r="330" ht="15.75" customHeight="1">
-      <c r="C330" s="22"/>
-    </row>
-    <row r="331" ht="15.75" customHeight="1">
-      <c r="C331" s="22"/>
-    </row>
-    <row r="332" ht="15.75" customHeight="1">
-      <c r="C332" s="22"/>
-    </row>
-    <row r="333" ht="15.75" customHeight="1">
-      <c r="C333" s="22"/>
-    </row>
-    <row r="334" ht="15.75" customHeight="1">
-      <c r="C334" s="22"/>
-    </row>
-    <row r="335" ht="15.75" customHeight="1">
-      <c r="C335" s="22"/>
-    </row>
-    <row r="336" ht="15.75" customHeight="1">
-      <c r="C336" s="22"/>
-    </row>
-    <row r="337" ht="15.75" customHeight="1">
-      <c r="C337" s="22"/>
-    </row>
-    <row r="338" ht="15.75" customHeight="1">
-      <c r="C338" s="22"/>
-    </row>
-    <row r="339" ht="15.75" customHeight="1">
-      <c r="C339" s="22"/>
-    </row>
-    <row r="340" ht="15.75" customHeight="1">
-      <c r="C340" s="22"/>
-    </row>
-    <row r="341" ht="15.75" customHeight="1">
-      <c r="C341" s="22"/>
-    </row>
-    <row r="342" ht="15.75" customHeight="1">
-      <c r="C342" s="22"/>
-    </row>
-    <row r="343" ht="15.75" customHeight="1">
-      <c r="C343" s="22"/>
-    </row>
-    <row r="344" ht="15.75" customHeight="1">
-      <c r="C344" s="22"/>
-    </row>
-    <row r="345" ht="15.75" customHeight="1">
-      <c r="C345" s="22"/>
-    </row>
-    <row r="346" ht="15.75" customHeight="1">
-      <c r="C346" s="22"/>
-    </row>
-    <row r="347" ht="15.75" customHeight="1">
-      <c r="C347" s="22"/>
-    </row>
-    <row r="348" ht="15.75" customHeight="1">
-      <c r="C348" s="22"/>
-    </row>
-    <row r="349" ht="15.75" customHeight="1">
-      <c r="C349" s="22"/>
-    </row>
-    <row r="350" ht="15.75" customHeight="1">
-      <c r="C350" s="22"/>
-    </row>
-    <row r="351" ht="15.75" customHeight="1">
-      <c r="C351" s="22"/>
-    </row>
-    <row r="352" ht="15.75" customHeight="1">
-      <c r="C352" s="22"/>
-    </row>
-    <row r="353" ht="15.75" customHeight="1">
-      <c r="C353" s="22"/>
-    </row>
-    <row r="354" ht="15.75" customHeight="1">
-      <c r="C354" s="22"/>
-    </row>
-    <row r="355" ht="15.75" customHeight="1">
-      <c r="C355" s="22"/>
-    </row>
-    <row r="356" ht="15.75" customHeight="1">
-      <c r="C356" s="22"/>
-    </row>
-    <row r="357" ht="15.75" customHeight="1">
-      <c r="C357" s="22"/>
-    </row>
-    <row r="358" ht="15.75" customHeight="1">
-      <c r="C358" s="22"/>
-    </row>
-    <row r="359" ht="15.75" customHeight="1">
-      <c r="C359" s="22"/>
-    </row>
-    <row r="360" ht="15.75" customHeight="1">
-      <c r="C360" s="22"/>
-    </row>
-    <row r="361" ht="15.75" customHeight="1">
-      <c r="C361" s="22"/>
-    </row>
-    <row r="362" ht="15.75" customHeight="1">
-      <c r="C362" s="22"/>
-    </row>
-    <row r="363" ht="15.75" customHeight="1">
-      <c r="C363" s="22"/>
-    </row>
-    <row r="364" ht="15.75" customHeight="1">
-      <c r="C364" s="22"/>
-    </row>
-    <row r="365" ht="15.75" customHeight="1">
-      <c r="C365" s="22"/>
-    </row>
-    <row r="366" ht="15.75" customHeight="1">
-      <c r="C366" s="22"/>
-    </row>
-    <row r="367" ht="15.75" customHeight="1">
-      <c r="C367" s="22"/>
-    </row>
-    <row r="368" ht="15.75" customHeight="1">
-      <c r="C368" s="22"/>
-    </row>
-    <row r="369" ht="15.75" customHeight="1">
-      <c r="C369" s="22"/>
-    </row>
-    <row r="370" ht="15.75" customHeight="1">
-      <c r="C370" s="22"/>
-    </row>
-    <row r="371" ht="15.75" customHeight="1">
-      <c r="C371" s="22"/>
-    </row>
-    <row r="372" ht="15.75" customHeight="1">
-      <c r="C372" s="22"/>
-    </row>
-    <row r="373" ht="15.75" customHeight="1">
-      <c r="C373" s="22"/>
-    </row>
-    <row r="374" ht="15.75" customHeight="1">
-      <c r="C374" s="22"/>
-    </row>
-    <row r="375" ht="15.75" customHeight="1">
-      <c r="C375" s="22"/>
-    </row>
-    <row r="376" ht="15.75" customHeight="1">
-      <c r="C376" s="22"/>
-    </row>
-    <row r="377" ht="15.75" customHeight="1">
-      <c r="C377" s="22"/>
-    </row>
-    <row r="378" ht="15.75" customHeight="1">
-      <c r="C378" s="22"/>
-    </row>
-    <row r="379" ht="15.75" customHeight="1">
-      <c r="C379" s="22"/>
-    </row>
-    <row r="380" ht="15.75" customHeight="1">
-      <c r="C380" s="22"/>
-    </row>
-    <row r="381" ht="15.75" customHeight="1">
-      <c r="C381" s="22"/>
-    </row>
-    <row r="382" ht="15.75" customHeight="1">
-      <c r="C382" s="22"/>
-    </row>
-    <row r="383" ht="15.75" customHeight="1">
-      <c r="C383" s="22"/>
-    </row>
-    <row r="384" ht="15.75" customHeight="1">
-      <c r="C384" s="22"/>
-    </row>
-    <row r="385" ht="15.75" customHeight="1">
-      <c r="C385" s="22"/>
-    </row>
-    <row r="386" ht="15.75" customHeight="1">
-      <c r="C386" s="22"/>
-    </row>
-    <row r="387" ht="15.75" customHeight="1">
-      <c r="C387" s="22"/>
-    </row>
-    <row r="388" ht="15.75" customHeight="1">
-      <c r="C388" s="22"/>
-    </row>
-    <row r="389" ht="15.75" customHeight="1">
-      <c r="C389" s="22"/>
-    </row>
-    <row r="390" ht="15.75" customHeight="1">
-      <c r="C390" s="22"/>
-    </row>
-    <row r="391" ht="15.75" customHeight="1">
-      <c r="C391" s="22"/>
-    </row>
-    <row r="392" ht="15.75" customHeight="1">
-      <c r="C392" s="22"/>
-    </row>
-    <row r="393" ht="15.75" customHeight="1">
-      <c r="C393" s="22"/>
-    </row>
-    <row r="394" ht="15.75" customHeight="1">
-      <c r="C394" s="22"/>
-    </row>
-    <row r="395" ht="15.75" customHeight="1">
-      <c r="C395" s="22"/>
-    </row>
-    <row r="396" ht="15.75" customHeight="1">
-      <c r="C396" s="22"/>
-    </row>
-    <row r="397" ht="15.75" customHeight="1">
-      <c r="C397" s="22"/>
-    </row>
-    <row r="398" ht="15.75" customHeight="1">
-      <c r="C398" s="22"/>
-    </row>
-    <row r="399" ht="15.75" customHeight="1">
-      <c r="C399" s="22"/>
-    </row>
-    <row r="400" ht="15.75" customHeight="1">
-      <c r="C400" s="22"/>
-    </row>
-    <row r="401" ht="15.75" customHeight="1">
-      <c r="C401" s="22"/>
-    </row>
-    <row r="402" ht="15.75" customHeight="1">
-      <c r="C402" s="22"/>
-    </row>
-    <row r="403" ht="15.75" customHeight="1">
-      <c r="C403" s="22"/>
-    </row>
-    <row r="404" ht="15.75" customHeight="1">
-      <c r="C404" s="22"/>
-    </row>
-    <row r="405" ht="15.75" customHeight="1">
-      <c r="C405" s="22"/>
-    </row>
-    <row r="406" ht="15.75" customHeight="1">
-      <c r="C406" s="22"/>
-    </row>
-    <row r="407" ht="15.75" customHeight="1">
-      <c r="C407" s="22"/>
-    </row>
-    <row r="408" ht="15.75" customHeight="1">
-      <c r="C408" s="22"/>
-    </row>
-    <row r="409" ht="15.75" customHeight="1">
-      <c r="C409" s="22"/>
-    </row>
-    <row r="410" ht="15.75" customHeight="1">
-      <c r="C410" s="22"/>
-    </row>
-    <row r="411" ht="15.75" customHeight="1">
-      <c r="C411" s="22"/>
-    </row>
-    <row r="412" ht="15.75" customHeight="1">
-      <c r="C412" s="22"/>
-    </row>
-    <row r="413" ht="15.75" customHeight="1">
-      <c r="C413" s="22"/>
-    </row>
-    <row r="414" ht="15.75" customHeight="1">
-      <c r="C414" s="22"/>
-    </row>
-    <row r="415" ht="15.75" customHeight="1">
-      <c r="C415" s="22"/>
-    </row>
-    <row r="416" ht="15.75" customHeight="1">
-      <c r="C416" s="22"/>
-    </row>
-    <row r="417" ht="15.75" customHeight="1">
-      <c r="C417" s="22"/>
-    </row>
-    <row r="418" ht="15.75" customHeight="1">
-      <c r="C418" s="22"/>
-    </row>
-    <row r="419" ht="15.75" customHeight="1">
-      <c r="C419" s="22"/>
-    </row>
-    <row r="420" ht="15.75" customHeight="1">
-      <c r="C420" s="22"/>
-    </row>
-    <row r="421" ht="15.75" customHeight="1">
-      <c r="C421" s="22"/>
-    </row>
-    <row r="422" ht="15.75" customHeight="1">
-      <c r="C422" s="22"/>
-    </row>
-    <row r="423" ht="15.75" customHeight="1">
-      <c r="C423" s="22"/>
-    </row>
-    <row r="424" ht="15.75" customHeight="1">
-      <c r="C424" s="22"/>
-    </row>
-    <row r="425" ht="15.75" customHeight="1">
-      <c r="C425" s="22"/>
-    </row>
-    <row r="426" ht="15.75" customHeight="1">
-      <c r="C426" s="22"/>
-    </row>
-    <row r="427" ht="15.75" customHeight="1">
-      <c r="C427" s="22"/>
-    </row>
-    <row r="428" ht="15.75" customHeight="1">
-      <c r="C428" s="22"/>
-    </row>
-    <row r="429" ht="15.75" customHeight="1">
-      <c r="C429" s="22"/>
-    </row>
-    <row r="430" ht="15.75" customHeight="1">
-      <c r="C430" s="22"/>
-    </row>
-    <row r="431" ht="15.75" customHeight="1">
-      <c r="C431" s="22"/>
-    </row>
-    <row r="432" ht="15.75" customHeight="1">
-      <c r="C432" s="22"/>
-    </row>
-    <row r="433" ht="15.75" customHeight="1">
-      <c r="C433" s="22"/>
-    </row>
-    <row r="434" ht="15.75" customHeight="1">
-      <c r="C434" s="22"/>
-    </row>
-    <row r="435" ht="15.75" customHeight="1">
-      <c r="C435" s="22"/>
-    </row>
-    <row r="436" ht="15.75" customHeight="1">
-      <c r="C436" s="22"/>
-    </row>
-    <row r="437" ht="15.75" customHeight="1">
-      <c r="C437" s="22"/>
-    </row>
-    <row r="438" ht="15.75" customHeight="1">
-      <c r="C438" s="22"/>
-    </row>
-    <row r="439" ht="15.75" customHeight="1">
-      <c r="C439" s="22"/>
-    </row>
-    <row r="440" ht="15.75" customHeight="1">
-      <c r="C440" s="22"/>
-    </row>
-    <row r="441" ht="15.75" customHeight="1">
-      <c r="C441" s="22"/>
-    </row>
-    <row r="442" ht="15.75" customHeight="1">
-      <c r="C442" s="22"/>
-    </row>
-    <row r="443" ht="15.75" customHeight="1">
-      <c r="C443" s="22"/>
-    </row>
-    <row r="444" ht="15.75" customHeight="1">
-      <c r="C444" s="22"/>
-    </row>
-    <row r="445" ht="15.75" customHeight="1">
-      <c r="C445" s="22"/>
-    </row>
-    <row r="446" ht="15.75" customHeight="1">
-      <c r="C446" s="22"/>
-    </row>
-    <row r="447" ht="15.75" customHeight="1">
-      <c r="C447" s="22"/>
-    </row>
-    <row r="448" ht="15.75" customHeight="1">
-      <c r="C448" s="22"/>
-    </row>
-    <row r="449" ht="15.75" customHeight="1">
-      <c r="C449" s="22"/>
-    </row>
-    <row r="450" ht="15.75" customHeight="1">
-      <c r="C450" s="22"/>
-    </row>
-    <row r="451" ht="15.75" customHeight="1">
-      <c r="C451" s="22"/>
-    </row>
-    <row r="452" ht="15.75" customHeight="1">
-      <c r="C452" s="22"/>
-    </row>
-    <row r="453" ht="15.75" customHeight="1">
-      <c r="C453" s="22"/>
-    </row>
-    <row r="454" ht="15.75" customHeight="1">
-      <c r="C454" s="22"/>
-    </row>
-    <row r="455" ht="15.75" customHeight="1">
-      <c r="C455" s="22"/>
-    </row>
-    <row r="456" ht="15.75" customHeight="1">
-      <c r="C456" s="22"/>
-    </row>
-    <row r="457" ht="15.75" customHeight="1">
-      <c r="C457" s="22"/>
-    </row>
-    <row r="458" ht="15.75" customHeight="1">
-      <c r="C458" s="22"/>
-    </row>
-    <row r="459" ht="15.75" customHeight="1">
-      <c r="C459" s="22"/>
-    </row>
-    <row r="460" ht="15.75" customHeight="1">
-      <c r="C460" s="22"/>
-    </row>
-    <row r="461" ht="15.75" customHeight="1">
-      <c r="C461" s="22"/>
-    </row>
-    <row r="462" ht="15.75" customHeight="1">
-      <c r="C462" s="22"/>
-    </row>
-    <row r="463" ht="15.75" customHeight="1">
-      <c r="C463" s="22"/>
-    </row>
-    <row r="464" ht="15.75" customHeight="1">
-      <c r="C464" s="22"/>
-    </row>
-    <row r="465" ht="15.75" customHeight="1">
-      <c r="C465" s="22"/>
-    </row>
-    <row r="466" ht="15.75" customHeight="1">
-      <c r="C466" s="22"/>
-    </row>
-    <row r="467" ht="15.75" customHeight="1">
-      <c r="C467" s="22"/>
-    </row>
-    <row r="468" ht="15.75" customHeight="1">
-      <c r="C468" s="22"/>
-    </row>
-    <row r="469" ht="15.75" customHeight="1">
-      <c r="C469" s="22"/>
-    </row>
-    <row r="470" ht="15.75" customHeight="1">
-      <c r="C470" s="22"/>
-    </row>
-    <row r="471" ht="15.75" customHeight="1">
-      <c r="C471" s="22"/>
-    </row>
-    <row r="472" ht="15.75" customHeight="1">
-      <c r="C472" s="22"/>
-    </row>
-    <row r="473" ht="15.75" customHeight="1">
-      <c r="C473" s="22"/>
-    </row>
-    <row r="474" ht="15.75" customHeight="1">
-      <c r="C474" s="22"/>
-    </row>
-    <row r="475" ht="15.75" customHeight="1">
-      <c r="C475" s="22"/>
-    </row>
-    <row r="476" ht="15.75" customHeight="1">
-      <c r="C476" s="22"/>
-    </row>
-    <row r="477" ht="15.75" customHeight="1">
-      <c r="C477" s="22"/>
-    </row>
-    <row r="478" ht="15.75" customHeight="1">
-      <c r="C478" s="22"/>
-    </row>
-    <row r="479" ht="15.75" customHeight="1">
-      <c r="C479" s="22"/>
-    </row>
-    <row r="480" ht="15.75" customHeight="1">
-      <c r="C480" s="22"/>
-    </row>
-    <row r="481" ht="15.75" customHeight="1">
-      <c r="C481" s="22"/>
-    </row>
-    <row r="482" ht="15.75" customHeight="1">
-      <c r="C482" s="22"/>
-    </row>
-    <row r="483" ht="15.75" customHeight="1">
-      <c r="C483" s="22"/>
-    </row>
-    <row r="484" ht="15.75" customHeight="1">
-      <c r="C484" s="22"/>
-    </row>
-    <row r="485" ht="15.75" customHeight="1">
-      <c r="C485" s="22"/>
-    </row>
-    <row r="486" ht="15.75" customHeight="1">
-      <c r="C486" s="22"/>
-    </row>
-    <row r="487" ht="15.75" customHeight="1">
-      <c r="C487" s="22"/>
-    </row>
-    <row r="488" ht="15.75" customHeight="1">
-      <c r="C488" s="22"/>
-    </row>
-    <row r="489" ht="15.75" customHeight="1">
-      <c r="C489" s="22"/>
-    </row>
-    <row r="490" ht="15.75" customHeight="1">
-      <c r="C490" s="22"/>
-    </row>
-    <row r="491" ht="15.75" customHeight="1">
-      <c r="C491" s="22"/>
-    </row>
-    <row r="492" ht="15.75" customHeight="1">
-      <c r="C492" s="22"/>
-    </row>
-    <row r="493" ht="15.75" customHeight="1">
-      <c r="C493" s="22"/>
-    </row>
-    <row r="494" ht="15.75" customHeight="1">
-      <c r="C494" s="22"/>
-    </row>
-    <row r="495" ht="15.75" customHeight="1">
-      <c r="C495" s="22"/>
-    </row>
-    <row r="496" ht="15.75" customHeight="1">
-      <c r="C496" s="22"/>
-    </row>
-    <row r="497" ht="15.75" customHeight="1">
-      <c r="C497" s="22"/>
-    </row>
-    <row r="498" ht="15.75" customHeight="1">
-      <c r="C498" s="22"/>
-    </row>
-    <row r="499" ht="15.75" customHeight="1">
-      <c r="C499" s="22"/>
-    </row>
-    <row r="500" ht="15.75" customHeight="1">
-      <c r="C500" s="22"/>
-    </row>
-    <row r="501" ht="15.75" customHeight="1">
-      <c r="C501" s="22"/>
-    </row>
-    <row r="502" ht="15.75" customHeight="1">
-      <c r="C502" s="22"/>
-    </row>
-    <row r="503" ht="15.75" customHeight="1">
-      <c r="C503" s="22"/>
-    </row>
-    <row r="504" ht="15.75" customHeight="1">
-      <c r="C504" s="22"/>
-    </row>
-    <row r="505" ht="15.75" customHeight="1">
-      <c r="C505" s="22"/>
-    </row>
-    <row r="506" ht="15.75" customHeight="1">
-      <c r="C506" s="22"/>
-    </row>
-    <row r="507" ht="15.75" customHeight="1">
-      <c r="C507" s="22"/>
-    </row>
-    <row r="508" ht="15.75" customHeight="1">
-      <c r="C508" s="22"/>
-    </row>
-    <row r="509" ht="15.75" customHeight="1">
-      <c r="C509" s="22"/>
-    </row>
-    <row r="510" ht="15.75" customHeight="1">
-      <c r="C510" s="22"/>
-    </row>
-    <row r="511" ht="15.75" customHeight="1">
-      <c r="C511" s="22"/>
-    </row>
-    <row r="512" ht="15.75" customHeight="1">
-      <c r="C512" s="22"/>
-    </row>
-    <row r="513" ht="15.75" customHeight="1">
-      <c r="C513" s="22"/>
-    </row>
-    <row r="514" ht="15.75" customHeight="1">
-      <c r="C514" s="22"/>
-    </row>
-    <row r="515" ht="15.75" customHeight="1">
-      <c r="C515" s="22"/>
-    </row>
-    <row r="516" ht="15.75" customHeight="1">
-      <c r="C516" s="22"/>
-    </row>
-    <row r="517" ht="15.75" customHeight="1">
-      <c r="C517" s="22"/>
-    </row>
-    <row r="518" ht="15.75" customHeight="1">
-      <c r="C518" s="22"/>
-    </row>
-    <row r="519" ht="15.75" customHeight="1">
-      <c r="C519" s="22"/>
-    </row>
-    <row r="520" ht="15.75" customHeight="1">
-      <c r="C520" s="22"/>
-    </row>
-    <row r="521" ht="15.75" customHeight="1">
-      <c r="C521" s="22"/>
-    </row>
-    <row r="522" ht="15.75" customHeight="1">
-      <c r="C522" s="22"/>
-    </row>
-    <row r="523" ht="15.75" customHeight="1">
-      <c r="C523" s="22"/>
-    </row>
-    <row r="524" ht="15.75" customHeight="1">
-      <c r="C524" s="22"/>
-    </row>
-    <row r="525" ht="15.75" customHeight="1">
-      <c r="C525" s="22"/>
-    </row>
-    <row r="526" ht="15.75" customHeight="1">
-      <c r="C526" s="22"/>
-    </row>
-    <row r="527" ht="15.75" customHeight="1">
-      <c r="C527" s="22"/>
-    </row>
-    <row r="528" ht="15.75" customHeight="1">
-      <c r="C528" s="22"/>
-    </row>
-    <row r="529" ht="15.75" customHeight="1">
-      <c r="C529" s="22"/>
-    </row>
-    <row r="530" ht="15.75" customHeight="1">
-      <c r="C530" s="22"/>
-    </row>
-    <row r="531" ht="15.75" customHeight="1">
-      <c r="C531" s="22"/>
-    </row>
-    <row r="532" ht="15.75" customHeight="1">
-      <c r="C532" s="22"/>
-    </row>
-    <row r="533" ht="15.75" customHeight="1">
-      <c r="C533" s="22"/>
-    </row>
-    <row r="534" ht="15.75" customHeight="1">
-      <c r="C534" s="22"/>
-    </row>
-    <row r="535" ht="15.75" customHeight="1">
-      <c r="C535" s="22"/>
-    </row>
-    <row r="536" ht="15.75" customHeight="1">
-      <c r="C536" s="22"/>
-    </row>
-    <row r="537" ht="15.75" customHeight="1">
-      <c r="C537" s="22"/>
-    </row>
-    <row r="538" ht="15.75" customHeight="1">
-      <c r="C538" s="22"/>
-    </row>
-    <row r="539" ht="15.75" customHeight="1">
-      <c r="C539" s="22"/>
-    </row>
-    <row r="540" ht="15.75" customHeight="1">
-      <c r="C540" s="22"/>
-    </row>
-    <row r="541" ht="15.75" customHeight="1">
-      <c r="C541" s="22"/>
-    </row>
-    <row r="542" ht="15.75" customHeight="1">
-      <c r="C542" s="22"/>
-    </row>
-    <row r="543" ht="15.75" customHeight="1">
-      <c r="C543" s="22"/>
-    </row>
-    <row r="544" ht="15.75" customHeight="1">
-      <c r="C544" s="22"/>
-    </row>
-    <row r="545" ht="15.75" customHeight="1">
-      <c r="C545" s="22"/>
-    </row>
-    <row r="546" ht="15.75" customHeight="1">
-      <c r="C546" s="22"/>
-    </row>
-    <row r="547" ht="15.75" customHeight="1">
-      <c r="C547" s="22"/>
-    </row>
-    <row r="548" ht="15.75" customHeight="1">
-      <c r="C548" s="22"/>
-    </row>
-    <row r="549" ht="15.75" customHeight="1">
-      <c r="C549" s="22"/>
-    </row>
-    <row r="550" ht="15.75" customHeight="1">
-      <c r="C550" s="22"/>
-    </row>
-    <row r="551" ht="15.75" customHeight="1">
-      <c r="C551" s="22"/>
-    </row>
-    <row r="552" ht="15.75" customHeight="1">
-      <c r="C552" s="22"/>
-    </row>
-    <row r="553" ht="15.75" customHeight="1">
-      <c r="C553" s="22"/>
-    </row>
-    <row r="554" ht="15.75" customHeight="1">
-      <c r="C554" s="22"/>
-    </row>
-    <row r="555" ht="15.75" customHeight="1">
-      <c r="C555" s="22"/>
-    </row>
-    <row r="556" ht="15.75" customHeight="1">
-      <c r="C556" s="22"/>
-    </row>
-    <row r="557" ht="15.75" customHeight="1">
-      <c r="C557" s="22"/>
-    </row>
-    <row r="558" ht="15.75" customHeight="1">
-      <c r="C558" s="22"/>
-    </row>
-    <row r="559" ht="15.75" customHeight="1">
-      <c r="C559" s="22"/>
-    </row>
-    <row r="560" ht="15.75" customHeight="1">
-      <c r="C560" s="22"/>
-    </row>
-    <row r="561" ht="15.75" customHeight="1">
-      <c r="C561" s="22"/>
-    </row>
-    <row r="562" ht="15.75" customHeight="1">
-      <c r="C562" s="22"/>
-    </row>
-    <row r="563" ht="15.75" customHeight="1">
-      <c r="C563" s="22"/>
-    </row>
-    <row r="564" ht="15.75" customHeight="1">
-      <c r="C564" s="22"/>
-    </row>
-    <row r="565" ht="15.75" customHeight="1">
-      <c r="C565" s="22"/>
-    </row>
-    <row r="566" ht="15.75" customHeight="1">
-      <c r="C566" s="22"/>
-    </row>
-    <row r="567" ht="15.75" customHeight="1">
-      <c r="C567" s="22"/>
-    </row>
-    <row r="568" ht="15.75" customHeight="1">
-      <c r="C568" s="22"/>
-    </row>
-    <row r="569" ht="15.75" customHeight="1">
-      <c r="C569" s="22"/>
-    </row>
-    <row r="570" ht="15.75" customHeight="1">
-      <c r="C570" s="22"/>
-    </row>
-    <row r="571" ht="15.75" customHeight="1">
-      <c r="C571" s="22"/>
-    </row>
-    <row r="572" ht="15.75" customHeight="1">
-      <c r="C572" s="22"/>
-    </row>
-    <row r="573" ht="15.75" customHeight="1">
-      <c r="C573" s="22"/>
-    </row>
-    <row r="574" ht="15.75" customHeight="1">
-      <c r="C574" s="22"/>
-    </row>
-    <row r="575" ht="15.75" customHeight="1">
-      <c r="C575" s="22"/>
-    </row>
-    <row r="576" ht="15.75" customHeight="1">
-      <c r="C576" s="22"/>
-    </row>
-    <row r="577" ht="15.75" customHeight="1">
-      <c r="C577" s="22"/>
-    </row>
-    <row r="578" ht="15.75" customHeight="1">
-      <c r="C578" s="22"/>
-    </row>
-    <row r="579" ht="15.75" customHeight="1">
-      <c r="C579" s="22"/>
-    </row>
-    <row r="580" ht="15.75" customHeight="1">
-      <c r="C580" s="22"/>
-    </row>
-    <row r="581" ht="15.75" customHeight="1">
-      <c r="C581" s="22"/>
-    </row>
-    <row r="582" ht="15.75" customHeight="1">
-      <c r="C582" s="22"/>
-    </row>
-    <row r="583" ht="15.75" customHeight="1">
-      <c r="C583" s="22"/>
-    </row>
-    <row r="584" ht="15.75" customHeight="1">
-      <c r="C584" s="22"/>
-    </row>
-    <row r="585" ht="15.75" customHeight="1">
-      <c r="C585" s="22"/>
-    </row>
-    <row r="586" ht="15.75" customHeight="1">
-      <c r="C586" s="22"/>
-    </row>
-    <row r="587" ht="15.75" customHeight="1">
-      <c r="C587" s="22"/>
-    </row>
-    <row r="588" ht="15.75" customHeight="1">
-      <c r="C588" s="22"/>
-    </row>
-    <row r="589" ht="15.75" customHeight="1">
-      <c r="C589" s="22"/>
-    </row>
-    <row r="590" ht="15.75" customHeight="1">
-      <c r="C590" s="22"/>
-    </row>
-    <row r="591" ht="15.75" customHeight="1">
-      <c r="C591" s="22"/>
-    </row>
-    <row r="592" ht="15.75" customHeight="1">
-      <c r="C592" s="22"/>
-    </row>
-    <row r="593" ht="15.75" customHeight="1">
-      <c r="C593" s="22"/>
-    </row>
-    <row r="594" ht="15.75" customHeight="1">
-      <c r="C594" s="22"/>
-    </row>
-    <row r="595" ht="15.75" customHeight="1">
-      <c r="C595" s="22"/>
-    </row>
-    <row r="596" ht="15.75" customHeight="1">
-      <c r="C596" s="22"/>
-    </row>
-    <row r="597" ht="15.75" customHeight="1">
-      <c r="C597" s="22"/>
-    </row>
-    <row r="598" ht="15.75" customHeight="1">
-      <c r="C598" s="22"/>
-    </row>
-    <row r="599" ht="15.75" customHeight="1">
-      <c r="C599" s="22"/>
-    </row>
-    <row r="600" ht="15.75" customHeight="1">
-      <c r="C600" s="22"/>
-    </row>
-    <row r="601" ht="15.75" customHeight="1">
-      <c r="C601" s="22"/>
-    </row>
-    <row r="602" ht="15.75" customHeight="1">
-      <c r="C602" s="22"/>
-    </row>
-    <row r="603" ht="15.75" customHeight="1">
-      <c r="C603" s="22"/>
-    </row>
-    <row r="604" ht="15.75" customHeight="1">
-      <c r="C604" s="22"/>
-    </row>
-    <row r="605" ht="15.75" customHeight="1">
-      <c r="C605" s="22"/>
-    </row>
-    <row r="606" ht="15.75" customHeight="1">
-      <c r="C606" s="22"/>
-    </row>
-    <row r="607" ht="15.75" customHeight="1">
-      <c r="C607" s="22"/>
-    </row>
-    <row r="608" ht="15.75" customHeight="1">
-      <c r="C608" s="22"/>
-    </row>
-    <row r="609" ht="15.75" customHeight="1">
-      <c r="C609" s="22"/>
-    </row>
-    <row r="610" ht="15.75" customHeight="1">
-      <c r="C610" s="22"/>
-    </row>
-    <row r="611" ht="15.75" customHeight="1">
-      <c r="C611" s="22"/>
-    </row>
-    <row r="612" ht="15.75" customHeight="1">
-      <c r="C612" s="22"/>
-    </row>
-    <row r="613" ht="15.75" customHeight="1">
-      <c r="C613" s="22"/>
-    </row>
-    <row r="614" ht="15.75" customHeight="1">
-      <c r="C614" s="22"/>
-    </row>
-    <row r="615" ht="15.75" customHeight="1">
-      <c r="C615" s="22"/>
-    </row>
-    <row r="616" ht="15.75" customHeight="1">
-      <c r="C616" s="22"/>
-    </row>
-    <row r="617" ht="15.75" customHeight="1">
-      <c r="C617" s="22"/>
-    </row>
-    <row r="618" ht="15.75" customHeight="1">
-      <c r="C618" s="22"/>
-    </row>
-    <row r="619" ht="15.75" customHeight="1">
-      <c r="C619" s="22"/>
-    </row>
-    <row r="620" ht="15.75" customHeight="1">
-      <c r="C620" s="22"/>
-    </row>
-    <row r="621" ht="15.75" customHeight="1">
-      <c r="C621" s="22"/>
-    </row>
-    <row r="622" ht="15.75" customHeight="1">
-      <c r="C622" s="22"/>
-    </row>
-    <row r="623" ht="15.75" customHeight="1">
-      <c r="C623" s="22"/>
-    </row>
-    <row r="624" ht="15.75" customHeight="1">
-      <c r="C624" s="22"/>
-    </row>
-    <row r="625" ht="15.75" customHeight="1">
-      <c r="C625" s="22"/>
-    </row>
-    <row r="626" ht="15.75" customHeight="1">
-      <c r="C626" s="22"/>
-    </row>
-    <row r="627" ht="15.75" customHeight="1">
-      <c r="C627" s="22"/>
-    </row>
-    <row r="628" ht="15.75" customHeight="1">
-      <c r="C628" s="22"/>
-    </row>
-    <row r="629" ht="15.75" customHeight="1">
-      <c r="C629" s="22"/>
-    </row>
-    <row r="630" ht="15.75" customHeight="1">
-      <c r="C630" s="22"/>
-    </row>
-    <row r="631" ht="15.75" customHeight="1">
-      <c r="C631" s="22"/>
-    </row>
-    <row r="632" ht="15.75" customHeight="1">
-      <c r="C632" s="22"/>
-    </row>
-    <row r="633" ht="15.75" customHeight="1">
-      <c r="C633" s="22"/>
-    </row>
-    <row r="634" ht="15.75" customHeight="1">
-      <c r="C634" s="22"/>
-    </row>
-    <row r="635" ht="15.75" customHeight="1">
-      <c r="C635" s="22"/>
-    </row>
-    <row r="636" ht="15.75" customHeight="1">
-      <c r="C636" s="22"/>
-    </row>
-    <row r="637" ht="15.75" customHeight="1">
-      <c r="C637" s="22"/>
-    </row>
-    <row r="638" ht="15.75" customHeight="1">
-      <c r="C638" s="22"/>
-    </row>
-    <row r="639" ht="15.75" customHeight="1">
-      <c r="C639" s="22"/>
-    </row>
-    <row r="640" ht="15.75" customHeight="1">
-      <c r="C640" s="22"/>
-    </row>
-    <row r="641" ht="15.75" customHeight="1">
-      <c r="C641" s="22"/>
-    </row>
-    <row r="642" ht="15.75" customHeight="1">
-      <c r="C642" s="22"/>
-    </row>
-    <row r="643" ht="15.75" customHeight="1">
-      <c r="C643" s="22"/>
-    </row>
-    <row r="644" ht="15.75" customHeight="1">
-      <c r="C644" s="22"/>
-    </row>
-    <row r="645" ht="15.75" customHeight="1">
-      <c r="C645" s="22"/>
-    </row>
-    <row r="646" ht="15.75" customHeight="1">
-      <c r="C646" s="22"/>
-    </row>
-    <row r="647" ht="15.75" customHeight="1">
-      <c r="C647" s="22"/>
-    </row>
-    <row r="648" ht="15.75" customHeight="1">
-      <c r="C648" s="22"/>
-    </row>
-    <row r="649" ht="15.75" customHeight="1">
-      <c r="C649" s="22"/>
-    </row>
-    <row r="650" ht="15.75" customHeight="1">
-      <c r="C650" s="22"/>
-    </row>
-    <row r="651" ht="15.75" customHeight="1">
-      <c r="C651" s="22"/>
-    </row>
-    <row r="652" ht="15.75" customHeight="1">
-      <c r="C652" s="22"/>
-    </row>
-    <row r="653" ht="15.75" customHeight="1">
-      <c r="C653" s="22"/>
-    </row>
-    <row r="654" ht="15.75" customHeight="1">
-      <c r="C654" s="22"/>
-    </row>
-    <row r="655" ht="15.75" customHeight="1">
-      <c r="C655" s="22"/>
-    </row>
-    <row r="656" ht="15.75" customHeight="1">
-      <c r="C656" s="22"/>
-    </row>
-    <row r="657" ht="15.75" customHeight="1">
-      <c r="C657" s="22"/>
-    </row>
-    <row r="658" ht="15.75" customHeight="1">
-      <c r="C658" s="22"/>
-    </row>
-    <row r="659" ht="15.75" customHeight="1">
-      <c r="C659" s="22"/>
-    </row>
-    <row r="660" ht="15.75" customHeight="1">
-      <c r="C660" s="22"/>
-    </row>
-    <row r="661" ht="15.75" customHeight="1">
-      <c r="C661" s="22"/>
-    </row>
-    <row r="662" ht="15.75" customHeight="1">
-      <c r="C662" s="22"/>
-    </row>
-    <row r="663" ht="15.75" customHeight="1">
-      <c r="C663" s="22"/>
-    </row>
-    <row r="664" ht="15.75" customHeight="1">
-      <c r="C664" s="22"/>
-    </row>
-    <row r="665" ht="15.75" customHeight="1">
-      <c r="C665" s="22"/>
-    </row>
-    <row r="666" ht="15.75" customHeight="1">
-      <c r="C666" s="22"/>
-    </row>
-    <row r="667" ht="15.75" customHeight="1">
-      <c r="C667" s="22"/>
-    </row>
-    <row r="668" ht="15.75" customHeight="1">
-      <c r="C668" s="22"/>
-    </row>
-    <row r="669" ht="15.75" customHeight="1">
-      <c r="C669" s="22"/>
-    </row>
-    <row r="670" ht="15.75" customHeight="1">
-      <c r="C670" s="22"/>
-    </row>
-    <row r="671" ht="15.75" customHeight="1">
-      <c r="C671" s="22"/>
-    </row>
-    <row r="672" ht="15.75" customHeight="1">
-      <c r="C672" s="22"/>
-    </row>
-    <row r="673" ht="15.75" customHeight="1">
-      <c r="C673" s="22"/>
-    </row>
-    <row r="674" ht="15.75" customHeight="1">
-      <c r="C674" s="22"/>
-    </row>
-    <row r="675" ht="15.75" customHeight="1">
-      <c r="C675" s="22"/>
-    </row>
-    <row r="676" ht="15.75" customHeight="1">
-      <c r="C676" s="22"/>
-    </row>
-    <row r="677" ht="15.75" customHeight="1">
-      <c r="C677" s="22"/>
-    </row>
-    <row r="678" ht="15.75" customHeight="1">
-      <c r="C678" s="22"/>
-    </row>
-    <row r="679" ht="15.75" customHeight="1">
-      <c r="C679" s="22"/>
-    </row>
-    <row r="680" ht="15.75" customHeight="1">
-      <c r="C680" s="22"/>
-    </row>
-    <row r="681" ht="15.75" customHeight="1">
-      <c r="C681" s="22"/>
-    </row>
-    <row r="682" ht="15.75" customHeight="1">
-      <c r="C682" s="22"/>
-    </row>
-    <row r="683" ht="15.75" customHeight="1">
-      <c r="C683" s="22"/>
-    </row>
-    <row r="684" ht="15.75" customHeight="1">
-      <c r="C684" s="22"/>
-    </row>
-    <row r="685" ht="15.75" customHeight="1">
-      <c r="C685" s="22"/>
-    </row>
-    <row r="686" ht="15.75" customHeight="1">
-      <c r="C686" s="22"/>
-    </row>
-    <row r="687" ht="15.75" customHeight="1">
-      <c r="C687" s="22"/>
-    </row>
-    <row r="688" ht="15.75" customHeight="1">
-      <c r="C688" s="22"/>
-    </row>
-    <row r="689" ht="15.75" customHeight="1">
-      <c r="C689" s="22"/>
-    </row>
-    <row r="690" ht="15.75" customHeight="1">
-      <c r="C690" s="22"/>
-    </row>
-    <row r="691" ht="15.75" customHeight="1">
-      <c r="C691" s="22"/>
-    </row>
-    <row r="692" ht="15.75" customHeight="1">
-      <c r="C692" s="22"/>
-    </row>
-    <row r="693" ht="15.75" customHeight="1">
-      <c r="C693" s="22"/>
-    </row>
-    <row r="694" ht="15.75" customHeight="1">
-      <c r="C694" s="22"/>
-    </row>
-    <row r="695" ht="15.75" customHeight="1">
-      <c r="C695" s="22"/>
-    </row>
-    <row r="696" ht="15.75" customHeight="1">
-      <c r="C696" s="22"/>
-    </row>
-    <row r="697" ht="15.75" customHeight="1">
-      <c r="C697" s="22"/>
-    </row>
-    <row r="698" ht="15.75" customHeight="1">
-      <c r="C698" s="22"/>
-    </row>
-    <row r="699" ht="15.75" customHeight="1">
-      <c r="C699" s="22"/>
-    </row>
-    <row r="700" ht="15.75" customHeight="1">
-      <c r="C700" s="22"/>
-    </row>
-    <row r="701" ht="15.75" customHeight="1">
-      <c r="C701" s="22"/>
-    </row>
-    <row r="702" ht="15.75" customHeight="1">
-      <c r="C702" s="22"/>
-    </row>
-    <row r="703" ht="15.75" customHeight="1">
-      <c r="C703" s="22"/>
-    </row>
-    <row r="704" ht="15.75" customHeight="1">
-      <c r="C704" s="22"/>
-    </row>
-    <row r="705" ht="15.75" customHeight="1">
-      <c r="C705" s="22"/>
-    </row>
-    <row r="706" ht="15.75" customHeight="1">
-      <c r="C706" s="22"/>
-    </row>
-    <row r="707" ht="15.75" customHeight="1">
-      <c r="C707" s="22"/>
-    </row>
-    <row r="708" ht="15.75" customHeight="1">
-      <c r="C708" s="22"/>
-    </row>
-    <row r="709" ht="15.75" customHeight="1">
-      <c r="C709" s="22"/>
-    </row>
-    <row r="710" ht="15.75" customHeight="1">
-      <c r="C710" s="22"/>
-    </row>
-    <row r="711" ht="15.75" customHeight="1">
-      <c r="C711" s="22"/>
-    </row>
-    <row r="712" ht="15.75" customHeight="1">
-      <c r="C712" s="22"/>
-    </row>
-    <row r="713" ht="15.75" customHeight="1">
-      <c r="C713" s="22"/>
-    </row>
-    <row r="714" ht="15.75" customHeight="1">
-      <c r="C714" s="22"/>
-    </row>
-    <row r="715" ht="15.75" customHeight="1">
-      <c r="C715" s="22"/>
-    </row>
-    <row r="716" ht="15.75" customHeight="1">
-      <c r="C716" s="22"/>
-    </row>
-    <row r="717" ht="15.75" customHeight="1">
-      <c r="C717" s="22"/>
-    </row>
-    <row r="718" ht="15.75" customHeight="1">
-      <c r="C718" s="22"/>
-    </row>
-    <row r="719" ht="15.75" customHeight="1">
-      <c r="C719" s="22"/>
-    </row>
-    <row r="720" ht="15.75" customHeight="1">
-      <c r="C720" s="22"/>
-    </row>
-    <row r="721" ht="15.75" customHeight="1">
-      <c r="C721" s="22"/>
-    </row>
-    <row r="722" ht="15.75" customHeight="1">
-      <c r="C722" s="22"/>
-    </row>
-    <row r="723" ht="15.75" customHeight="1">
-      <c r="C723" s="22"/>
-    </row>
-    <row r="724" ht="15.75" customHeight="1">
-      <c r="C724" s="22"/>
-    </row>
-    <row r="725" ht="15.75" customHeight="1">
-      <c r="C725" s="22"/>
-    </row>
-    <row r="726" ht="15.75" customHeight="1">
-      <c r="C726" s="22"/>
-    </row>
-    <row r="727" ht="15.75" customHeight="1">
-      <c r="C727" s="22"/>
-    </row>
-    <row r="728" ht="15.75" customHeight="1">
-      <c r="C728" s="22"/>
-    </row>
-    <row r="729" ht="15.75" customHeight="1">
-      <c r="C729" s="22"/>
-    </row>
-    <row r="730" ht="15.75" customHeight="1">
-      <c r="C730" s="22"/>
-    </row>
-    <row r="731" ht="15.75" customHeight="1">
-      <c r="C731" s="22"/>
-    </row>
-    <row r="732" ht="15.75" customHeight="1">
-      <c r="C732" s="22"/>
-    </row>
-    <row r="733" ht="15.75" customHeight="1">
-      <c r="C733" s="22"/>
-    </row>
-    <row r="734" ht="15.75" customHeight="1">
-      <c r="C734" s="22"/>
-    </row>
-    <row r="735" ht="15.75" customHeight="1">
-      <c r="C735" s="22"/>
-    </row>
-    <row r="736" ht="15.75" customHeight="1">
-      <c r="C736" s="22"/>
-    </row>
-    <row r="737" ht="15.75" customHeight="1">
-      <c r="C737" s="22"/>
-    </row>
-    <row r="738" ht="15.75" customHeight="1">
-      <c r="C738" s="22"/>
-    </row>
-    <row r="739" ht="15.75" customHeight="1">
-      <c r="C739" s="22"/>
-    </row>
-    <row r="740" ht="15.75" customHeight="1">
-      <c r="C740" s="22"/>
-    </row>
-    <row r="741" ht="15.75" customHeight="1">
-      <c r="C741" s="22"/>
-    </row>
-    <row r="742" ht="15.75" customHeight="1">
-      <c r="C742" s="22"/>
-    </row>
-    <row r="743" ht="15.75" customHeight="1">
-      <c r="C743" s="22"/>
-    </row>
-    <row r="744" ht="15.75" customHeight="1">
-      <c r="C744" s="22"/>
-    </row>
-    <row r="745" ht="15.75" customHeight="1">
-      <c r="C745" s="22"/>
-    </row>
-    <row r="746" ht="15.75" customHeight="1">
-      <c r="C746" s="22"/>
-    </row>
-    <row r="747" ht="15.75" customHeight="1">
-      <c r="C747" s="22"/>
-    </row>
-    <row r="748" ht="15.75" customHeight="1">
-      <c r="C748" s="22"/>
-    </row>
-    <row r="749" ht="15.75" customHeight="1">
-      <c r="C749" s="22"/>
-    </row>
-    <row r="750" ht="15.75" customHeight="1">
-      <c r="C750" s="22"/>
-    </row>
-    <row r="751" ht="15.75" customHeight="1">
-      <c r="C751" s="22"/>
-    </row>
-    <row r="752" ht="15.75" customHeight="1">
-      <c r="C752" s="22"/>
-    </row>
-    <row r="753" ht="15.75" customHeight="1">
-      <c r="C753" s="22"/>
-    </row>
-    <row r="754" ht="15.75" customHeight="1">
-      <c r="C754" s="22"/>
-    </row>
-    <row r="755" ht="15.75" customHeight="1">
-      <c r="C755" s="22"/>
-    </row>
-    <row r="756" ht="15.75" customHeight="1">
-      <c r="C756" s="22"/>
-    </row>
-    <row r="757" ht="15.75" customHeight="1">
-      <c r="C757" s="22"/>
-    </row>
-    <row r="758" ht="15.75" customHeight="1">
-      <c r="C758" s="22"/>
-    </row>
-    <row r="759" ht="15.75" customHeight="1">
-      <c r="C759" s="22"/>
-    </row>
-    <row r="760" ht="15.75" customHeight="1">
-      <c r="C760" s="22"/>
-    </row>
-    <row r="761" ht="15.75" customHeight="1">
-      <c r="C761" s="22"/>
-    </row>
-    <row r="762" ht="15.75" customHeight="1">
-      <c r="C762" s="22"/>
-    </row>
-    <row r="763" ht="15.75" customHeight="1">
-      <c r="C763" s="22"/>
-    </row>
-    <row r="764" ht="15.75" customHeight="1">
-      <c r="C764" s="22"/>
-    </row>
-    <row r="765" ht="15.75" customHeight="1">
-      <c r="C765" s="22"/>
-    </row>
-    <row r="766" ht="15.75" customHeight="1">
-      <c r="C766" s="22"/>
-    </row>
-    <row r="767" ht="15.75" customHeight="1">
-      <c r="C767" s="22"/>
-    </row>
-    <row r="768" ht="15.75" customHeight="1">
-      <c r="C768" s="22"/>
-    </row>
-    <row r="769" ht="15.75" customHeight="1">
-      <c r="C769" s="22"/>
-    </row>
-    <row r="770" ht="15.75" customHeight="1">
-      <c r="C770" s="22"/>
-    </row>
-    <row r="771" ht="15.75" customHeight="1">
-      <c r="C771" s="22"/>
-    </row>
-    <row r="772" ht="15.75" customHeight="1">
-      <c r="C772" s="22"/>
-    </row>
-    <row r="773" ht="15.75" customHeight="1">
-      <c r="C773" s="22"/>
-    </row>
-    <row r="774" ht="15.75" customHeight="1">
-      <c r="C774" s="22"/>
-    </row>
-    <row r="775" ht="15.75" customHeight="1">
-      <c r="C775" s="22"/>
-    </row>
-    <row r="776" ht="15.75" customHeight="1">
-      <c r="C776" s="22"/>
-    </row>
-    <row r="777" ht="15.75" customHeight="1">
-      <c r="C777" s="22"/>
-    </row>
-    <row r="778" ht="15.75" customHeight="1">
-      <c r="C778" s="22"/>
-    </row>
-    <row r="779" ht="15.75" customHeight="1">
-      <c r="C779" s="22"/>
-    </row>
-    <row r="780" ht="15.75" customHeight="1">
-      <c r="C780" s="22"/>
-    </row>
-    <row r="781" ht="15.75" customHeight="1">
-      <c r="C781" s="22"/>
-    </row>
-    <row r="782" ht="15.75" customHeight="1">
-      <c r="C782" s="22"/>
-    </row>
-    <row r="783" ht="15.75" customHeight="1">
-      <c r="C783" s="22"/>
-    </row>
-    <row r="784" ht="15.75" customHeight="1">
-      <c r="C784" s="22"/>
-    </row>
-    <row r="785" ht="15.75" customHeight="1">
-      <c r="C785" s="22"/>
-    </row>
-    <row r="786" ht="15.75" customHeight="1">
-      <c r="C786" s="22"/>
-    </row>
-    <row r="787" ht="15.75" customHeight="1">
-      <c r="C787" s="22"/>
-    </row>
-    <row r="788" ht="15.75" customHeight="1">
-      <c r="C788" s="22"/>
-    </row>
-    <row r="789" ht="15.75" customHeight="1">
-      <c r="C789" s="22"/>
-    </row>
-    <row r="790" ht="15.75" customHeight="1">
-      <c r="C790" s="22"/>
-    </row>
-    <row r="791" ht="15.75" customHeight="1">
-      <c r="C791" s="22"/>
-    </row>
-    <row r="792" ht="15.75" customHeight="1">
-      <c r="C792" s="22"/>
-    </row>
-    <row r="793" ht="15.75" customHeight="1">
-      <c r="C793" s="22"/>
-    </row>
-    <row r="794" ht="15.75" customHeight="1">
-      <c r="C794" s="22"/>
-    </row>
-    <row r="795" ht="15.75" customHeight="1">
-      <c r="C795" s="22"/>
-    </row>
-    <row r="796" ht="15.75" customHeight="1">
-      <c r="C796" s="22"/>
-    </row>
-    <row r="797" ht="15.75" customHeight="1">
-      <c r="C797" s="22"/>
-    </row>
-    <row r="798" ht="15.75" customHeight="1">
-      <c r="C798" s="22"/>
-    </row>
-    <row r="799" ht="15.75" customHeight="1">
-      <c r="C799" s="22"/>
-    </row>
-    <row r="800" ht="15.75" customHeight="1">
-      <c r="C800" s="22"/>
-    </row>
-    <row r="801" ht="15.75" customHeight="1">
-      <c r="C801" s="22"/>
-    </row>
-    <row r="802" ht="15.75" customHeight="1">
-      <c r="C802" s="22"/>
-    </row>
-    <row r="803" ht="15.75" customHeight="1">
-      <c r="C803" s="22"/>
-    </row>
-    <row r="804" ht="15.75" customHeight="1">
-      <c r="C804" s="22"/>
-    </row>
-    <row r="805" ht="15.75" customHeight="1">
-      <c r="C805" s="22"/>
-    </row>
-    <row r="806" ht="15.75" customHeight="1">
-      <c r="C806" s="22"/>
-    </row>
-    <row r="807" ht="15.75" customHeight="1">
-      <c r="C807" s="22"/>
-    </row>
-    <row r="808" ht="15.75" customHeight="1">
-      <c r="C808" s="22"/>
-    </row>
-    <row r="809" ht="15.75" customHeight="1">
-      <c r="C809" s="22"/>
-    </row>
-    <row r="810" ht="15.75" customHeight="1">
-      <c r="C810" s="22"/>
-    </row>
-    <row r="811" ht="15.75" customHeight="1">
-      <c r="C811" s="22"/>
-    </row>
-    <row r="812" ht="15.75" customHeight="1">
-      <c r="C812" s="22"/>
-    </row>
-    <row r="813" ht="15.75" customHeight="1">
-      <c r="C813" s="22"/>
-    </row>
-    <row r="814" ht="15.75" customHeight="1">
-      <c r="C814" s="22"/>
-    </row>
-    <row r="815" ht="15.75" customHeight="1">
-      <c r="C815" s="22"/>
-    </row>
-    <row r="816" ht="15.75" customHeight="1">
-      <c r="C816" s="22"/>
-    </row>
-    <row r="817" ht="15.75" customHeight="1">
-      <c r="C817" s="22"/>
-    </row>
-    <row r="818" ht="15.75" customHeight="1">
-      <c r="C818" s="22"/>
-    </row>
-    <row r="819" ht="15.75" customHeight="1">
-      <c r="C819" s="22"/>
-    </row>
-    <row r="820" ht="15.75" customHeight="1">
-      <c r="C820" s="22"/>
-    </row>
-    <row r="821" ht="15.75" customHeight="1">
-      <c r="C821" s="22"/>
-    </row>
-    <row r="822" ht="15.75" customHeight="1">
-      <c r="C822" s="22"/>
-    </row>
-    <row r="823" ht="15.75" customHeight="1">
-      <c r="C823" s="22"/>
-    </row>
-    <row r="824" ht="15.75" customHeight="1">
-      <c r="C824" s="22"/>
-    </row>
-    <row r="825" ht="15.75" customHeight="1">
-      <c r="C825" s="22"/>
-    </row>
-    <row r="826" ht="15.75" customHeight="1">
-      <c r="C826" s="22"/>
-    </row>
-    <row r="827" ht="15.75" customHeight="1">
-      <c r="C827" s="22"/>
-    </row>
-    <row r="828" ht="15.75" customHeight="1">
-      <c r="C828" s="22"/>
-    </row>
-    <row r="829" ht="15.75" customHeight="1">
-      <c r="C829" s="22"/>
-    </row>
-    <row r="830" ht="15.75" customHeight="1">
-      <c r="C830" s="22"/>
-    </row>
-    <row r="831" ht="15.75" customHeight="1">
-      <c r="C831" s="22"/>
-    </row>
-    <row r="832" ht="15.75" customHeight="1">
-      <c r="C832" s="22"/>
-    </row>
-    <row r="833" ht="15.75" customHeight="1">
-      <c r="C833" s="22"/>
-    </row>
-    <row r="834" ht="15.75" customHeight="1">
-      <c r="C834" s="22"/>
-    </row>
-    <row r="835" ht="15.75" customHeight="1">
-      <c r="C835" s="22"/>
-    </row>
-    <row r="836" ht="15.75" customHeight="1">
-      <c r="C836" s="22"/>
-    </row>
-    <row r="837" ht="15.75" customHeight="1">
-      <c r="C837" s="22"/>
-    </row>
-    <row r="838" ht="15.75" customHeight="1">
-      <c r="C838" s="22"/>
-    </row>
-    <row r="839" ht="15.75" customHeight="1">
-      <c r="C839" s="22"/>
-    </row>
-    <row r="840" ht="15.75" customHeight="1">
-      <c r="C840" s="22"/>
-    </row>
-    <row r="841" ht="15.75" customHeight="1">
-      <c r="C841" s="22"/>
-    </row>
-    <row r="842" ht="15.75" customHeight="1">
-      <c r="C842" s="22"/>
-    </row>
-    <row r="843" ht="15.75" customHeight="1">
-      <c r="C843" s="22"/>
-    </row>
-    <row r="844" ht="15.75" customHeight="1">
-      <c r="C844" s="22"/>
-    </row>
-    <row r="845" ht="15.75" customHeight="1">
-      <c r="C845" s="22"/>
-    </row>
-    <row r="846" ht="15.75" customHeight="1">
-      <c r="C846" s="22"/>
-    </row>
-    <row r="847" ht="15.75" customHeight="1">
-      <c r="C847" s="22"/>
-    </row>
-    <row r="848" ht="15.75" customHeight="1">
-      <c r="C848" s="22"/>
-    </row>
-    <row r="849" ht="15.75" customHeight="1">
-      <c r="C849" s="22"/>
-    </row>
-    <row r="850" ht="15.75" customHeight="1">
-      <c r="C850" s="22"/>
-    </row>
-    <row r="851" ht="15.75" customHeight="1">
-      <c r="C851" s="22"/>
-    </row>
-    <row r="852" ht="15.75" customHeight="1">
-      <c r="C852" s="22"/>
-    </row>
-    <row r="853" ht="15.75" customHeight="1">
-      <c r="C853" s="22"/>
-    </row>
-    <row r="854" ht="15.75" customHeight="1">
-      <c r="C854" s="22"/>
-    </row>
-    <row r="855" ht="15.75" customHeight="1">
-      <c r="C855" s="22"/>
-    </row>
-    <row r="856" ht="15.75" customHeight="1">
-      <c r="C856" s="22"/>
-    </row>
-    <row r="857" ht="15.75" customHeight="1">
-      <c r="C857" s="22"/>
-    </row>
-    <row r="858" ht="15.75" customHeight="1">
-      <c r="C858" s="22"/>
-    </row>
-    <row r="859" ht="15.75" customHeight="1">
-      <c r="C859" s="22"/>
-    </row>
-    <row r="860" ht="15.75" customHeight="1">
-      <c r="C860" s="22"/>
-    </row>
-    <row r="861" ht="15.75" customHeight="1">
-      <c r="C861" s="22"/>
-    </row>
-    <row r="862" ht="15.75" customHeight="1">
-      <c r="C862" s="22"/>
-    </row>
-    <row r="863" ht="15.75" customHeight="1">
-      <c r="C863" s="22"/>
-    </row>
-    <row r="864" ht="15.75" customHeight="1">
-      <c r="C864" s="22"/>
-    </row>
-    <row r="865" ht="15.75" customHeight="1">
-      <c r="C865" s="22"/>
-    </row>
-    <row r="866" ht="15.75" customHeight="1">
-      <c r="C866" s="22"/>
-    </row>
-    <row r="867" ht="15.75" customHeight="1">
-      <c r="C867" s="22"/>
-    </row>
-    <row r="868" ht="15.75" customHeight="1">
-      <c r="C868" s="22"/>
-    </row>
-    <row r="869" ht="15.75" customHeight="1">
-      <c r="C869" s="22"/>
-    </row>
-    <row r="870" ht="15.75" customHeight="1">
-      <c r="C870" s="22"/>
-    </row>
-    <row r="871" ht="15.75" customHeight="1">
-      <c r="C871" s="22"/>
-    </row>
-    <row r="872" ht="15.75" customHeight="1">
-      <c r="C872" s="22"/>
-    </row>
-    <row r="873" ht="15.75" customHeight="1">
-      <c r="C873" s="22"/>
-    </row>
-    <row r="874" ht="15.75" customHeight="1">
-      <c r="C874" s="22"/>
-    </row>
-    <row r="875" ht="15.75" customHeight="1">
-      <c r="C875" s="22"/>
-    </row>
-    <row r="876" ht="15.75" customHeight="1">
-      <c r="C876" s="22"/>
-    </row>
-    <row r="877" ht="15.75" customHeight="1">
-      <c r="C877" s="22"/>
-    </row>
-    <row r="878" ht="15.75" customHeight="1">
-      <c r="C878" s="22"/>
-    </row>
-    <row r="879" ht="15.75" customHeight="1">
-      <c r="C879" s="22"/>
-    </row>
-    <row r="880" ht="15.75" customHeight="1">
-      <c r="C880" s="22"/>
-    </row>
-    <row r="881" ht="15.75" customHeight="1">
-      <c r="C881" s="22"/>
-    </row>
-    <row r="882" ht="15.75" customHeight="1">
-      <c r="C882" s="22"/>
-    </row>
-    <row r="883" ht="15.75" customHeight="1">
-      <c r="C883" s="22"/>
-    </row>
-    <row r="884" ht="15.75" customHeight="1">
-      <c r="C884" s="22"/>
-    </row>
-    <row r="885" ht="15.75" customHeight="1">
-      <c r="C885" s="22"/>
-    </row>
-    <row r="886" ht="15.75" customHeight="1">
-      <c r="C886" s="22"/>
-    </row>
-    <row r="887" ht="15.75" customHeight="1">
-      <c r="C887" s="22"/>
-    </row>
-    <row r="888" ht="15.75" customHeight="1">
-      <c r="C888" s="22"/>
-    </row>
-    <row r="889" ht="15.75" customHeight="1">
-      <c r="C889" s="22"/>
-    </row>
-    <row r="890" ht="15.75" customHeight="1">
-      <c r="C890" s="22"/>
-    </row>
-    <row r="891" ht="15.75" customHeight="1">
-      <c r="C891" s="22"/>
-    </row>
-    <row r="892" ht="15.75" customHeight="1">
-      <c r="C892" s="22"/>
-    </row>
-    <row r="893" ht="15.75" customHeight="1">
-      <c r="C893" s="22"/>
-    </row>
-    <row r="894" ht="15.75" customHeight="1">
-      <c r="C894" s="22"/>
-    </row>
-    <row r="895" ht="15.75" customHeight="1">
-      <c r="C895" s="22"/>
-    </row>
-    <row r="896" ht="15.75" customHeight="1">
-      <c r="C896" s="22"/>
-    </row>
-    <row r="897" ht="15.75" customHeight="1">
-      <c r="C897" s="22"/>
-    </row>
-    <row r="898" ht="15.75" customHeight="1">
-      <c r="C898" s="22"/>
-    </row>
-    <row r="899" ht="15.75" customHeight="1">
-      <c r="C899" s="22"/>
-    </row>
-    <row r="900" ht="15.75" customHeight="1">
-      <c r="C900" s="22"/>
-    </row>
-    <row r="901" ht="15.75" customHeight="1">
-      <c r="C901" s="22"/>
-    </row>
-    <row r="902" ht="15.75" customHeight="1">
-      <c r="C902" s="22"/>
-    </row>
-    <row r="903" ht="15.75" customHeight="1">
-      <c r="C903" s="22"/>
-    </row>
-    <row r="904" ht="15.75" customHeight="1">
-      <c r="C904" s="22"/>
-    </row>
-    <row r="905" ht="15.75" customHeight="1">
-      <c r="C905" s="22"/>
-    </row>
-    <row r="906" ht="15.75" customHeight="1">
-      <c r="C906" s="22"/>
-    </row>
-    <row r="907" ht="15.75" customHeight="1">
-      <c r="C907" s="22"/>
-    </row>
-    <row r="908" ht="15.75" customHeight="1">
-      <c r="C908" s="22"/>
-    </row>
-    <row r="909" ht="15.75" customHeight="1">
-      <c r="C909" s="22"/>
-    </row>
-    <row r="910" ht="15.75" customHeight="1">
-      <c r="C910" s="22"/>
-    </row>
-    <row r="911" ht="15.75" customHeight="1">
-      <c r="C911" s="22"/>
-    </row>
-    <row r="912" ht="15.75" customHeight="1">
-      <c r="C912" s="22"/>
-    </row>
-    <row r="913" ht="15.75" customHeight="1">
-      <c r="C913" s="22"/>
-    </row>
-    <row r="914" ht="15.75" customHeight="1">
-      <c r="C914" s="22"/>
-    </row>
-    <row r="915" ht="15.75" customHeight="1">
-      <c r="C915" s="22"/>
-    </row>
-    <row r="916" ht="15.75" customHeight="1">
-      <c r="C916" s="22"/>
-    </row>
-    <row r="917" ht="15.75" customHeight="1">
-      <c r="C917" s="22"/>
-    </row>
-    <row r="918" ht="15.75" customHeight="1">
-      <c r="C918" s="22"/>
-    </row>
-    <row r="919" ht="15.75" customHeight="1">
-      <c r="C919" s="22"/>
-    </row>
-    <row r="920" ht="15.75" customHeight="1">
-      <c r="C920" s="22"/>
-    </row>
-    <row r="921" ht="15.75" customHeight="1">
-      <c r="C921" s="22"/>
-    </row>
-    <row r="922" ht="15.75" customHeight="1">
-      <c r="C922" s="22"/>
-    </row>
-    <row r="923" ht="15.75" customHeight="1">
-      <c r="C923" s="22"/>
-    </row>
-    <row r="924" ht="15.75" customHeight="1">
-      <c r="C924" s="22"/>
-    </row>
-    <row r="925" ht="15.75" customHeight="1">
-      <c r="C925" s="22"/>
-    </row>
-    <row r="926" ht="15.75" customHeight="1">
-      <c r="C926" s="22"/>
-    </row>
-    <row r="927" ht="15.75" customHeight="1">
-      <c r="C927" s="22"/>
-    </row>
-    <row r="928" ht="15.75" customHeight="1">
-      <c r="C928" s="22"/>
-    </row>
-    <row r="929" ht="15.75" customHeight="1">
-      <c r="C929" s="22"/>
-    </row>
-    <row r="930" ht="15.75" customHeight="1">
-      <c r="C930" s="22"/>
-    </row>
-    <row r="931" ht="15.75" customHeight="1">
-      <c r="C931" s="22"/>
-    </row>
-    <row r="932" ht="15.75" customHeight="1">
-      <c r="C932" s="22"/>
-    </row>
-    <row r="933" ht="15.75" customHeight="1">
-      <c r="C933" s="22"/>
-    </row>
-    <row r="934" ht="15.75" customHeight="1">
-      <c r="C934" s="22"/>
-    </row>
-    <row r="935" ht="15.75" customHeight="1">
-      <c r="C935" s="22"/>
-    </row>
-    <row r="936" ht="15.75" customHeight="1">
-      <c r="C936" s="22"/>
-    </row>
-    <row r="937" ht="15.75" customHeight="1">
-      <c r="C937" s="22"/>
-    </row>
-    <row r="938" ht="15.75" customHeight="1">
-      <c r="C938" s="22"/>
-    </row>
-    <row r="939" ht="15.75" customHeight="1">
-      <c r="C939" s="22"/>
-    </row>
-    <row r="940" ht="15.75" customHeight="1">
-      <c r="C940" s="22"/>
-    </row>
-    <row r="941" ht="15.75" customHeight="1">
-      <c r="C941" s="22"/>
-    </row>
-    <row r="942" ht="15.75" customHeight="1">
-      <c r="C942" s="22"/>
-    </row>
-    <row r="943" ht="15.75" customHeight="1">
-      <c r="C943" s="22"/>
-    </row>
-    <row r="944" ht="15.75" customHeight="1">
-      <c r="C944" s="22"/>
-    </row>
-    <row r="945" ht="15.75" customHeight="1">
-      <c r="C945" s="22"/>
-    </row>
-    <row r="946" ht="15.75" customHeight="1">
-      <c r="C946" s="22"/>
-    </row>
-    <row r="947" ht="15.75" customHeight="1">
-      <c r="C947" s="22"/>
-    </row>
-    <row r="948" ht="15.75" customHeight="1">
-      <c r="C948" s="22"/>
-    </row>
-    <row r="949" ht="15.75" customHeight="1">
-      <c r="C949" s="22"/>
-    </row>
-    <row r="950" ht="15.75" customHeight="1">
-      <c r="C950" s="22"/>
-    </row>
-    <row r="951" ht="15.75" customHeight="1">
-      <c r="C951" s="22"/>
-    </row>
-    <row r="952" ht="15.75" customHeight="1">
-      <c r="C952" s="22"/>
-    </row>
-    <row r="953" ht="15.75" customHeight="1">
-      <c r="C953" s="22"/>
-    </row>
-    <row r="954" ht="15.75" customHeight="1">
-      <c r="C954" s="22"/>
-    </row>
-    <row r="955" ht="15.75" customHeight="1">
-      <c r="C955" s="22"/>
-    </row>
-    <row r="956" ht="15.75" customHeight="1">
-      <c r="C956" s="22"/>
-    </row>
-    <row r="957" ht="15.75" customHeight="1">
-      <c r="C957" s="22"/>
-    </row>
-    <row r="958" ht="15.75" customHeight="1">
-      <c r="C958" s="22"/>
-    </row>
-    <row r="959" ht="15.75" customHeight="1">
-      <c r="C959" s="22"/>
-    </row>
-    <row r="960" ht="15.75" customHeight="1">
-      <c r="C960" s="22"/>
-    </row>
-    <row r="961" ht="15.75" customHeight="1">
-      <c r="C961" s="22"/>
-    </row>
-    <row r="962" ht="15.75" customHeight="1">
-      <c r="C962" s="22"/>
-    </row>
-    <row r="963" ht="15.75" customHeight="1">
-      <c r="C963" s="22"/>
-    </row>
-    <row r="964" ht="15.75" customHeight="1">
-      <c r="C964" s="22"/>
-    </row>
-    <row r="965" ht="15.75" customHeight="1">
-      <c r="C965" s="22"/>
-    </row>
-    <row r="966" ht="15.75" customHeight="1">
-      <c r="C966" s="22"/>
-    </row>
-    <row r="967" ht="15.75" customHeight="1">
-      <c r="C967" s="22"/>
-    </row>
-    <row r="968" ht="15.75" customHeight="1">
-      <c r="C968" s="22"/>
-    </row>
-    <row r="969" ht="15.75" customHeight="1">
-      <c r="C969" s="22"/>
-    </row>
-    <row r="970" ht="15.75" customHeight="1">
-      <c r="C970" s="22"/>
-    </row>
-    <row r="971" ht="15.75" customHeight="1">
-      <c r="C971" s="22"/>
-    </row>
-    <row r="972" ht="15.75" customHeight="1">
-      <c r="C972" s="22"/>
-    </row>
-    <row r="973" ht="15.75" customHeight="1">
-      <c r="C973" s="22"/>
-    </row>
-    <row r="974" ht="15.75" customHeight="1">
-      <c r="C974" s="22"/>
-    </row>
-    <row r="975" ht="15.75" customHeight="1">
-      <c r="C975" s="22"/>
-    </row>
-    <row r="976" ht="15.75" customHeight="1">
-      <c r="C976" s="22"/>
-    </row>
-    <row r="977" ht="15.75" customHeight="1">
-      <c r="C977" s="22"/>
-    </row>
-    <row r="978" ht="15.75" customHeight="1">
-      <c r="C978" s="22"/>
-    </row>
-    <row r="979" ht="15.75" customHeight="1">
-      <c r="C979" s="22"/>
-    </row>
-    <row r="980" ht="15.75" customHeight="1">
-      <c r="C980" s="22"/>
-    </row>
-    <row r="981" ht="15.75" customHeight="1">
-      <c r="C981" s="22"/>
-    </row>
-    <row r="982" ht="15.75" customHeight="1">
-      <c r="C982" s="22"/>
-    </row>
-    <row r="983" ht="15.75" customHeight="1">
-      <c r="C983" s="22"/>
-    </row>
-    <row r="984" ht="15.75" customHeight="1">
-      <c r="C984" s="22"/>
-    </row>
-    <row r="985" ht="15.75" customHeight="1">
-      <c r="C985" s="22"/>
-    </row>
-    <row r="986" ht="15.75" customHeight="1">
-      <c r="C986" s="22"/>
-    </row>
-    <row r="987" ht="15.75" customHeight="1">
-      <c r="C987" s="22"/>
-    </row>
-    <row r="988" ht="15.75" customHeight="1">
-      <c r="C988" s="22"/>
-    </row>
-    <row r="989" ht="15.75" customHeight="1">
-      <c r="C989" s="22"/>
-    </row>
-    <row r="990" ht="15.75" customHeight="1">
-      <c r="C990" s="22"/>
-    </row>
-    <row r="991" ht="15.75" customHeight="1">
-      <c r="C991" s="22"/>
-    </row>
-    <row r="992" ht="15.75" customHeight="1">
-      <c r="C992" s="22"/>
-    </row>
-    <row r="993" ht="15.75" customHeight="1">
-      <c r="C993" s="22"/>
-    </row>
-    <row r="994" ht="15.75" customHeight="1">
-      <c r="C994" s="22"/>
-    </row>
-    <row r="995" ht="15.75" customHeight="1">
-      <c r="C995" s="22"/>
-    </row>
-    <row r="996" ht="15.75" customHeight="1">
-      <c r="C996" s="22"/>
-    </row>
-    <row r="997" ht="15.75" customHeight="1">
-      <c r="C997" s="22"/>
-    </row>
-    <row r="998" ht="15.75" customHeight="1">
-      <c r="C998" s="22"/>
-    </row>
-    <row r="999" ht="15.75" customHeight="1">
-      <c r="C999" s="22"/>
-    </row>
-    <row r="1000" ht="15.75" customHeight="1">
-      <c r="C1000" s="22"/>
-    </row>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <printOptions/>
   <pageMargins bottom="1.05277777777778" footer="0.0" header="0.0" left="0.7875" right="0.7875" top="1.05277777777778"/>

--- a/public/討論區留言.xlsx
+++ b/public/討論區留言.xlsx
@@ -1770,7 +1770,7 @@
     <t>HEHEMan</t>
   </si>
   <si>
-    <t>對生命的愛護是很好的，但是要執行也要有好的解決方案，不是說只有改條例而已，能提出方案內容才是更改法令最好的條件，而不是一股腦的附譯</t>
+    <t>友善航班是很好，但是要執行也要有好的配套措施，而不是一股腦地開放</t>
   </si>
   <si>
     <t>2024-06-17 17:40:44</t>
@@ -2481,7 +2481,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2500,6 +2500,15 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
@@ -3056,7 +3065,7 @@
       <c r="B7" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="8" t="s">
         <v>40</v>
       </c>
       <c r="D7" s="5" t="s">
@@ -3080,14 +3089,14 @@
       <c r="J7" s="6">
         <v>0.0</v>
       </c>
-      <c r="K7" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="L7" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="M7" s="6">
-        <v>0.0</v>
+      <c r="K7" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="L7" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="M7" s="10">
+        <v>1.0</v>
       </c>
       <c r="N7" s="6">
         <v>0.0</v>
@@ -3238,28 +3247,28 @@
       </c>
     </row>
     <row r="11" ht="12.75" customHeight="1">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="11">
         <v>92.0</v>
       </c>
-      <c r="G11" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="H11" s="9" t="s">
+      <c r="G11" s="11">
+        <v>1.0</v>
+      </c>
+      <c r="H11" s="12" t="s">
         <v>57</v>
       </c>
       <c r="I11" s="6">
@@ -3283,16 +3292,16 @@
       <c r="O11" s="6">
         <v>0.0</v>
       </c>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="11"/>
-      <c r="R11" s="11"/>
-      <c r="S11" s="11"/>
-      <c r="T11" s="11"/>
-      <c r="U11" s="11"/>
-      <c r="V11" s="11"/>
-      <c r="W11" s="11"/>
-      <c r="X11" s="11"/>
-      <c r="Y11" s="11"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="14"/>
+      <c r="S11" s="14"/>
+      <c r="T11" s="14"/>
+      <c r="U11" s="14"/>
+      <c r="V11" s="14"/>
+      <c r="W11" s="14"/>
+      <c r="X11" s="14"/>
+      <c r="Y11" s="14"/>
     </row>
     <row r="12" ht="12.75" customHeight="1">
       <c r="A12" s="2" t="s">
@@ -3930,8 +3939,8 @@
       <c r="H25" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="I25" s="6">
-        <v>1.0</v>
+      <c r="I25" s="10">
+        <v>0.0</v>
       </c>
       <c r="J25" s="6">
         <v>0.0</v>
@@ -3939,14 +3948,14 @@
       <c r="K25" s="6">
         <v>0.0</v>
       </c>
-      <c r="L25" s="6">
-        <v>1.0</v>
+      <c r="L25" s="10">
+        <v>0.0</v>
       </c>
       <c r="M25" s="6">
         <v>0.0</v>
       </c>
-      <c r="N25" s="6">
-        <v>1.0</v>
+      <c r="N25" s="10">
+        <v>0.0</v>
       </c>
       <c r="O25" s="6">
         <v>0.0</v>
@@ -4000,28 +4009,28 @@
       </c>
     </row>
     <row r="27" ht="12.75" customHeight="1">
-      <c r="A27" s="8" t="s">
+      <c r="A27" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C27" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="D27" s="9" t="s">
+      <c r="D27" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E27" s="10" t="s">
+      <c r="E27" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="F27" s="8">
+      <c r="F27" s="11">
         <v>55.0</v>
       </c>
-      <c r="G27" s="8">
+      <c r="G27" s="11">
         <v>2.0</v>
       </c>
-      <c r="H27" s="9" t="s">
+      <c r="H27" s="12" t="s">
         <v>121</v>
       </c>
       <c r="I27" s="6">
@@ -4045,16 +4054,16 @@
       <c r="O27" s="6">
         <v>0.0</v>
       </c>
-      <c r="P27" s="11"/>
-      <c r="Q27" s="11"/>
-      <c r="R27" s="11"/>
-      <c r="S27" s="11"/>
-      <c r="T27" s="11"/>
-      <c r="U27" s="11"/>
-      <c r="V27" s="11"/>
-      <c r="W27" s="11"/>
-      <c r="X27" s="11"/>
-      <c r="Y27" s="11"/>
+      <c r="P27" s="14"/>
+      <c r="Q27" s="14"/>
+      <c r="R27" s="14"/>
+      <c r="S27" s="14"/>
+      <c r="T27" s="14"/>
+      <c r="U27" s="14"/>
+      <c r="V27" s="14"/>
+      <c r="W27" s="14"/>
+      <c r="X27" s="14"/>
+      <c r="Y27" s="14"/>
     </row>
     <row r="28" ht="12.75" customHeight="1">
       <c r="A28" s="2" t="s">
@@ -5068,11 +5077,11 @@
       <c r="H49" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="I49" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="J49" s="6">
-        <v>0.0</v>
+      <c r="I49" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="J49" s="10">
+        <v>1.0</v>
       </c>
       <c r="K49" s="6">
         <v>0.0</v>
@@ -5232,28 +5241,28 @@
       </c>
     </row>
     <row r="53" ht="12.75" customHeight="1">
-      <c r="A53" s="8" t="s">
+      <c r="A53" s="11" t="s">
         <v>223</v>
       </c>
-      <c r="B53" s="8" t="s">
+      <c r="B53" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="C53" s="10" t="s">
+      <c r="C53" s="13" t="s">
         <v>225</v>
       </c>
-      <c r="D53" s="9" t="s">
+      <c r="D53" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="E53" s="10" t="s">
+      <c r="E53" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="F53" s="8">
+      <c r="F53" s="11">
         <v>2.0</v>
       </c>
-      <c r="G53" s="8">
+      <c r="G53" s="11">
         <v>4.0</v>
       </c>
-      <c r="H53" s="9" t="s">
+      <c r="H53" s="12" t="s">
         <v>226</v>
       </c>
       <c r="I53" s="6">
@@ -5271,22 +5280,22 @@
       <c r="M53" s="6">
         <v>0.0</v>
       </c>
-      <c r="N53" s="12">
+      <c r="N53" s="15">
         <v>1.0</v>
       </c>
       <c r="O53" s="6">
         <v>0.0</v>
       </c>
-      <c r="P53" s="11"/>
-      <c r="Q53" s="11"/>
-      <c r="R53" s="11"/>
-      <c r="S53" s="11"/>
-      <c r="T53" s="11"/>
-      <c r="U53" s="11"/>
-      <c r="V53" s="11"/>
-      <c r="W53" s="11"/>
-      <c r="X53" s="11"/>
-      <c r="Y53" s="11"/>
+      <c r="P53" s="14"/>
+      <c r="Q53" s="14"/>
+      <c r="R53" s="14"/>
+      <c r="S53" s="14"/>
+      <c r="T53" s="14"/>
+      <c r="U53" s="14"/>
+      <c r="V53" s="14"/>
+      <c r="W53" s="14"/>
+      <c r="X53" s="14"/>
+      <c r="Y53" s="14"/>
     </row>
     <row r="54" ht="12.75" customHeight="1">
       <c r="A54" s="2" t="s">
@@ -5524,28 +5533,28 @@
       </c>
     </row>
     <row r="59" ht="12.75" customHeight="1">
-      <c r="A59" s="8" t="s">
+      <c r="A59" s="11" t="s">
         <v>246</v>
       </c>
-      <c r="B59" s="8" t="s">
+      <c r="B59" s="11" t="s">
         <v>247</v>
       </c>
-      <c r="C59" s="10" t="s">
+      <c r="C59" s="13" t="s">
         <v>248</v>
       </c>
-      <c r="D59" s="9" t="s">
+      <c r="D59" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="E59" s="10" t="s">
+      <c r="E59" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="F59" s="8">
+      <c r="F59" s="11">
         <v>4.0</v>
       </c>
-      <c r="G59" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="H59" s="9" t="s">
+      <c r="G59" s="11">
+        <v>1.0</v>
+      </c>
+      <c r="H59" s="12" t="s">
         <v>249</v>
       </c>
       <c r="I59" s="6">
@@ -5569,16 +5578,16 @@
       <c r="O59" s="6">
         <v>0.0</v>
       </c>
-      <c r="P59" s="11"/>
-      <c r="Q59" s="11"/>
-      <c r="R59" s="11"/>
-      <c r="S59" s="11"/>
-      <c r="T59" s="11"/>
-      <c r="U59" s="11"/>
-      <c r="V59" s="11"/>
-      <c r="W59" s="11"/>
-      <c r="X59" s="11"/>
-      <c r="Y59" s="11"/>
+      <c r="P59" s="14"/>
+      <c r="Q59" s="14"/>
+      <c r="R59" s="14"/>
+      <c r="S59" s="14"/>
+      <c r="T59" s="14"/>
+      <c r="U59" s="14"/>
+      <c r="V59" s="14"/>
+      <c r="W59" s="14"/>
+      <c r="X59" s="14"/>
+      <c r="Y59" s="14"/>
     </row>
     <row r="60" ht="12.75" customHeight="1">
       <c r="A60" s="2" t="s">
@@ -5634,7 +5643,7 @@
       <c r="B61" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C61" s="8" t="s">
         <v>256</v>
       </c>
       <c r="D61" s="5" t="s">
@@ -5722,28 +5731,28 @@
       </c>
     </row>
     <row r="63" ht="12.75" customHeight="1">
-      <c r="A63" s="8" t="s">
+      <c r="A63" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="B63" s="10" t="s">
+      <c r="B63" s="13" t="s">
         <v>263</v>
       </c>
-      <c r="C63" s="10" t="s">
+      <c r="C63" s="13" t="s">
         <v>248</v>
       </c>
-      <c r="D63" s="9" t="s">
+      <c r="D63" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="E63" s="10" t="s">
+      <c r="E63" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="F63" s="8">
+      <c r="F63" s="11">
         <v>5.0</v>
       </c>
-      <c r="G63" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="H63" s="9" t="s">
+      <c r="G63" s="11">
+        <v>1.0</v>
+      </c>
+      <c r="H63" s="12" t="s">
         <v>264</v>
       </c>
       <c r="I63" s="6">
@@ -5767,40 +5776,40 @@
       <c r="O63" s="6">
         <v>0.0</v>
       </c>
-      <c r="P63" s="11"/>
-      <c r="Q63" s="11"/>
-      <c r="R63" s="11"/>
-      <c r="S63" s="11"/>
-      <c r="T63" s="11"/>
-      <c r="U63" s="11"/>
-      <c r="V63" s="11"/>
-      <c r="W63" s="11"/>
-      <c r="X63" s="11"/>
-      <c r="Y63" s="11"/>
+      <c r="P63" s="14"/>
+      <c r="Q63" s="14"/>
+      <c r="R63" s="14"/>
+      <c r="S63" s="14"/>
+      <c r="T63" s="14"/>
+      <c r="U63" s="14"/>
+      <c r="V63" s="14"/>
+      <c r="W63" s="14"/>
+      <c r="X63" s="14"/>
+      <c r="Y63" s="14"/>
     </row>
     <row r="64" ht="12.75" customHeight="1">
-      <c r="A64" s="8" t="s">
+      <c r="A64" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="B64" s="8" t="s">
+      <c r="B64" s="11" t="s">
         <v>266</v>
       </c>
-      <c r="C64" s="10" t="s">
+      <c r="C64" s="13" t="s">
         <v>267</v>
       </c>
-      <c r="D64" s="9" t="s">
+      <c r="D64" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="E64" s="10" t="s">
+      <c r="E64" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="F64" s="8">
+      <c r="F64" s="11">
         <v>6.0</v>
       </c>
-      <c r="G64" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="H64" s="9" t="s">
+      <c r="G64" s="11">
+        <v>1.0</v>
+      </c>
+      <c r="H64" s="12" t="s">
         <v>268</v>
       </c>
       <c r="I64" s="6">
@@ -5824,16 +5833,16 @@
       <c r="O64" s="6">
         <v>0.0</v>
       </c>
-      <c r="P64" s="11"/>
-      <c r="Q64" s="11"/>
-      <c r="R64" s="11"/>
-      <c r="S64" s="11"/>
-      <c r="T64" s="11"/>
-      <c r="U64" s="11"/>
-      <c r="V64" s="11"/>
-      <c r="W64" s="11"/>
-      <c r="X64" s="11"/>
-      <c r="Y64" s="11"/>
+      <c r="P64" s="14"/>
+      <c r="Q64" s="14"/>
+      <c r="R64" s="14"/>
+      <c r="S64" s="14"/>
+      <c r="T64" s="14"/>
+      <c r="U64" s="14"/>
+      <c r="V64" s="14"/>
+      <c r="W64" s="14"/>
+      <c r="X64" s="14"/>
+      <c r="Y64" s="14"/>
     </row>
     <row r="65" ht="12.75" customHeight="1">
       <c r="A65" s="2" t="s">
@@ -5977,13 +5986,13 @@
       </c>
     </row>
     <row r="68" ht="12.75" customHeight="1">
-      <c r="A68" s="13" t="s">
+      <c r="A68" s="16" t="s">
         <v>281</v>
       </c>
-      <c r="B68" s="14" t="s">
+      <c r="B68" s="17" t="s">
         <v>282</v>
       </c>
-      <c r="C68" s="14" t="s">
+      <c r="C68" s="17" t="s">
         <v>283</v>
       </c>
       <c r="D68" s="5" t="s">
@@ -5992,10 +6001,10 @@
       <c r="E68" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F68" s="13">
+      <c r="F68" s="16">
         <v>3.0</v>
       </c>
-      <c r="G68" s="13">
+      <c r="G68" s="16">
         <v>4.0</v>
       </c>
       <c r="H68" s="5" t="s">
@@ -6010,7 +6019,7 @@
       <c r="K68" s="6">
         <v>0.0</v>
       </c>
-      <c r="L68" s="15">
+      <c r="L68" s="18">
         <v>1.0</v>
       </c>
       <c r="M68" s="6">
@@ -6022,14 +6031,14 @@
       <c r="O68" s="6">
         <v>0.0</v>
       </c>
-      <c r="P68" s="15"/>
-      <c r="Q68" s="15"/>
-      <c r="R68" s="15"/>
-      <c r="S68" s="15"/>
-      <c r="T68" s="15"/>
-      <c r="U68" s="15"/>
-      <c r="V68" s="15"/>
-      <c r="W68" s="15"/>
+      <c r="P68" s="18"/>
+      <c r="Q68" s="18"/>
+      <c r="R68" s="18"/>
+      <c r="S68" s="18"/>
+      <c r="T68" s="18"/>
+      <c r="U68" s="18"/>
+      <c r="V68" s="18"/>
+      <c r="W68" s="18"/>
     </row>
     <row r="69" ht="12.75" customHeight="1">
       <c r="A69" s="2" t="s">
@@ -6455,13 +6464,13 @@
       </c>
     </row>
     <row r="78" ht="12.75" customHeight="1">
-      <c r="A78" s="16" t="s">
+      <c r="A78" s="19" t="s">
         <v>322</v>
       </c>
-      <c r="B78" s="17" t="s">
+      <c r="B78" s="20" t="s">
         <v>323</v>
       </c>
-      <c r="C78" s="17" t="s">
+      <c r="C78" s="20" t="s">
         <v>324</v>
       </c>
       <c r="D78" s="5" t="s">
@@ -6470,10 +6479,10 @@
       <c r="E78" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F78" s="16">
+      <c r="F78" s="19">
         <v>3.0</v>
       </c>
-      <c r="G78" s="16">
+      <c r="G78" s="19">
         <v>2.0</v>
       </c>
       <c r="H78" s="5" t="s">
@@ -6491,7 +6500,7 @@
       <c r="L78" s="6">
         <v>0.0</v>
       </c>
-      <c r="M78" s="18">
+      <c r="M78" s="21">
         <v>1.0</v>
       </c>
       <c r="N78" s="6">
@@ -6500,38 +6509,38 @@
       <c r="O78" s="6">
         <v>0.0</v>
       </c>
-      <c r="P78" s="18"/>
-      <c r="Q78" s="18"/>
-      <c r="R78" s="18"/>
-      <c r="S78" s="18"/>
-      <c r="T78" s="18"/>
-      <c r="U78" s="18"/>
-      <c r="V78" s="18"/>
-      <c r="W78" s="18"/>
+      <c r="P78" s="21"/>
+      <c r="Q78" s="21"/>
+      <c r="R78" s="21"/>
+      <c r="S78" s="21"/>
+      <c r="T78" s="21"/>
+      <c r="U78" s="21"/>
+      <c r="V78" s="21"/>
+      <c r="W78" s="21"/>
     </row>
     <row r="79" ht="12.75" customHeight="1">
-      <c r="A79" s="8" t="s">
+      <c r="A79" s="11" t="s">
         <v>326</v>
       </c>
-      <c r="B79" s="8" t="s">
+      <c r="B79" s="11" t="s">
         <v>327</v>
       </c>
-      <c r="C79" s="10" t="s">
+      <c r="C79" s="13" t="s">
         <v>328</v>
       </c>
-      <c r="D79" s="9" t="s">
+      <c r="D79" s="12" t="s">
         <v>308</v>
       </c>
-      <c r="E79" s="10" t="s">
+      <c r="E79" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="F79" s="8">
+      <c r="F79" s="11">
         <v>4.0</v>
       </c>
-      <c r="G79" s="8">
+      <c r="G79" s="11">
         <v>2.0</v>
       </c>
-      <c r="H79" s="9" t="s">
+      <c r="H79" s="12" t="s">
         <v>329</v>
       </c>
       <c r="I79" s="6">
@@ -6555,16 +6564,16 @@
       <c r="O79" s="6">
         <v>0.0</v>
       </c>
-      <c r="P79" s="11"/>
-      <c r="Q79" s="11"/>
-      <c r="R79" s="11"/>
-      <c r="S79" s="11"/>
-      <c r="T79" s="11"/>
-      <c r="U79" s="11"/>
-      <c r="V79" s="11"/>
-      <c r="W79" s="11"/>
-      <c r="X79" s="11"/>
-      <c r="Y79" s="11"/>
+      <c r="P79" s="14"/>
+      <c r="Q79" s="14"/>
+      <c r="R79" s="14"/>
+      <c r="S79" s="14"/>
+      <c r="T79" s="14"/>
+      <c r="U79" s="14"/>
+      <c r="V79" s="14"/>
+      <c r="W79" s="14"/>
+      <c r="X79" s="14"/>
+      <c r="Y79" s="14"/>
     </row>
     <row r="80" ht="12.75" customHeight="1">
       <c r="A80" s="2" t="s">
@@ -6708,28 +6717,28 @@
       </c>
     </row>
     <row r="83" ht="12.75" customHeight="1">
-      <c r="A83" s="8" t="s">
+      <c r="A83" s="11" t="s">
         <v>342</v>
       </c>
-      <c r="B83" s="10" t="s">
+      <c r="B83" s="13" t="s">
         <v>343</v>
       </c>
-      <c r="C83" s="10" t="s">
+      <c r="C83" s="13" t="s">
         <v>344</v>
       </c>
-      <c r="D83" s="9" t="s">
+      <c r="D83" s="12" t="s">
         <v>308</v>
       </c>
-      <c r="E83" s="10" t="s">
+      <c r="E83" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="F83" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="G83" s="8">
+      <c r="F83" s="11">
+        <v>1.0</v>
+      </c>
+      <c r="G83" s="11">
         <v>3.0</v>
       </c>
-      <c r="H83" s="9" t="s">
+      <c r="H83" s="12" t="s">
         <v>345</v>
       </c>
       <c r="I83" s="6">
@@ -6753,16 +6762,16 @@
       <c r="O83" s="6">
         <v>0.0</v>
       </c>
-      <c r="P83" s="11"/>
-      <c r="Q83" s="11"/>
-      <c r="R83" s="11"/>
-      <c r="S83" s="11"/>
-      <c r="T83" s="11"/>
-      <c r="U83" s="11"/>
-      <c r="V83" s="11"/>
-      <c r="W83" s="11"/>
-      <c r="X83" s="11"/>
-      <c r="Y83" s="11"/>
+      <c r="P83" s="14"/>
+      <c r="Q83" s="14"/>
+      <c r="R83" s="14"/>
+      <c r="S83" s="14"/>
+      <c r="T83" s="14"/>
+      <c r="U83" s="14"/>
+      <c r="V83" s="14"/>
+      <c r="W83" s="14"/>
+      <c r="X83" s="14"/>
+      <c r="Y83" s="14"/>
     </row>
     <row r="84" ht="12.75" customHeight="1">
       <c r="A84" s="2" t="s">
@@ -6859,13 +6868,13 @@
       </c>
     </row>
     <row r="86" ht="12.75" customHeight="1">
-      <c r="A86" s="19" t="s">
+      <c r="A86" s="22" t="s">
         <v>354</v>
       </c>
-      <c r="B86" s="19" t="s">
+      <c r="B86" s="22" t="s">
         <v>355</v>
       </c>
-      <c r="C86" s="20" t="s">
+      <c r="C86" s="23" t="s">
         <v>356</v>
       </c>
       <c r="D86" s="5" t="s">
@@ -6874,10 +6883,10 @@
       <c r="E86" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F86" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="G86" s="19">
+      <c r="F86" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="G86" s="22">
         <v>0.0</v>
       </c>
       <c r="H86" s="5" t="s">
@@ -6904,14 +6913,14 @@
       <c r="O86" s="6">
         <v>0.0</v>
       </c>
-      <c r="P86" s="21"/>
-      <c r="Q86" s="21"/>
-      <c r="R86" s="21"/>
-      <c r="S86" s="21"/>
-      <c r="T86" s="21"/>
-      <c r="U86" s="21"/>
-      <c r="V86" s="21"/>
-      <c r="W86" s="21"/>
+      <c r="P86" s="24"/>
+      <c r="Q86" s="24"/>
+      <c r="R86" s="24"/>
+      <c r="S86" s="24"/>
+      <c r="T86" s="24"/>
+      <c r="U86" s="24"/>
+      <c r="V86" s="24"/>
+      <c r="W86" s="24"/>
     </row>
     <row r="87" ht="12.75" customHeight="1">
       <c r="A87" s="2" t="s">
@@ -6961,28 +6970,28 @@
       </c>
     </row>
     <row r="88" ht="12.75" customHeight="1">
-      <c r="A88" s="8" t="s">
+      <c r="A88" s="11" t="s">
         <v>363</v>
       </c>
-      <c r="B88" s="8" t="s">
+      <c r="B88" s="11" t="s">
         <v>364</v>
       </c>
-      <c r="C88" s="10" t="s">
+      <c r="C88" s="13" t="s">
         <v>365</v>
       </c>
-      <c r="D88" s="9" t="s">
+      <c r="D88" s="12" t="s">
         <v>361</v>
       </c>
-      <c r="E88" s="10" t="s">
+      <c r="E88" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="F88" s="8">
+      <c r="F88" s="11">
         <v>3.0</v>
       </c>
-      <c r="G88" s="8">
+      <c r="G88" s="11">
         <v>2.0</v>
       </c>
-      <c r="H88" s="9" t="s">
+      <c r="H88" s="12" t="s">
         <v>366</v>
       </c>
       <c r="I88" s="6">
@@ -7006,40 +7015,40 @@
       <c r="O88" s="6">
         <v>0.0</v>
       </c>
-      <c r="P88" s="11"/>
-      <c r="Q88" s="11"/>
-      <c r="R88" s="11"/>
-      <c r="S88" s="11"/>
-      <c r="T88" s="11"/>
-      <c r="U88" s="11"/>
-      <c r="V88" s="11"/>
-      <c r="W88" s="11"/>
-      <c r="X88" s="11"/>
-      <c r="Y88" s="11"/>
+      <c r="P88" s="14"/>
+      <c r="Q88" s="14"/>
+      <c r="R88" s="14"/>
+      <c r="S88" s="14"/>
+      <c r="T88" s="14"/>
+      <c r="U88" s="14"/>
+      <c r="V88" s="14"/>
+      <c r="W88" s="14"/>
+      <c r="X88" s="14"/>
+      <c r="Y88" s="14"/>
     </row>
     <row r="89" ht="14.25" customHeight="1">
-      <c r="A89" s="8" t="s">
+      <c r="A89" s="11" t="s">
         <v>367</v>
       </c>
-      <c r="B89" s="8" t="s">
+      <c r="B89" s="11" t="s">
         <v>368</v>
       </c>
-      <c r="C89" s="10" t="s">
+      <c r="C89" s="13" t="s">
         <v>369</v>
       </c>
-      <c r="D89" s="9" t="s">
+      <c r="D89" s="12" t="s">
         <v>361</v>
       </c>
-      <c r="E89" s="10" t="s">
+      <c r="E89" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="F89" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="G89" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="H89" s="9" t="s">
+      <c r="F89" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="G89" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="H89" s="12" t="s">
         <v>370</v>
       </c>
       <c r="I89" s="6">
@@ -7063,40 +7072,40 @@
       <c r="O89" s="6">
         <v>0.0</v>
       </c>
-      <c r="P89" s="11"/>
-      <c r="Q89" s="11"/>
-      <c r="R89" s="11"/>
-      <c r="S89" s="11"/>
-      <c r="T89" s="11"/>
-      <c r="U89" s="11"/>
-      <c r="V89" s="11"/>
-      <c r="W89" s="11"/>
-      <c r="X89" s="11"/>
-      <c r="Y89" s="11"/>
+      <c r="P89" s="14"/>
+      <c r="Q89" s="14"/>
+      <c r="R89" s="14"/>
+      <c r="S89" s="14"/>
+      <c r="T89" s="14"/>
+      <c r="U89" s="14"/>
+      <c r="V89" s="14"/>
+      <c r="W89" s="14"/>
+      <c r="X89" s="14"/>
+      <c r="Y89" s="14"/>
     </row>
     <row r="90" ht="14.25" customHeight="1">
-      <c r="A90" s="8" t="s">
+      <c r="A90" s="11" t="s">
         <v>371</v>
       </c>
-      <c r="B90" s="8" t="s">
+      <c r="B90" s="11" t="s">
         <v>372</v>
       </c>
-      <c r="C90" s="10" t="s">
+      <c r="C90" s="13" t="s">
         <v>373</v>
       </c>
-      <c r="D90" s="9" t="s">
+      <c r="D90" s="12" t="s">
         <v>361</v>
       </c>
-      <c r="E90" s="10" t="s">
+      <c r="E90" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="F90" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="G90" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="H90" s="9" t="s">
+      <c r="F90" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="G90" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="H90" s="12" t="s">
         <v>374</v>
       </c>
       <c r="I90" s="6">
@@ -7120,40 +7129,40 @@
       <c r="O90" s="6">
         <v>0.0</v>
       </c>
-      <c r="P90" s="11"/>
-      <c r="Q90" s="11"/>
-      <c r="R90" s="11"/>
-      <c r="S90" s="11"/>
-      <c r="T90" s="11"/>
-      <c r="U90" s="11"/>
-      <c r="V90" s="11"/>
-      <c r="W90" s="11"/>
-      <c r="X90" s="11"/>
-      <c r="Y90" s="11"/>
+      <c r="P90" s="14"/>
+      <c r="Q90" s="14"/>
+      <c r="R90" s="14"/>
+      <c r="S90" s="14"/>
+      <c r="T90" s="14"/>
+      <c r="U90" s="14"/>
+      <c r="V90" s="14"/>
+      <c r="W90" s="14"/>
+      <c r="X90" s="14"/>
+      <c r="Y90" s="14"/>
     </row>
     <row r="91" ht="12.75" customHeight="1">
-      <c r="A91" s="8" t="s">
+      <c r="A91" s="11" t="s">
         <v>375</v>
       </c>
-      <c r="B91" s="8" t="s">
+      <c r="B91" s="11" t="s">
         <v>376</v>
       </c>
-      <c r="C91" s="10" t="s">
+      <c r="C91" s="13" t="s">
         <v>377</v>
       </c>
-      <c r="D91" s="9" t="s">
+      <c r="D91" s="12" t="s">
         <v>361</v>
       </c>
-      <c r="E91" s="10" t="s">
+      <c r="E91" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="F91" s="8">
+      <c r="F91" s="11">
         <v>3.0</v>
       </c>
-      <c r="G91" s="8">
+      <c r="G91" s="11">
         <v>2.0</v>
       </c>
-      <c r="H91" s="9" t="s">
+      <c r="H91" s="12" t="s">
         <v>378</v>
       </c>
       <c r="I91" s="6">
@@ -7177,616 +7186,616 @@
       <c r="O91" s="6">
         <v>0.0</v>
       </c>
-      <c r="P91" s="11"/>
-      <c r="Q91" s="11"/>
-      <c r="R91" s="11"/>
-      <c r="S91" s="11"/>
-      <c r="T91" s="11"/>
-      <c r="U91" s="11"/>
-      <c r="V91" s="11"/>
-      <c r="W91" s="11"/>
-      <c r="X91" s="11"/>
-      <c r="Y91" s="11"/>
+      <c r="P91" s="14"/>
+      <c r="Q91" s="14"/>
+      <c r="R91" s="14"/>
+      <c r="S91" s="14"/>
+      <c r="T91" s="14"/>
+      <c r="U91" s="14"/>
+      <c r="V91" s="14"/>
+      <c r="W91" s="14"/>
+      <c r="X91" s="14"/>
+      <c r="Y91" s="14"/>
     </row>
     <row r="92" ht="12.75" customHeight="1">
-      <c r="C92" s="22"/>
+      <c r="C92" s="25"/>
     </row>
     <row r="93" ht="12.75" customHeight="1">
-      <c r="C93" s="22"/>
+      <c r="C93" s="25"/>
     </row>
     <row r="94" ht="12.75" customHeight="1">
-      <c r="C94" s="22"/>
+      <c r="C94" s="25"/>
     </row>
     <row r="95" ht="12.75" customHeight="1">
-      <c r="C95" s="22"/>
+      <c r="C95" s="25"/>
     </row>
     <row r="96" ht="12.75" customHeight="1">
-      <c r="C96" s="22"/>
+      <c r="C96" s="25"/>
     </row>
     <row r="97" ht="12.75" customHeight="1">
-      <c r="C97" s="22"/>
+      <c r="C97" s="25"/>
     </row>
     <row r="98" ht="12.75" customHeight="1">
-      <c r="C98" s="22"/>
+      <c r="C98" s="25"/>
     </row>
     <row r="99" ht="12.75" customHeight="1">
-      <c r="C99" s="22"/>
+      <c r="C99" s="25"/>
     </row>
     <row r="100" ht="12.75" customHeight="1">
-      <c r="C100" s="22"/>
+      <c r="C100" s="25"/>
     </row>
     <row r="101" ht="12.75" customHeight="1">
-      <c r="C101" s="22"/>
+      <c r="C101" s="25"/>
     </row>
     <row r="102" ht="12.75" customHeight="1">
-      <c r="C102" s="22"/>
+      <c r="C102" s="25"/>
     </row>
     <row r="103" ht="12.75" customHeight="1">
-      <c r="C103" s="22"/>
+      <c r="C103" s="25"/>
     </row>
     <row r="104" ht="12.75" customHeight="1">
-      <c r="C104" s="22"/>
+      <c r="C104" s="25"/>
     </row>
     <row r="105" ht="12.75" customHeight="1">
-      <c r="C105" s="22"/>
+      <c r="C105" s="25"/>
     </row>
     <row r="106" ht="12.75" customHeight="1">
-      <c r="C106" s="22"/>
+      <c r="C106" s="25"/>
     </row>
     <row r="107" ht="12.75" customHeight="1">
-      <c r="C107" s="22"/>
+      <c r="C107" s="25"/>
     </row>
     <row r="108" ht="12.75" customHeight="1">
-      <c r="C108" s="22"/>
+      <c r="C108" s="25"/>
     </row>
     <row r="109" ht="12.75" customHeight="1">
-      <c r="C109" s="22"/>
+      <c r="C109" s="25"/>
     </row>
     <row r="110" ht="12.75" customHeight="1">
-      <c r="C110" s="22"/>
+      <c r="C110" s="25"/>
     </row>
     <row r="111" ht="12.75" customHeight="1">
-      <c r="C111" s="22"/>
+      <c r="C111" s="25"/>
     </row>
     <row r="112" ht="12.75" customHeight="1">
-      <c r="C112" s="22"/>
+      <c r="C112" s="25"/>
     </row>
     <row r="113" ht="12.75" customHeight="1">
-      <c r="C113" s="22"/>
+      <c r="C113" s="25"/>
     </row>
     <row r="114" ht="12.75" customHeight="1">
-      <c r="C114" s="22"/>
+      <c r="C114" s="25"/>
     </row>
     <row r="115" ht="12.75" customHeight="1">
-      <c r="C115" s="22"/>
+      <c r="C115" s="25"/>
     </row>
     <row r="116" ht="12.75" customHeight="1">
-      <c r="C116" s="22"/>
+      <c r="C116" s="25"/>
     </row>
     <row r="117" ht="12.75" customHeight="1">
-      <c r="C117" s="22"/>
+      <c r="C117" s="25"/>
     </row>
     <row r="118" ht="12.75" customHeight="1">
-      <c r="C118" s="22"/>
+      <c r="C118" s="25"/>
     </row>
     <row r="119" ht="12.75" customHeight="1">
-      <c r="C119" s="22"/>
+      <c r="C119" s="25"/>
     </row>
     <row r="120" ht="12.75" customHeight="1">
-      <c r="C120" s="22"/>
+      <c r="C120" s="25"/>
     </row>
     <row r="121" ht="12.75" customHeight="1">
-      <c r="C121" s="22"/>
+      <c r="C121" s="25"/>
     </row>
     <row r="122" ht="12.75" customHeight="1">
-      <c r="C122" s="22"/>
+      <c r="C122" s="25"/>
     </row>
     <row r="123" ht="12.75" customHeight="1">
-      <c r="C123" s="22"/>
+      <c r="C123" s="25"/>
     </row>
     <row r="124" ht="12.75" customHeight="1">
-      <c r="C124" s="22"/>
+      <c r="C124" s="25"/>
     </row>
     <row r="125" ht="12.75" customHeight="1">
-      <c r="C125" s="22"/>
+      <c r="C125" s="25"/>
     </row>
     <row r="126" ht="12.75" customHeight="1">
-      <c r="C126" s="22"/>
+      <c r="C126" s="25"/>
     </row>
     <row r="127" ht="12.75" customHeight="1">
-      <c r="C127" s="22"/>
+      <c r="C127" s="25"/>
     </row>
     <row r="128" ht="12.75" customHeight="1">
-      <c r="C128" s="22"/>
+      <c r="C128" s="25"/>
     </row>
     <row r="129" ht="12.75" customHeight="1">
-      <c r="C129" s="22"/>
+      <c r="C129" s="25"/>
     </row>
     <row r="130" ht="12.75" customHeight="1">
-      <c r="C130" s="22"/>
+      <c r="C130" s="25"/>
     </row>
     <row r="131" ht="12.75" customHeight="1">
-      <c r="C131" s="22"/>
+      <c r="C131" s="25"/>
     </row>
     <row r="132" ht="12.75" customHeight="1">
-      <c r="C132" s="22"/>
+      <c r="C132" s="25"/>
     </row>
     <row r="133" ht="12.75" customHeight="1">
-      <c r="C133" s="22"/>
+      <c r="C133" s="25"/>
     </row>
     <row r="134" ht="12.75" customHeight="1">
-      <c r="C134" s="22"/>
+      <c r="C134" s="25"/>
     </row>
     <row r="135" ht="12.75" customHeight="1">
-      <c r="C135" s="22"/>
+      <c r="C135" s="25"/>
     </row>
     <row r="136" ht="12.75" customHeight="1">
-      <c r="C136" s="22"/>
+      <c r="C136" s="25"/>
     </row>
     <row r="137" ht="12.75" customHeight="1">
-      <c r="C137" s="22"/>
+      <c r="C137" s="25"/>
     </row>
     <row r="138" ht="12.75" customHeight="1">
-      <c r="C138" s="22"/>
+      <c r="C138" s="25"/>
     </row>
     <row r="139" ht="12.75" customHeight="1">
-      <c r="C139" s="22"/>
+      <c r="C139" s="25"/>
     </row>
     <row r="140" ht="12.75" customHeight="1">
-      <c r="C140" s="22"/>
+      <c r="C140" s="25"/>
     </row>
     <row r="141" ht="12.75" customHeight="1">
-      <c r="C141" s="22"/>
+      <c r="C141" s="25"/>
     </row>
     <row r="142" ht="12.75" customHeight="1">
-      <c r="C142" s="22"/>
+      <c r="C142" s="25"/>
     </row>
     <row r="143" ht="12.75" customHeight="1">
-      <c r="C143" s="22"/>
+      <c r="C143" s="25"/>
     </row>
     <row r="144" ht="12.75" customHeight="1">
-      <c r="C144" s="22"/>
+      <c r="C144" s="25"/>
     </row>
     <row r="145" ht="12.75" customHeight="1">
-      <c r="C145" s="22"/>
+      <c r="C145" s="25"/>
     </row>
     <row r="146" ht="12.75" customHeight="1">
-      <c r="C146" s="22"/>
+      <c r="C146" s="25"/>
     </row>
     <row r="147" ht="12.75" customHeight="1">
-      <c r="C147" s="22"/>
+      <c r="C147" s="25"/>
     </row>
     <row r="148" ht="12.75" customHeight="1">
-      <c r="C148" s="22"/>
+      <c r="C148" s="25"/>
     </row>
     <row r="149" ht="12.75" customHeight="1">
-      <c r="C149" s="22"/>
+      <c r="C149" s="25"/>
     </row>
     <row r="150" ht="12.75" customHeight="1">
-      <c r="C150" s="22"/>
+      <c r="C150" s="25"/>
     </row>
     <row r="151" ht="12.75" customHeight="1">
-      <c r="C151" s="22"/>
+      <c r="C151" s="25"/>
     </row>
     <row r="152" ht="12.75" customHeight="1">
-      <c r="C152" s="22"/>
+      <c r="C152" s="25"/>
     </row>
     <row r="153" ht="12.75" customHeight="1">
-      <c r="C153" s="22"/>
+      <c r="C153" s="25"/>
     </row>
     <row r="154" ht="12.75" customHeight="1">
-      <c r="C154" s="22"/>
+      <c r="C154" s="25"/>
     </row>
     <row r="155" ht="12.75" customHeight="1">
-      <c r="C155" s="22"/>
+      <c r="C155" s="25"/>
     </row>
     <row r="156" ht="12.75" customHeight="1">
-      <c r="C156" s="22"/>
+      <c r="C156" s="25"/>
     </row>
     <row r="157" ht="12.75" customHeight="1">
-      <c r="C157" s="22"/>
+      <c r="C157" s="25"/>
     </row>
     <row r="158" ht="12.75" customHeight="1">
-      <c r="C158" s="22"/>
+      <c r="C158" s="25"/>
     </row>
     <row r="159" ht="12.75" customHeight="1">
-      <c r="C159" s="22"/>
+      <c r="C159" s="25"/>
     </row>
     <row r="160" ht="12.75" customHeight="1">
-      <c r="C160" s="22"/>
+      <c r="C160" s="25"/>
     </row>
     <row r="161" ht="12.75" customHeight="1">
-      <c r="C161" s="22"/>
+      <c r="C161" s="25"/>
     </row>
     <row r="162" ht="12.75" customHeight="1">
-      <c r="C162" s="22"/>
+      <c r="C162" s="25"/>
     </row>
     <row r="163" ht="12.75" customHeight="1">
-      <c r="C163" s="22"/>
+      <c r="C163" s="25"/>
     </row>
     <row r="164" ht="12.75" customHeight="1">
-      <c r="C164" s="22"/>
+      <c r="C164" s="25"/>
     </row>
     <row r="165" ht="12.75" customHeight="1">
-      <c r="C165" s="22"/>
+      <c r="C165" s="25"/>
     </row>
     <row r="166" ht="12.75" customHeight="1">
-      <c r="C166" s="22"/>
+      <c r="C166" s="25"/>
     </row>
     <row r="167" ht="12.75" customHeight="1">
-      <c r="C167" s="22"/>
+      <c r="C167" s="25"/>
     </row>
     <row r="168" ht="12.75" customHeight="1">
-      <c r="C168" s="22"/>
+      <c r="C168" s="25"/>
     </row>
     <row r="169" ht="12.75" customHeight="1">
-      <c r="C169" s="22"/>
+      <c r="C169" s="25"/>
     </row>
     <row r="170" ht="12.75" customHeight="1">
-      <c r="C170" s="22"/>
+      <c r="C170" s="25"/>
     </row>
     <row r="171" ht="12.75" customHeight="1">
-      <c r="C171" s="22"/>
+      <c r="C171" s="25"/>
     </row>
     <row r="172" ht="12.75" customHeight="1">
-      <c r="C172" s="22"/>
+      <c r="C172" s="25"/>
     </row>
     <row r="173" ht="12.75" customHeight="1">
-      <c r="C173" s="22"/>
+      <c r="C173" s="25"/>
     </row>
     <row r="174" ht="12.75" customHeight="1">
-      <c r="C174" s="22"/>
+      <c r="C174" s="25"/>
     </row>
     <row r="175" ht="12.75" customHeight="1">
-      <c r="C175" s="22"/>
+      <c r="C175" s="25"/>
     </row>
     <row r="176" ht="12.75" customHeight="1">
-      <c r="C176" s="22"/>
+      <c r="C176" s="25"/>
     </row>
     <row r="177" ht="12.75" customHeight="1">
-      <c r="C177" s="22"/>
+      <c r="C177" s="25"/>
     </row>
     <row r="178" ht="12.75" customHeight="1">
-      <c r="C178" s="22"/>
+      <c r="C178" s="25"/>
     </row>
     <row r="179" ht="12.75" customHeight="1">
-      <c r="C179" s="22"/>
+      <c r="C179" s="25"/>
     </row>
     <row r="180" ht="12.75" customHeight="1">
-      <c r="C180" s="22"/>
+      <c r="C180" s="25"/>
     </row>
     <row r="181" ht="12.75" customHeight="1">
-      <c r="C181" s="22"/>
+      <c r="C181" s="25"/>
     </row>
     <row r="182" ht="12.75" customHeight="1">
-      <c r="C182" s="22"/>
+      <c r="C182" s="25"/>
     </row>
     <row r="183" ht="12.75" customHeight="1">
-      <c r="C183" s="22"/>
+      <c r="C183" s="25"/>
     </row>
     <row r="184" ht="12.75" customHeight="1">
-      <c r="C184" s="22"/>
+      <c r="C184" s="25"/>
     </row>
     <row r="185" ht="12.75" customHeight="1">
-      <c r="C185" s="22"/>
+      <c r="C185" s="25"/>
     </row>
     <row r="186" ht="12.75" customHeight="1">
-      <c r="C186" s="22"/>
+      <c r="C186" s="25"/>
     </row>
     <row r="187" ht="12.75" customHeight="1">
-      <c r="C187" s="22"/>
+      <c r="C187" s="25"/>
     </row>
     <row r="188" ht="12.75" customHeight="1">
-      <c r="C188" s="22"/>
+      <c r="C188" s="25"/>
     </row>
     <row r="189" ht="12.75" customHeight="1">
-      <c r="C189" s="22"/>
+      <c r="C189" s="25"/>
     </row>
     <row r="190" ht="12.75" customHeight="1">
-      <c r="C190" s="22"/>
+      <c r="C190" s="25"/>
     </row>
     <row r="191" ht="12.75" customHeight="1">
-      <c r="C191" s="22"/>
+      <c r="C191" s="25"/>
     </row>
     <row r="192" ht="12.75" customHeight="1">
-      <c r="C192" s="22"/>
+      <c r="C192" s="25"/>
     </row>
     <row r="193" ht="12.75" customHeight="1">
-      <c r="C193" s="22"/>
+      <c r="C193" s="25"/>
     </row>
     <row r="194" ht="12.75" customHeight="1">
-      <c r="C194" s="22"/>
+      <c r="C194" s="25"/>
     </row>
     <row r="195" ht="12.75" customHeight="1">
-      <c r="C195" s="22"/>
+      <c r="C195" s="25"/>
     </row>
     <row r="196" ht="12.75" customHeight="1">
-      <c r="C196" s="22"/>
+      <c r="C196" s="25"/>
     </row>
     <row r="197" ht="12.75" customHeight="1">
-      <c r="C197" s="22"/>
+      <c r="C197" s="25"/>
     </row>
     <row r="198" ht="12.75" customHeight="1">
-      <c r="C198" s="22"/>
+      <c r="C198" s="25"/>
     </row>
     <row r="199" ht="12.75" customHeight="1">
-      <c r="C199" s="22"/>
+      <c r="C199" s="25"/>
     </row>
     <row r="200" ht="12.75" customHeight="1">
-      <c r="C200" s="22"/>
+      <c r="C200" s="25"/>
     </row>
     <row r="201" ht="12.75" customHeight="1">
-      <c r="C201" s="22"/>
+      <c r="C201" s="25"/>
     </row>
     <row r="202" ht="12.75" customHeight="1">
-      <c r="C202" s="22"/>
+      <c r="C202" s="25"/>
     </row>
     <row r="203" ht="12.75" customHeight="1">
-      <c r="C203" s="22"/>
+      <c r="C203" s="25"/>
     </row>
     <row r="204" ht="12.75" customHeight="1">
-      <c r="C204" s="22"/>
+      <c r="C204" s="25"/>
     </row>
     <row r="205" ht="12.75" customHeight="1">
-      <c r="C205" s="22"/>
+      <c r="C205" s="25"/>
     </row>
     <row r="206" ht="12.75" customHeight="1">
-      <c r="C206" s="22"/>
+      <c r="C206" s="25"/>
     </row>
     <row r="207" ht="12.75" customHeight="1">
-      <c r="C207" s="22"/>
+      <c r="C207" s="25"/>
     </row>
     <row r="208" ht="12.75" customHeight="1">
-      <c r="C208" s="22"/>
+      <c r="C208" s="25"/>
     </row>
     <row r="209" ht="12.75" customHeight="1">
-      <c r="C209" s="22"/>
+      <c r="C209" s="25"/>
     </row>
     <row r="210" ht="12.75" customHeight="1">
-      <c r="C210" s="22"/>
+      <c r="C210" s="25"/>
     </row>
     <row r="211" ht="12.75" customHeight="1">
-      <c r="C211" s="22"/>
+      <c r="C211" s="25"/>
     </row>
     <row r="212" ht="12.75" customHeight="1">
-      <c r="C212" s="22"/>
+      <c r="C212" s="25"/>
     </row>
     <row r="213" ht="12.75" customHeight="1">
-      <c r="C213" s="22"/>
+      <c r="C213" s="25"/>
     </row>
     <row r="214" ht="12.75" customHeight="1">
-      <c r="C214" s="22"/>
+      <c r="C214" s="25"/>
     </row>
     <row r="215" ht="12.75" customHeight="1">
-      <c r="C215" s="22"/>
+      <c r="C215" s="25"/>
     </row>
     <row r="216" ht="12.75" customHeight="1">
-      <c r="C216" s="22"/>
+      <c r="C216" s="25"/>
     </row>
     <row r="217" ht="12.75" customHeight="1">
-      <c r="C217" s="22"/>
+      <c r="C217" s="25"/>
     </row>
     <row r="218" ht="12.75" customHeight="1">
-      <c r="C218" s="22"/>
+      <c r="C218" s="25"/>
     </row>
     <row r="219" ht="12.75" customHeight="1">
-      <c r="C219" s="22"/>
+      <c r="C219" s="25"/>
     </row>
     <row r="220" ht="12.75" customHeight="1">
-      <c r="C220" s="22"/>
+      <c r="C220" s="25"/>
     </row>
     <row r="221" ht="12.75" customHeight="1">
-      <c r="C221" s="22"/>
+      <c r="C221" s="25"/>
     </row>
     <row r="222" ht="12.75" customHeight="1">
-      <c r="C222" s="22"/>
+      <c r="C222" s="25"/>
     </row>
     <row r="223" ht="12.75" customHeight="1">
-      <c r="C223" s="22"/>
+      <c r="C223" s="25"/>
     </row>
     <row r="224" ht="12.75" customHeight="1">
-      <c r="C224" s="22"/>
+      <c r="C224" s="25"/>
     </row>
     <row r="225" ht="12.75" customHeight="1">
-      <c r="C225" s="22"/>
+      <c r="C225" s="25"/>
     </row>
     <row r="226" ht="12.75" customHeight="1">
-      <c r="C226" s="22"/>
+      <c r="C226" s="25"/>
     </row>
     <row r="227" ht="12.75" customHeight="1">
-      <c r="C227" s="22"/>
+      <c r="C227" s="25"/>
     </row>
     <row r="228" ht="12.75" customHeight="1">
-      <c r="C228" s="22"/>
+      <c r="C228" s="25"/>
     </row>
     <row r="229" ht="12.75" customHeight="1">
-      <c r="C229" s="22"/>
+      <c r="C229" s="25"/>
     </row>
     <row r="230" ht="12.75" customHeight="1">
-      <c r="C230" s="22"/>
+      <c r="C230" s="25"/>
     </row>
     <row r="231" ht="12.75" customHeight="1">
-      <c r="C231" s="22"/>
+      <c r="C231" s="25"/>
     </row>
     <row r="232" ht="12.75" customHeight="1">
-      <c r="C232" s="22"/>
+      <c r="C232" s="25"/>
     </row>
     <row r="233" ht="12.75" customHeight="1">
-      <c r="C233" s="22"/>
+      <c r="C233" s="25"/>
     </row>
     <row r="234" ht="12.75" customHeight="1">
-      <c r="C234" s="22"/>
+      <c r="C234" s="25"/>
     </row>
     <row r="235" ht="12.75" customHeight="1">
-      <c r="C235" s="22"/>
+      <c r="C235" s="25"/>
     </row>
     <row r="236" ht="12.75" customHeight="1">
-      <c r="C236" s="22"/>
+      <c r="C236" s="25"/>
     </row>
     <row r="237" ht="12.75" customHeight="1">
-      <c r="C237" s="22"/>
+      <c r="C237" s="25"/>
     </row>
     <row r="238" ht="12.75" customHeight="1">
-      <c r="C238" s="22"/>
+      <c r="C238" s="25"/>
     </row>
     <row r="239" ht="12.75" customHeight="1">
-      <c r="C239" s="22"/>
+      <c r="C239" s="25"/>
     </row>
     <row r="240" ht="12.75" customHeight="1">
-      <c r="C240" s="22"/>
+      <c r="C240" s="25"/>
     </row>
     <row r="241" ht="12.75" customHeight="1">
-      <c r="C241" s="22"/>
+      <c r="C241" s="25"/>
     </row>
     <row r="242" ht="12.75" customHeight="1">
-      <c r="C242" s="22"/>
+      <c r="C242" s="25"/>
     </row>
     <row r="243" ht="12.75" customHeight="1">
-      <c r="C243" s="22"/>
+      <c r="C243" s="25"/>
     </row>
     <row r="244" ht="12.75" customHeight="1">
-      <c r="C244" s="22"/>
+      <c r="C244" s="25"/>
     </row>
     <row r="245" ht="12.75" customHeight="1">
-      <c r="C245" s="22"/>
+      <c r="C245" s="25"/>
     </row>
     <row r="246" ht="12.75" customHeight="1">
-      <c r="C246" s="22"/>
+      <c r="C246" s="25"/>
     </row>
     <row r="247" ht="12.75" customHeight="1">
-      <c r="C247" s="22"/>
+      <c r="C247" s="25"/>
     </row>
     <row r="248" ht="12.75" customHeight="1">
-      <c r="C248" s="22"/>
+      <c r="C248" s="25"/>
     </row>
     <row r="249" ht="12.75" customHeight="1">
-      <c r="C249" s="22"/>
+      <c r="C249" s="25"/>
     </row>
     <row r="250" ht="12.75" customHeight="1">
-      <c r="C250" s="22"/>
+      <c r="C250" s="25"/>
     </row>
     <row r="251" ht="12.75" customHeight="1">
-      <c r="C251" s="22"/>
+      <c r="C251" s="25"/>
     </row>
     <row r="252" ht="12.75" customHeight="1">
-      <c r="C252" s="22"/>
+      <c r="C252" s="25"/>
     </row>
     <row r="253" ht="12.75" customHeight="1">
-      <c r="C253" s="22"/>
+      <c r="C253" s="25"/>
     </row>
     <row r="254" ht="12.75" customHeight="1">
-      <c r="C254" s="22"/>
+      <c r="C254" s="25"/>
     </row>
     <row r="255" ht="12.75" customHeight="1">
-      <c r="C255" s="22"/>
+      <c r="C255" s="25"/>
     </row>
     <row r="256" ht="12.75" customHeight="1">
-      <c r="C256" s="22"/>
+      <c r="C256" s="25"/>
     </row>
     <row r="257" ht="12.75" customHeight="1">
-      <c r="C257" s="22"/>
+      <c r="C257" s="25"/>
     </row>
     <row r="258" ht="12.75" customHeight="1">
-      <c r="C258" s="22"/>
+      <c r="C258" s="25"/>
     </row>
     <row r="259" ht="12.75" customHeight="1">
-      <c r="C259" s="22"/>
+      <c r="C259" s="25"/>
     </row>
     <row r="260" ht="12.75" customHeight="1">
-      <c r="C260" s="22"/>
+      <c r="C260" s="25"/>
     </row>
     <row r="261" ht="12.75" customHeight="1">
-      <c r="C261" s="22"/>
+      <c r="C261" s="25"/>
     </row>
     <row r="262" ht="12.75" customHeight="1">
-      <c r="C262" s="22"/>
+      <c r="C262" s="25"/>
     </row>
     <row r="263" ht="12.75" customHeight="1">
-      <c r="C263" s="22"/>
+      <c r="C263" s="25"/>
     </row>
     <row r="264" ht="12.75" customHeight="1">
-      <c r="C264" s="22"/>
+      <c r="C264" s="25"/>
     </row>
     <row r="265" ht="12.75" customHeight="1">
-      <c r="C265" s="22"/>
+      <c r="C265" s="25"/>
     </row>
     <row r="266" ht="12.75" customHeight="1">
-      <c r="C266" s="22"/>
+      <c r="C266" s="25"/>
     </row>
     <row r="267" ht="12.75" customHeight="1">
-      <c r="C267" s="22"/>
+      <c r="C267" s="25"/>
     </row>
     <row r="268" ht="12.75" customHeight="1">
-      <c r="C268" s="22"/>
+      <c r="C268" s="25"/>
     </row>
     <row r="269" ht="12.75" customHeight="1">
-      <c r="C269" s="22"/>
+      <c r="C269" s="25"/>
     </row>
     <row r="270" ht="12.75" customHeight="1">
-      <c r="C270" s="22"/>
+      <c r="C270" s="25"/>
     </row>
     <row r="271" ht="12.75" customHeight="1">
-      <c r="C271" s="22"/>
+      <c r="C271" s="25"/>
     </row>
     <row r="272" ht="12.75" customHeight="1">
-      <c r="C272" s="22"/>
+      <c r="C272" s="25"/>
     </row>
     <row r="273" ht="12.75" customHeight="1">
-      <c r="C273" s="22"/>
+      <c r="C273" s="25"/>
     </row>
     <row r="274" ht="12.75" customHeight="1">
-      <c r="C274" s="22"/>
+      <c r="C274" s="25"/>
     </row>
     <row r="275" ht="12.75" customHeight="1">
-      <c r="C275" s="22"/>
+      <c r="C275" s="25"/>
     </row>
     <row r="276" ht="12.75" customHeight="1">
-      <c r="C276" s="22"/>
+      <c r="C276" s="25"/>
     </row>
     <row r="277" ht="12.75" customHeight="1">
-      <c r="C277" s="22"/>
+      <c r="C277" s="25"/>
     </row>
     <row r="278" ht="12.75" customHeight="1">
-      <c r="C278" s="22"/>
+      <c r="C278" s="25"/>
     </row>
     <row r="279" ht="12.75" customHeight="1">
-      <c r="C279" s="22"/>
+      <c r="C279" s="25"/>
     </row>
     <row r="280" ht="12.75" customHeight="1">
-      <c r="C280" s="22"/>
+      <c r="C280" s="25"/>
     </row>
     <row r="281" ht="12.75" customHeight="1">
-      <c r="C281" s="22"/>
+      <c r="C281" s="25"/>
     </row>
     <row r="282" ht="12.75" customHeight="1">
-      <c r="C282" s="22"/>
+      <c r="C282" s="25"/>
     </row>
     <row r="283" ht="12.75" customHeight="1">
-      <c r="C283" s="22"/>
+      <c r="C283" s="25"/>
     </row>
     <row r="284" ht="12.75" customHeight="1">
-      <c r="C284" s="22"/>
+      <c r="C284" s="25"/>
     </row>
     <row r="285" ht="12.75" customHeight="1">
-      <c r="C285" s="22"/>
+      <c r="C285" s="25"/>
     </row>
     <row r="286" ht="12.75" customHeight="1">
-      <c r="C286" s="22"/>
+      <c r="C286" s="25"/>
     </row>
     <row r="287" ht="12.75" customHeight="1">
-      <c r="C287" s="22"/>
+      <c r="C287" s="25"/>
     </row>
     <row r="288" ht="12.75" customHeight="1">
-      <c r="C288" s="22"/>
+      <c r="C288" s="25"/>
     </row>
     <row r="289" ht="12.75" customHeight="1">
-      <c r="C289" s="22"/>
+      <c r="C289" s="25"/>
     </row>
     <row r="290" ht="12.75" customHeight="1">
-      <c r="C290" s="22"/>
+      <c r="C290" s="25"/>
     </row>
     <row r="291" ht="12.75" customHeight="1">
-      <c r="C291" s="22"/>
+      <c r="C291" s="25"/>
     </row>
     <row r="292" ht="15.75" customHeight="1"/>
     <row r="293" ht="15.75" customHeight="1"/>

--- a/public/討論區留言.xlsx
+++ b/public/討論區留言.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="380">
   <si>
     <t>序號</t>
   </si>
@@ -66,7 +66,10 @@
     <t>空服員負擔</t>
   </si>
   <si>
-    <t>寵物的動物福利</t>
+    <t>對寵物的看法</t>
+  </si>
+  <si>
+    <t>寵物搭機現況</t>
   </si>
   <si>
     <t>肇事責任歸屬</t>
@@ -2394,7 +2397,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -2414,6 +2417,10 @@
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
+      <name val="Microsoft JhengHei"/>
+    </font>
+    <font>
+      <color theme="1"/>
       <name val="Microsoft JhengHei"/>
     </font>
     <font>
@@ -2481,7 +2488,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2492,23 +2499,21 @@
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
     <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
@@ -2518,7 +2523,7 @@
     <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="3" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="1" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
@@ -2541,8 +2546,11 @@
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="6" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+      <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2770,10 +2778,10 @@
     <col customWidth="1" min="5" max="5" width="12.88"/>
     <col customWidth="1" min="6" max="7" width="6.75"/>
     <col customWidth="1" min="8" max="10" width="8.75"/>
-    <col customWidth="1" min="11" max="11" width="11.13"/>
-    <col customWidth="1" min="12" max="13" width="9.75"/>
-    <col customWidth="1" min="14" max="23" width="8.75"/>
-    <col customWidth="1" min="24" max="25" width="11.13"/>
+    <col customWidth="1" min="11" max="12" width="11.13"/>
+    <col customWidth="1" min="13" max="14" width="9.75"/>
+    <col customWidth="1" min="15" max="24" width="8.75"/>
+    <col customWidth="1" min="25" max="26" width="11.13"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1">
@@ -2807,37 +2815,40 @@
       <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="5" t="s">
         <v>11</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="6" t="s">
         <v>14</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="2" ht="12.75" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="5" t="s">
         <v>18</v>
       </c>
+      <c r="D2" s="7" t="s">
+        <v>19</v>
+      </c>
       <c r="E2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F2" s="2">
         <v>222.0</v>
@@ -2845,46 +2856,49 @@
       <c r="G2" s="2">
         <v>2.0</v>
       </c>
-      <c r="H2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="J2" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="K2" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="L2" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="M2" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="N2" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="O2" s="6">
+      <c r="H2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J2" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K2" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="L2" s="9">
+        <v>1.0</v>
+      </c>
+      <c r="M2" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="N2" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="O2" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="P2" s="8">
         <v>0.0</v>
       </c>
     </row>
     <row r="3" ht="12.75" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>18</v>
+        <v>24</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F3" s="2">
         <v>41.0</v>
@@ -2892,46 +2906,49 @@
       <c r="G3" s="2">
         <v>1.0</v>
       </c>
-      <c r="H3" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="J3" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="K3" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="L3" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="M3" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="N3" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="O3" s="7">
+      <c r="H3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J3" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K3" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="L3" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="M3" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="N3" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="O3" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="P3" s="10">
         <v>1.0</v>
       </c>
     </row>
     <row r="4" ht="12.75" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>18</v>
+        <v>29</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F4" s="2">
         <v>216.0</v>
@@ -2939,46 +2956,49 @@
       <c r="G4" s="2">
         <v>2.0</v>
       </c>
-      <c r="H4" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="I4" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="J4" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="K4" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="L4" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="M4" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="N4" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="O4" s="6">
+      <c r="H4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J4" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K4" s="9">
+        <v>1.0</v>
+      </c>
+      <c r="L4" s="9">
+        <v>1.0</v>
+      </c>
+      <c r="M4" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="N4" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="O4" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="P4" s="8">
         <v>0.0</v>
       </c>
     </row>
     <row r="5" ht="12.75" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>18</v>
+        <v>33</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F5" s="2">
         <v>154.0</v>
@@ -2986,46 +3006,49 @@
       <c r="G5" s="2">
         <v>2.0</v>
       </c>
-      <c r="H5" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I5" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="J5" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="K5" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="L5" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="M5" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="N5" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="O5" s="6">
+      <c r="H5" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J5" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K5" s="9">
+        <v>1.0</v>
+      </c>
+      <c r="L5" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="M5" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="N5" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="O5" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="P5" s="8">
         <v>0.0</v>
       </c>
     </row>
     <row r="6" ht="12.75" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>18</v>
+        <v>37</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F6" s="2">
         <v>8.0</v>
@@ -3033,46 +3056,49 @@
       <c r="G6" s="2">
         <v>77.0</v>
       </c>
-      <c r="H6" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="I6" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="J6" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="K6" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="L6" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="M6" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="N6" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="O6" s="6">
+      <c r="H6" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J6" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K6" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="L6" s="9">
+        <v>1.0</v>
+      </c>
+      <c r="M6" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="N6" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="O6" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="P6" s="8">
         <v>0.0</v>
       </c>
     </row>
     <row r="7" ht="12.75" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>18</v>
+      <c r="C7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F7" s="2">
         <v>171.0</v>
@@ -3080,46 +3106,49 @@
       <c r="G7" s="2">
         <v>2.0</v>
       </c>
-      <c r="H7" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="I7" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="J7" s="6">
+      <c r="H7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I7" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J7" s="8">
         <v>0.0</v>
       </c>
       <c r="K7" s="9">
         <v>0.0</v>
       </c>
-      <c r="L7" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="M7" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="N7" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="O7" s="6">
+      <c r="L7" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="M7" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="N7" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="O7" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="P7" s="8">
         <v>0.0</v>
       </c>
     </row>
     <row r="8" ht="12.75" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>18</v>
+        <v>45</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F8" s="2">
         <v>19.0</v>
@@ -3127,46 +3156,49 @@
       <c r="G8" s="2">
         <v>85.0</v>
       </c>
-      <c r="H8" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="I8" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="J8" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="K8" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="L8" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="M8" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="N8" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="O8" s="6">
+      <c r="H8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J8" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K8" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="L8" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="M8" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="N8" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="O8" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="P8" s="8">
         <v>0.0</v>
       </c>
     </row>
     <row r="9" ht="12.75" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>18</v>
+        <v>49</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F9" s="2">
         <v>131.0</v>
@@ -3174,46 +3206,49 @@
       <c r="G9" s="2">
         <v>2.0</v>
       </c>
-      <c r="H9" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="I9" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="J9" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="K9" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="L9" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="M9" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="N9" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="O9" s="6">
+      <c r="H9" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="I9" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J9" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K9" s="9">
+        <v>1.0</v>
+      </c>
+      <c r="L9" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="M9" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="N9" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="O9" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="P9" s="8">
         <v>0.0</v>
       </c>
     </row>
     <row r="10" ht="12.75" customHeight="1">
       <c r="A10" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>18</v>
+        <v>53</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F10" s="2">
         <v>148.0</v>
@@ -3221,46 +3256,49 @@
       <c r="G10" s="2">
         <v>2.0</v>
       </c>
-      <c r="H10" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="I10" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="J10" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="K10" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="L10" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="M10" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="N10" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="O10" s="6">
+      <c r="H10" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="I10" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J10" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K10" s="9">
+        <v>1.0</v>
+      </c>
+      <c r="L10" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="M10" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="N10" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="O10" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="P10" s="8">
         <v>0.0</v>
       </c>
     </row>
     <row r="11" ht="12.75" customHeight="1">
       <c r="A11" s="11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F11" s="11">
         <v>92.0</v>
@@ -3269,30 +3307,32 @@
         <v>1.0</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="I11" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="J11" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="K11" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="L11" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="M11" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="N11" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="O11" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="P11" s="14"/>
+        <v>58</v>
+      </c>
+      <c r="I11" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J11" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K11" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="L11" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="M11" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="N11" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="O11" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="P11" s="8">
+        <v>0.0</v>
+      </c>
       <c r="Q11" s="14"/>
       <c r="R11" s="14"/>
       <c r="S11" s="14"/>
@@ -3302,22 +3342,23 @@
       <c r="W11" s="14"/>
       <c r="X11" s="14"/>
       <c r="Y11" s="14"/>
+      <c r="Z11" s="14"/>
     </row>
     <row r="12" ht="12.75" customHeight="1">
       <c r="A12" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>18</v>
+        <v>61</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F12" s="2">
         <v>104.0</v>
@@ -3325,46 +3366,49 @@
       <c r="G12" s="2">
         <v>2.0</v>
       </c>
-      <c r="H12" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="I12" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="J12" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="K12" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="L12" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="M12" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="N12" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="O12" s="6">
+      <c r="H12" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="I12" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J12" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K12" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="L12" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="M12" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="N12" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="O12" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="P12" s="8">
         <v>0.0</v>
       </c>
     </row>
     <row r="13" ht="12.75" customHeight="1">
       <c r="A13" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>18</v>
+        <v>65</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F13" s="2">
         <v>126.0</v>
@@ -3372,46 +3416,49 @@
       <c r="G13" s="2">
         <v>2.0</v>
       </c>
-      <c r="H13" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="I13" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="J13" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="K13" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="L13" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="M13" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="N13" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="O13" s="6">
+      <c r="H13" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="I13" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J13" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K13" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="L13" s="9">
+        <v>1.0</v>
+      </c>
+      <c r="M13" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="N13" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="O13" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="P13" s="8">
         <v>0.0</v>
       </c>
     </row>
     <row r="14" ht="12.75" customHeight="1">
       <c r="A14" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>18</v>
+        <v>69</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F14" s="2">
         <v>1.0</v>
@@ -3419,46 +3466,49 @@
       <c r="G14" s="2">
         <v>0.0</v>
       </c>
-      <c r="H14" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="I14" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="J14" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="K14" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="L14" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="M14" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="N14" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="O14" s="6">
+      <c r="H14" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="I14" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="J14" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K14" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="L14" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="M14" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="N14" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="O14" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="P14" s="8">
         <v>0.0</v>
       </c>
     </row>
     <row r="15" ht="12.75" customHeight="1">
       <c r="A15" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>18</v>
+        <v>73</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F15" s="2">
         <v>73.0</v>
@@ -3466,46 +3516,49 @@
       <c r="G15" s="2">
         <v>2.0</v>
       </c>
-      <c r="H15" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="I15" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="J15" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="K15" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="L15" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="M15" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="N15" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="O15" s="6">
+      <c r="H15" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="I15" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J15" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K15" s="9">
+        <v>1.0</v>
+      </c>
+      <c r="L15" s="9">
+        <v>1.0</v>
+      </c>
+      <c r="M15" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="N15" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="O15" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="P15" s="8">
         <v>0.0</v>
       </c>
     </row>
     <row r="16" ht="12.75" customHeight="1">
       <c r="A16" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>18</v>
+        <v>77</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F16" s="2">
         <v>72.0</v>
@@ -3513,46 +3566,49 @@
       <c r="G16" s="2">
         <v>2.0</v>
       </c>
-      <c r="H16" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="I16" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="J16" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="K16" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="L16" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="M16" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="N16" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="O16" s="6">
+      <c r="H16" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="I16" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J16" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K16" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="L16" s="9">
+        <v>1.0</v>
+      </c>
+      <c r="M16" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="N16" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="O16" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="P16" s="8">
         <v>0.0</v>
       </c>
     </row>
     <row r="17" ht="12.75" customHeight="1">
       <c r="A17" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>18</v>
+        <v>81</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F17" s="2">
         <v>62.0</v>
@@ -3560,46 +3616,49 @@
       <c r="G17" s="2">
         <v>1.0</v>
       </c>
-      <c r="H17" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="I17" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="J17" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="K17" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="L17" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="M17" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="N17" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="O17" s="6">
+      <c r="H17" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="I17" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J17" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K17" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="L17" s="9">
+        <v>1.0</v>
+      </c>
+      <c r="M17" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="N17" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="O17" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="P17" s="8">
         <v>0.0</v>
       </c>
     </row>
     <row r="18" ht="12.75" customHeight="1">
       <c r="A18" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>18</v>
+        <v>85</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F18" s="2">
         <v>1.0</v>
@@ -3607,46 +3666,49 @@
       <c r="G18" s="2">
         <v>0.0</v>
       </c>
-      <c r="H18" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="I18" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="J18" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="K18" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="L18" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="M18" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="N18" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="O18" s="6">
+      <c r="H18" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="I18" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J18" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K18" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="L18" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="M18" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="N18" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="O18" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="P18" s="8">
         <v>0.0</v>
       </c>
     </row>
     <row r="19" ht="12.75" customHeight="1">
       <c r="A19" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>18</v>
+        <v>89</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F19" s="2">
         <v>122.0</v>
@@ -3654,46 +3716,49 @@
       <c r="G19" s="2">
         <v>2.0</v>
       </c>
-      <c r="H19" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="I19" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="J19" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="K19" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="L19" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="M19" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="N19" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="O19" s="6">
+      <c r="H19" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="I19" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J19" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K19" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="L19" s="9">
+        <v>1.0</v>
+      </c>
+      <c r="M19" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="N19" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="O19" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="P19" s="8">
         <v>0.0</v>
       </c>
     </row>
     <row r="20" ht="12.75" customHeight="1">
       <c r="A20" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>18</v>
+        <v>93</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F20" s="2">
         <v>60.0</v>
@@ -3701,46 +3766,49 @@
       <c r="G20" s="2">
         <v>2.0</v>
       </c>
-      <c r="H20" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="I20" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="J20" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="K20" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="L20" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="M20" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="N20" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="O20" s="6">
+      <c r="H20" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="I20" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J20" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K20" s="9">
+        <v>1.0</v>
+      </c>
+      <c r="L20" s="9">
+        <v>1.0</v>
+      </c>
+      <c r="M20" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="N20" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="O20" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="P20" s="8">
         <v>0.0</v>
       </c>
     </row>
     <row r="21" ht="12.75" customHeight="1">
       <c r="A21" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>18</v>
+        <v>97</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F21" s="2">
         <v>60.0</v>
@@ -3748,46 +3816,49 @@
       <c r="G21" s="2">
         <v>2.0</v>
       </c>
-      <c r="H21" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="I21" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="J21" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="K21" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="L21" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="M21" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="N21" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="O21" s="6">
+      <c r="H21" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="I21" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J21" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K21" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="L21" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="M21" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="N21" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="O21" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="P21" s="8">
         <v>0.0</v>
       </c>
     </row>
     <row r="22" ht="12.75" customHeight="1">
       <c r="A22" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>18</v>
+        <v>101</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F22" s="2">
         <v>61.0</v>
@@ -3795,46 +3866,49 @@
       <c r="G22" s="2">
         <v>2.0</v>
       </c>
-      <c r="H22" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="I22" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="J22" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="K22" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="L22" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="M22" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="N22" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="O22" s="6">
+      <c r="H22" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="I22" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J22" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K22" s="9">
+        <v>1.0</v>
+      </c>
+      <c r="L22" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="M22" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="N22" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="O22" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="P22" s="8">
         <v>0.0</v>
       </c>
     </row>
     <row r="23" ht="12.75" customHeight="1">
       <c r="A23" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>18</v>
+        <v>105</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F23" s="2">
         <v>61.0</v>
@@ -3842,46 +3916,49 @@
       <c r="G23" s="2">
         <v>1.0</v>
       </c>
-      <c r="H23" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="I23" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="J23" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="K23" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="L23" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="M23" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="N23" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="O23" s="6">
+      <c r="H23" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="I23" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J23" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K23" s="9">
+        <v>1.0</v>
+      </c>
+      <c r="L23" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="M23" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="N23" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="O23" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="P23" s="8">
         <v>0.0</v>
       </c>
     </row>
     <row r="24" ht="12.75" customHeight="1">
       <c r="A24" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>18</v>
+        <v>109</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F24" s="2">
         <v>59.0</v>
@@ -3889,46 +3966,49 @@
       <c r="G24" s="2">
         <v>2.0</v>
       </c>
-      <c r="H24" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="I24" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="J24" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="K24" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="L24" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="M24" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="N24" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="O24" s="6">
+      <c r="H24" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="I24" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J24" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K24" s="9">
+        <v>1.0</v>
+      </c>
+      <c r="L24" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="M24" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="N24" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="O24" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="P24" s="8">
         <v>0.0</v>
       </c>
     </row>
     <row r="25" ht="12.75" customHeight="1">
       <c r="A25" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>18</v>
+        <v>113</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F25" s="2">
         <v>2.0</v>
@@ -3936,46 +4016,49 @@
       <c r="G25" s="2">
         <v>76.0</v>
       </c>
-      <c r="H25" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="I25" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="J25" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="K25" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="L25" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="M25" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="N25" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="O25" s="6">
+      <c r="H25" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="I25" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J25" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K25" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="L25" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="M25" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="N25" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="O25" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="P25" s="8">
         <v>0.0</v>
       </c>
     </row>
     <row r="26" ht="12.75" customHeight="1">
       <c r="A26" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>18</v>
+        <v>117</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F26" s="2">
         <v>2.0</v>
@@ -3983,46 +4066,49 @@
       <c r="G26" s="2">
         <v>136.0</v>
       </c>
-      <c r="H26" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="I26" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="J26" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="K26" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="L26" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="M26" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="N26" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="O26" s="6">
+      <c r="H26" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="I26" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J26" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K26" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="L26" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="M26" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="N26" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="O26" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="P26" s="8">
         <v>0.0</v>
       </c>
     </row>
     <row r="27" ht="12.75" customHeight="1">
       <c r="A27" s="11" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F27" s="11">
         <v>55.0</v>
@@ -4031,30 +4117,32 @@
         <v>2.0</v>
       </c>
       <c r="H27" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="I27" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="J27" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="K27" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="L27" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="M27" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="N27" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="O27" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="P27" s="14"/>
+        <v>122</v>
+      </c>
+      <c r="I27" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J27" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K27" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="L27" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="M27" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="N27" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="O27" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="P27" s="8">
+        <v>0.0</v>
+      </c>
       <c r="Q27" s="14"/>
       <c r="R27" s="14"/>
       <c r="S27" s="14"/>
@@ -4064,22 +4152,23 @@
       <c r="W27" s="14"/>
       <c r="X27" s="14"/>
       <c r="Y27" s="14"/>
+      <c r="Z27" s="14"/>
     </row>
     <row r="28" ht="12.75" customHeight="1">
       <c r="A28" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>18</v>
+        <v>125</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F28" s="2">
         <v>72.0</v>
@@ -4087,46 +4176,49 @@
       <c r="G28" s="2">
         <v>2.0</v>
       </c>
-      <c r="H28" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="I28" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="J28" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="K28" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="L28" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="M28" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="N28" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="O28" s="6">
+      <c r="H28" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="I28" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J28" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K28" s="9">
+        <v>1.0</v>
+      </c>
+      <c r="L28" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="M28" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="N28" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="O28" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="P28" s="8">
         <v>0.0</v>
       </c>
     </row>
     <row r="29" ht="12.75" customHeight="1">
       <c r="A29" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>18</v>
+        <v>129</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F29" s="2">
         <v>0.0</v>
@@ -4134,46 +4226,49 @@
       <c r="G29" s="2">
         <v>0.0</v>
       </c>
-      <c r="H29" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="I29" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="J29" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="K29" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="L29" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="M29" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="N29" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="O29" s="6">
+      <c r="H29" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="I29" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J29" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K29" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="L29" s="9">
+        <v>1.0</v>
+      </c>
+      <c r="M29" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="N29" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="O29" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="P29" s="8">
         <v>0.0</v>
       </c>
     </row>
     <row r="30" ht="12.75" customHeight="1">
       <c r="A30" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>18</v>
+        <v>133</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F30" s="2">
         <v>45.0</v>
@@ -4181,46 +4276,49 @@
       <c r="G30" s="2">
         <v>1.0</v>
       </c>
-      <c r="H30" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="I30" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="J30" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="K30" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="L30" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="M30" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="N30" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="O30" s="6">
+      <c r="H30" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="I30" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J30" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K30" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="L30" s="9">
+        <v>1.0</v>
+      </c>
+      <c r="M30" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="N30" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="O30" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="P30" s="8">
         <v>0.0</v>
       </c>
     </row>
     <row r="31" ht="12.75" customHeight="1">
       <c r="A31" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>18</v>
+        <v>137</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F31" s="2">
         <v>7.0</v>
@@ -4228,46 +4326,49 @@
       <c r="G31" s="2">
         <v>63.0</v>
       </c>
-      <c r="H31" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="I31" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="J31" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="K31" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="L31" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="M31" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="N31" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="O31" s="6">
+      <c r="H31" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="I31" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="J31" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K31" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="L31" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="M31" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="N31" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="O31" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="P31" s="8">
         <v>1.0</v>
       </c>
     </row>
     <row r="32" ht="12.75" customHeight="1">
       <c r="A32" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>18</v>
+        <v>141</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F32" s="2">
         <v>31.0</v>
@@ -4275,46 +4376,49 @@
       <c r="G32" s="2">
         <v>2.0</v>
       </c>
-      <c r="H32" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="I32" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="J32" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="K32" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="L32" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="M32" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="N32" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="O32" s="6">
+      <c r="H32" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="I32" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J32" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K32" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="L32" s="9">
+        <v>1.0</v>
+      </c>
+      <c r="M32" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="N32" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="O32" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="P32" s="8">
         <v>0.0</v>
       </c>
     </row>
     <row r="33" ht="12.75" customHeight="1">
       <c r="A33" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>18</v>
+        <v>145</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F33" s="2">
         <v>5.0</v>
@@ -4322,46 +4426,49 @@
       <c r="G33" s="2">
         <v>51.0</v>
       </c>
-      <c r="H33" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="I33" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="J33" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="K33" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="L33" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="M33" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="N33" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="O33" s="6">
+      <c r="H33" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="I33" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J33" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K33" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="L33" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="M33" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="N33" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="O33" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="P33" s="8">
         <v>1.0</v>
       </c>
     </row>
     <row r="34" ht="12.75" customHeight="1">
       <c r="A34" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>18</v>
+        <v>149</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F34" s="2">
         <v>0.0</v>
@@ -4369,46 +4476,49 @@
       <c r="G34" s="2">
         <v>0.0</v>
       </c>
-      <c r="H34" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="I34" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="J34" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="K34" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="L34" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="M34" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="N34" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="O34" s="6">
+      <c r="H34" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="I34" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J34" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K34" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="L34" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="M34" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="N34" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="O34" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="P34" s="8">
         <v>0.0</v>
       </c>
     </row>
     <row r="35" ht="12.75" customHeight="1">
       <c r="A35" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="D35" s="5" t="s">
         <v>153</v>
       </c>
+      <c r="D35" s="7" t="s">
+        <v>154</v>
+      </c>
       <c r="E35" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F35" s="2">
         <v>23.0</v>
@@ -4416,46 +4526,49 @@
       <c r="G35" s="2">
         <v>2.0</v>
       </c>
-      <c r="H35" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="I35" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="J35" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="K35" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="L35" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="M35" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="N35" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="O35" s="6">
+      <c r="H35" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="I35" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J35" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K35" s="9">
+        <v>1.0</v>
+      </c>
+      <c r="L35" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="M35" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="N35" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="O35" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="P35" s="8">
         <v>0.0</v>
       </c>
     </row>
     <row r="36" ht="12.75" customHeight="1">
       <c r="A36" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>153</v>
+        <v>158</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>154</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F36" s="2">
         <v>19.0</v>
@@ -4463,46 +4576,49 @@
       <c r="G36" s="2">
         <v>2.0</v>
       </c>
-      <c r="H36" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="I36" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="J36" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="K36" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="L36" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="M36" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="N36" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="O36" s="6">
+      <c r="H36" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="I36" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J36" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K36" s="9">
+        <v>1.0</v>
+      </c>
+      <c r="L36" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="M36" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="N36" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="O36" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="P36" s="8">
         <v>0.0</v>
       </c>
     </row>
     <row r="37" ht="12.75" customHeight="1">
       <c r="A37" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>153</v>
+        <v>162</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>154</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F37" s="2">
         <v>16.0</v>
@@ -4510,46 +4626,49 @@
       <c r="G37" s="2">
         <v>2.0</v>
       </c>
-      <c r="H37" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="I37" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="J37" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="K37" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="L37" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="M37" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="N37" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="O37" s="6">
+      <c r="H37" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="I37" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J37" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K37" s="9">
+        <v>1.0</v>
+      </c>
+      <c r="L37" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="M37" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="N37" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="O37" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="P37" s="8">
         <v>0.0</v>
       </c>
     </row>
     <row r="38" ht="12.75" customHeight="1">
       <c r="A38" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>153</v>
+        <v>166</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>154</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F38" s="2">
         <v>16.0</v>
@@ -4557,46 +4676,49 @@
       <c r="G38" s="2">
         <v>2.0</v>
       </c>
-      <c r="H38" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="I38" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="J38" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="K38" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="L38" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="M38" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="N38" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="O38" s="6">
+      <c r="H38" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="I38" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J38" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K38" s="9">
+        <v>1.0</v>
+      </c>
+      <c r="L38" s="9">
+        <v>1.0</v>
+      </c>
+      <c r="M38" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="N38" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="O38" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="P38" s="8">
         <v>0.0</v>
       </c>
     </row>
     <row r="39" ht="12.75" customHeight="1">
       <c r="A39" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>153</v>
+        <v>170</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>154</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F39" s="2">
         <v>5.0</v>
@@ -4604,46 +4726,49 @@
       <c r="G39" s="2">
         <v>1.0</v>
       </c>
-      <c r="H39" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="I39" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="J39" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="K39" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="L39" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="M39" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="N39" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="O39" s="6">
+      <c r="H39" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="I39" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J39" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K39" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="L39" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="M39" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="N39" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="O39" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="P39" s="8">
         <v>1.0</v>
       </c>
     </row>
     <row r="40" ht="12.75" customHeight="1">
       <c r="A40" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>153</v>
+        <v>174</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>154</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F40" s="2">
         <v>15.0</v>
@@ -4651,46 +4776,49 @@
       <c r="G40" s="2">
         <v>2.0</v>
       </c>
-      <c r="H40" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="I40" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="J40" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="K40" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="L40" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="M40" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="N40" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="O40" s="6">
+      <c r="H40" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="I40" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J40" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K40" s="9">
+        <v>1.0</v>
+      </c>
+      <c r="L40" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="M40" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="N40" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="O40" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="P40" s="8">
         <v>0.0</v>
       </c>
     </row>
     <row r="41" ht="12.75" customHeight="1">
       <c r="A41" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>153</v>
+        <v>178</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>154</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F41" s="2">
         <v>12.0</v>
@@ -4698,46 +4826,49 @@
       <c r="G41" s="2">
         <v>2.0</v>
       </c>
-      <c r="H41" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="I41" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="J41" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="K41" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="L41" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="M41" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="N41" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="O41" s="6">
+      <c r="H41" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="I41" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J41" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K41" s="9">
+        <v>1.0</v>
+      </c>
+      <c r="L41" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="M41" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="N41" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="O41" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="P41" s="8">
         <v>0.0</v>
       </c>
     </row>
     <row r="42" ht="12.75" customHeight="1">
       <c r="A42" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>153</v>
+        <v>182</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>154</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F42" s="2">
         <v>14.0</v>
@@ -4745,46 +4876,49 @@
       <c r="G42" s="2">
         <v>2.0</v>
       </c>
-      <c r="H42" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="I42" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="J42" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="K42" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="L42" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="M42" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="N42" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="O42" s="6">
+      <c r="H42" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="I42" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J42" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K42" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="L42" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="M42" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="N42" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="O42" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="P42" s="8">
         <v>0.0</v>
       </c>
     </row>
     <row r="43" ht="12.75" customHeight="1">
       <c r="A43" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>153</v>
+        <v>186</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>154</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F43" s="2">
         <v>10.0</v>
@@ -4792,46 +4926,49 @@
       <c r="G43" s="2">
         <v>1.0</v>
       </c>
-      <c r="H43" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="I43" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="J43" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="K43" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="L43" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="M43" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="N43" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="O43" s="6">
+      <c r="H43" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="I43" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="J43" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K43" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="L43" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="M43" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="N43" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="O43" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="P43" s="8">
         <v>0.0</v>
       </c>
     </row>
     <row r="44" ht="12.75" customHeight="1">
       <c r="A44" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>153</v>
+        <v>190</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>154</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F44" s="2">
         <v>10.0</v>
@@ -4839,46 +4976,49 @@
       <c r="G44" s="2">
         <v>2.0</v>
       </c>
-      <c r="H44" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="I44" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="J44" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="K44" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="L44" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="M44" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="N44" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="O44" s="6">
+      <c r="H44" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="I44" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J44" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K44" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="L44" s="9">
+        <v>1.0</v>
+      </c>
+      <c r="M44" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="N44" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="O44" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="P44" s="8">
         <v>0.0</v>
       </c>
     </row>
     <row r="45" ht="12.75" customHeight="1">
       <c r="A45" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>153</v>
+        <v>194</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>154</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F45" s="2">
         <v>9.0</v>
@@ -4886,46 +5026,49 @@
       <c r="G45" s="2">
         <v>2.0</v>
       </c>
-      <c r="H45" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="I45" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="J45" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="K45" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="L45" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="M45" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="N45" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="O45" s="6">
+      <c r="H45" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="I45" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J45" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K45" s="9">
+        <v>1.0</v>
+      </c>
+      <c r="L45" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="M45" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="N45" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="O45" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="P45" s="8">
         <v>0.0</v>
       </c>
     </row>
     <row r="46" ht="12.75" customHeight="1">
       <c r="A46" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>153</v>
+        <v>198</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>154</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F46" s="2">
         <v>5.0</v>
@@ -4933,46 +5076,49 @@
       <c r="G46" s="2">
         <v>22.0</v>
       </c>
-      <c r="H46" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="I46" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="J46" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="K46" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="L46" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="M46" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="N46" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="O46" s="6">
+      <c r="H46" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="I46" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="J46" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K46" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="L46" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="M46" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="N46" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="O46" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="P46" s="8">
         <v>0.0</v>
       </c>
     </row>
     <row r="47" ht="12.75" customHeight="1">
       <c r="A47" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>153</v>
+        <v>202</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>154</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F47" s="2">
         <v>2.0</v>
@@ -4980,46 +5126,49 @@
       <c r="G47" s="2">
         <v>18.0</v>
       </c>
-      <c r="H47" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="I47" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="J47" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="K47" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="L47" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="M47" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="N47" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="O47" s="6">
+      <c r="H47" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="I47" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J47" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K47" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="L47" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="M47" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="N47" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="O47" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="P47" s="8">
         <v>0.0</v>
       </c>
     </row>
     <row r="48" ht="12.75" customHeight="1">
       <c r="A48" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>153</v>
+        <v>206</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>154</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F48" s="2">
         <v>3.0</v>
@@ -5027,46 +5176,49 @@
       <c r="G48" s="2">
         <v>2.0</v>
       </c>
-      <c r="H48" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="I48" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="J48" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="K48" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="L48" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="M48" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="N48" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="O48" s="6">
+      <c r="H48" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="I48" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J48" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K48" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="L48" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="M48" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="N48" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="O48" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="P48" s="8">
         <v>0.0</v>
       </c>
     </row>
     <row r="49" ht="12.75" customHeight="1">
       <c r="A49" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>153</v>
+        <v>210</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>154</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F49" s="2">
         <v>4.0</v>
@@ -5074,46 +5226,49 @@
       <c r="G49" s="2">
         <v>12.0</v>
       </c>
-      <c r="H49" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="I49" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="J49" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="K49" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="L49" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="M49" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="N49" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="O49" s="6">
+      <c r="H49" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="I49" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="J49" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="K49" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="L49" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="M49" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="N49" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="O49" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="P49" s="8">
         <v>0.0</v>
       </c>
     </row>
     <row r="50" ht="12.75" customHeight="1">
       <c r="A50" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>153</v>
+        <v>214</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>154</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F50" s="2">
         <v>0.0</v>
@@ -5121,46 +5276,49 @@
       <c r="G50" s="2">
         <v>0.0</v>
       </c>
-      <c r="H50" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="I50" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="J50" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="K50" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="L50" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="M50" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="N50" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="O50" s="6">
+      <c r="H50" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="I50" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J50" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K50" s="9">
+        <v>1.0</v>
+      </c>
+      <c r="L50" s="9">
+        <v>1.0</v>
+      </c>
+      <c r="M50" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="N50" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="O50" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="P50" s="8">
         <v>0.0</v>
       </c>
     </row>
     <row r="51" ht="12.75" customHeight="1">
       <c r="A51" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>153</v>
+        <v>218</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>154</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F51" s="2">
         <v>6.0</v>
@@ -5168,46 +5326,49 @@
       <c r="G51" s="2">
         <v>1.0</v>
       </c>
-      <c r="H51" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="I51" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="J51" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="K51" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="L51" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="M51" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="N51" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="O51" s="6">
+      <c r="H51" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="I51" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J51" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K51" s="9">
+        <v>1.0</v>
+      </c>
+      <c r="L51" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="M51" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="N51" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="O51" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="P51" s="8">
         <v>0.0</v>
       </c>
     </row>
     <row r="52" ht="12.75" customHeight="1">
       <c r="A52" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>153</v>
+        <v>222</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>154</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F52" s="2">
         <v>2.0</v>
@@ -5215,46 +5376,49 @@
       <c r="G52" s="2">
         <v>16.0</v>
       </c>
-      <c r="H52" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="I52" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="J52" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="K52" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="L52" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="M52" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="N52" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="O52" s="7">
+      <c r="H52" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="I52" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J52" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K52" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="L52" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="M52" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="N52" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="O52" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="P52" s="10">
         <v>1.0</v>
       </c>
     </row>
     <row r="53" ht="12.75" customHeight="1">
       <c r="A53" s="11" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C53" s="13" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D53" s="12" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E53" s="13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F53" s="11">
         <v>2.0</v>
@@ -5263,30 +5427,32 @@
         <v>4.0</v>
       </c>
       <c r="H53" s="12" t="s">
-        <v>226</v>
-      </c>
-      <c r="I53" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="J53" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="K53" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="L53" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="M53" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="N53" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="O53" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="P53" s="14"/>
+        <v>227</v>
+      </c>
+      <c r="I53" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J53" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K53" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="L53" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="M53" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="N53" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="O53" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="P53" s="8">
+        <v>0.0</v>
+      </c>
       <c r="Q53" s="14"/>
       <c r="R53" s="14"/>
       <c r="S53" s="14"/>
@@ -5296,22 +5462,23 @@
       <c r="W53" s="14"/>
       <c r="X53" s="14"/>
       <c r="Y53" s="14"/>
+      <c r="Z53" s="14"/>
     </row>
     <row r="54" ht="12.75" customHeight="1">
       <c r="A54" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="D54" s="5" t="s">
-        <v>153</v>
+        <v>230</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>154</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F54" s="2">
         <v>5.0</v>
@@ -5319,46 +5486,49 @@
       <c r="G54" s="2">
         <v>1.0</v>
       </c>
-      <c r="H54" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="I54" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="J54" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="K54" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="L54" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="M54" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="N54" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="O54" s="6">
+      <c r="H54" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="I54" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J54" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K54" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="L54" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="M54" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="N54" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="O54" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="P54" s="8">
         <v>0.0</v>
       </c>
     </row>
     <row r="55" ht="12.75" customHeight="1">
       <c r="A55" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="D55" s="5" t="s">
-        <v>153</v>
+        <v>233</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>154</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F55" s="2">
         <v>4.0</v>
@@ -5366,46 +5536,49 @@
       <c r="G55" s="2">
         <v>1.0</v>
       </c>
-      <c r="H55" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="I55" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="J55" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="K55" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="L55" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="M55" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="N55" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="O55" s="6">
+      <c r="H55" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="I55" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J55" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K55" s="9">
+        <v>1.0</v>
+      </c>
+      <c r="L55" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="M55" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="N55" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="O55" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="P55" s="8">
         <v>0.0</v>
       </c>
     </row>
     <row r="56" ht="12.75" customHeight="1">
       <c r="A56" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="D56" s="5" t="s">
-        <v>153</v>
+        <v>237</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>154</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F56" s="2">
         <v>4.0</v>
@@ -5413,46 +5586,49 @@
       <c r="G56" s="2">
         <v>1.0</v>
       </c>
-      <c r="H56" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="I56" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="J56" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="K56" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="L56" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="M56" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="N56" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="O56" s="6">
+      <c r="H56" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="I56" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J56" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K56" s="9">
+        <v>1.0</v>
+      </c>
+      <c r="L56" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="M56" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="N56" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="O56" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="P56" s="8">
         <v>0.0</v>
       </c>
     </row>
     <row r="57" ht="12.75" customHeight="1">
       <c r="A57" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="D57" s="5" t="s">
-        <v>153</v>
+        <v>241</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>154</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F57" s="2">
         <v>2.0</v>
@@ -5460,46 +5636,49 @@
       <c r="G57" s="2">
         <v>4.0</v>
       </c>
-      <c r="H57" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="I57" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="J57" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="K57" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="L57" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="M57" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="N57" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="O57" s="6">
+      <c r="H57" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="I57" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="J57" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K57" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="L57" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="M57" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="N57" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="O57" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="P57" s="8">
         <v>0.0</v>
       </c>
     </row>
     <row r="58" ht="12.75" customHeight="1">
       <c r="A58" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="D58" s="5" t="s">
-        <v>153</v>
+        <v>245</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>154</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F58" s="2">
         <v>6.0</v>
@@ -5507,46 +5686,49 @@
       <c r="G58" s="2">
         <v>1.0</v>
       </c>
-      <c r="H58" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="I58" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="J58" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="K58" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="L58" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="M58" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="N58" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="O58" s="6">
+      <c r="H58" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="I58" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J58" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K58" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="L58" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="M58" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="N58" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="O58" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="P58" s="8">
         <v>0.0</v>
       </c>
     </row>
     <row r="59" ht="12.75" customHeight="1">
       <c r="A59" s="11" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C59" s="13" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D59" s="12" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E59" s="13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F59" s="11">
         <v>4.0</v>
@@ -5555,30 +5737,32 @@
         <v>1.0</v>
       </c>
       <c r="H59" s="12" t="s">
-        <v>249</v>
-      </c>
-      <c r="I59" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="J59" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="K59" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="L59" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="M59" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="N59" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="O59" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="P59" s="14"/>
+        <v>250</v>
+      </c>
+      <c r="I59" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J59" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K59" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="L59" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="M59" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="N59" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="O59" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="P59" s="8">
+        <v>0.0</v>
+      </c>
       <c r="Q59" s="14"/>
       <c r="R59" s="14"/>
       <c r="S59" s="14"/>
@@ -5588,22 +5772,23 @@
       <c r="W59" s="14"/>
       <c r="X59" s="14"/>
       <c r="Y59" s="14"/>
+      <c r="Z59" s="14"/>
     </row>
     <row r="60" ht="12.75" customHeight="1">
       <c r="A60" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D60" s="5" t="s">
-        <v>153</v>
+        <v>253</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>154</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F60" s="2">
         <v>4.0</v>
@@ -5611,46 +5796,49 @@
       <c r="G60" s="2">
         <v>1.0</v>
       </c>
-      <c r="H60" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="I60" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="J60" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="K60" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="L60" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="M60" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="N60" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="O60" s="6">
+      <c r="H60" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="I60" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J60" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K60" s="9">
+        <v>1.0</v>
+      </c>
+      <c r="L60" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="M60" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="N60" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="O60" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="P60" s="8">
         <v>0.0</v>
       </c>
     </row>
     <row r="61" ht="12.75" customHeight="1">
       <c r="A61" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="C61" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="D61" s="5" t="s">
-        <v>153</v>
+      <c r="C61" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>154</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F61" s="2">
         <v>4.0</v>
@@ -5658,46 +5846,49 @@
       <c r="G61" s="2">
         <v>1.0</v>
       </c>
-      <c r="H61" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="I61" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="J61" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="K61" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="L61" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="M61" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="N61" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="O61" s="6">
+      <c r="H61" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="I61" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J61" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K61" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="L61" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="M61" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="N61" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="O61" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="P61" s="8">
         <v>0.0</v>
       </c>
     </row>
     <row r="62" ht="12.75" customHeight="1">
       <c r="A62" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="D62" s="5" t="s">
-        <v>153</v>
+        <v>261</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>154</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F62" s="2">
         <v>4.0</v>
@@ -5705,46 +5896,49 @@
       <c r="G62" s="2">
         <v>1.0</v>
       </c>
-      <c r="H62" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="I62" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="J62" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="K62" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="L62" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="M62" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="N62" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="O62" s="6">
+      <c r="H62" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="I62" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J62" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K62" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="L62" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="M62" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="N62" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="O62" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="P62" s="8">
         <v>0.0</v>
       </c>
     </row>
     <row r="63" ht="12.75" customHeight="1">
       <c r="A63" s="11" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B63" s="13" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C63" s="13" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D63" s="12" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E63" s="13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F63" s="11">
         <v>5.0</v>
@@ -5753,30 +5947,32 @@
         <v>1.0</v>
       </c>
       <c r="H63" s="12" t="s">
-        <v>264</v>
-      </c>
-      <c r="I63" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="J63" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="K63" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="L63" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="M63" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="N63" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="O63" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="P63" s="14"/>
+        <v>265</v>
+      </c>
+      <c r="I63" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J63" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K63" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="L63" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="M63" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="N63" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="O63" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="P63" s="8">
+        <v>0.0</v>
+      </c>
       <c r="Q63" s="14"/>
       <c r="R63" s="14"/>
       <c r="S63" s="14"/>
@@ -5786,22 +5982,23 @@
       <c r="W63" s="14"/>
       <c r="X63" s="14"/>
       <c r="Y63" s="14"/>
+      <c r="Z63" s="14"/>
     </row>
     <row r="64" ht="12.75" customHeight="1">
       <c r="A64" s="11" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C64" s="13" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D64" s="12" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E64" s="13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F64" s="11">
         <v>6.0</v>
@@ -5810,30 +6007,32 @@
         <v>1.0</v>
       </c>
       <c r="H64" s="12" t="s">
-        <v>268</v>
-      </c>
-      <c r="I64" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="J64" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="K64" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="L64" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="M64" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="N64" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="O64" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="P64" s="14"/>
+        <v>269</v>
+      </c>
+      <c r="I64" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J64" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K64" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="L64" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="M64" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="N64" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="O64" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="P64" s="8">
+        <v>0.0</v>
+      </c>
       <c r="Q64" s="14"/>
       <c r="R64" s="14"/>
       <c r="S64" s="14"/>
@@ -5843,22 +6042,23 @@
       <c r="W64" s="14"/>
       <c r="X64" s="14"/>
       <c r="Y64" s="14"/>
+      <c r="Z64" s="14"/>
     </row>
     <row r="65" ht="12.75" customHeight="1">
       <c r="A65" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="D65" s="5" t="s">
-        <v>153</v>
+        <v>272</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>154</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F65" s="2">
         <v>3.0</v>
@@ -5866,46 +6066,49 @@
       <c r="G65" s="2">
         <v>11.0</v>
       </c>
-      <c r="H65" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="I65" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="J65" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="K65" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="L65" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="M65" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="N65" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="O65" s="6">
+      <c r="H65" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="I65" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="J65" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K65" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="L65" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="M65" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="N65" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="O65" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="P65" s="8">
         <v>0.0</v>
       </c>
     </row>
     <row r="66" ht="12.75" customHeight="1">
       <c r="A66" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="D66" s="5" t="s">
-        <v>153</v>
+        <v>276</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>154</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F66" s="2">
         <v>6.0</v>
@@ -5913,46 +6116,49 @@
       <c r="G66" s="2">
         <v>1.0</v>
       </c>
-      <c r="H66" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="I66" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="J66" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="K66" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="L66" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="M66" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="N66" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="O66" s="6">
+      <c r="H66" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="I66" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J66" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K66" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="L66" s="9">
+        <v>1.0</v>
+      </c>
+      <c r="M66" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="N66" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="O66" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="P66" s="8">
         <v>0.0</v>
       </c>
     </row>
     <row r="67" ht="12.75" customHeight="1">
       <c r="A67" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="D67" s="5" t="s">
-        <v>153</v>
+        <v>280</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>154</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F67" s="2">
         <v>5.0</v>
@@ -5960,46 +6166,49 @@
       <c r="G67" s="2">
         <v>3.0</v>
       </c>
-      <c r="H67" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="I67" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="J67" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="K67" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="L67" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="M67" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="N67" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="O67" s="6">
+      <c r="H67" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="I67" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J67" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K67" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="L67" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="M67" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="N67" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="O67" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="P67" s="8">
         <v>0.0</v>
       </c>
     </row>
     <row r="68" ht="12.75" customHeight="1">
       <c r="A68" s="16" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B68" s="17" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C68" s="17" t="s">
-        <v>283</v>
-      </c>
-      <c r="D68" s="5" t="s">
-        <v>153</v>
+        <v>284</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>154</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F68" s="16">
         <v>3.0</v>
@@ -6007,31 +6216,33 @@
       <c r="G68" s="16">
         <v>4.0</v>
       </c>
-      <c r="H68" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="I68" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="J68" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="K68" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="L68" s="18">
-        <v>1.0</v>
-      </c>
-      <c r="M68" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="N68" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="O68" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="P68" s="18"/>
+      <c r="H68" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="I68" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J68" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K68" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="L68" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="M68" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="N68" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="O68" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="P68" s="8">
+        <v>0.0</v>
+      </c>
       <c r="Q68" s="18"/>
       <c r="R68" s="18"/>
       <c r="S68" s="18"/>
@@ -6039,22 +6250,23 @@
       <c r="U68" s="18"/>
       <c r="V68" s="18"/>
       <c r="W68" s="18"/>
+      <c r="X68" s="18"/>
     </row>
     <row r="69" ht="12.75" customHeight="1">
       <c r="A69" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="D69" s="5" t="s">
-        <v>153</v>
+        <v>288</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>154</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F69" s="2">
         <v>5.0</v>
@@ -6062,46 +6274,49 @@
       <c r="G69" s="2">
         <v>0.0</v>
       </c>
-      <c r="H69" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="I69" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="J69" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="K69" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="L69" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="M69" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="N69" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="O69" s="6">
+      <c r="H69" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="I69" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J69" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K69" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="L69" s="9">
+        <v>1.0</v>
+      </c>
+      <c r="M69" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="N69" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="O69" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="P69" s="8">
         <v>0.0</v>
       </c>
     </row>
     <row r="70" ht="12.75" customHeight="1">
       <c r="A70" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="D70" s="5" t="s">
-        <v>153</v>
+        <v>292</v>
+      </c>
+      <c r="D70" s="7" t="s">
+        <v>154</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F70" s="2">
         <v>1.0</v>
@@ -6109,46 +6324,49 @@
       <c r="G70" s="2">
         <v>4.0</v>
       </c>
-      <c r="H70" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="I70" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="J70" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="K70" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="L70" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="M70" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="N70" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="O70" s="6">
+      <c r="H70" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="I70" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="J70" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K70" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="L70" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="M70" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="N70" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="O70" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="P70" s="8">
         <v>0.0</v>
       </c>
     </row>
     <row r="71" ht="12.75" customHeight="1">
       <c r="A71" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="D71" s="5" t="s">
-        <v>153</v>
+        <v>296</v>
+      </c>
+      <c r="D71" s="7" t="s">
+        <v>154</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F71" s="2">
         <v>0.0</v>
@@ -6156,46 +6374,49 @@
       <c r="G71" s="2">
         <v>1.0</v>
       </c>
-      <c r="H71" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="I71" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="J71" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="K71" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="L71" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="M71" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="N71" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="O71" s="6">
+      <c r="H71" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="I71" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J71" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K71" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="L71" s="9">
+        <v>1.0</v>
+      </c>
+      <c r="M71" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="N71" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="O71" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="P71" s="8">
         <v>0.0</v>
       </c>
     </row>
     <row r="72" ht="12.75" customHeight="1">
       <c r="A72" s="2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="D72" s="5" t="s">
-        <v>153</v>
+        <v>300</v>
+      </c>
+      <c r="D72" s="7" t="s">
+        <v>154</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F72" s="2">
         <v>3.0</v>
@@ -6203,46 +6424,49 @@
       <c r="G72" s="2">
         <v>4.0</v>
       </c>
-      <c r="H72" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="I72" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="J72" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="K72" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="L72" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="M72" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="N72" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="O72" s="6">
+      <c r="H72" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="I72" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J72" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="K72" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="L72" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="M72" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="N72" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="O72" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="P72" s="8">
         <v>0.0</v>
       </c>
     </row>
     <row r="73" ht="12.75" customHeight="1">
       <c r="A73" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="D73" s="5" t="s">
-        <v>153</v>
+        <v>304</v>
+      </c>
+      <c r="D73" s="7" t="s">
+        <v>154</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F73" s="2">
         <v>2.0</v>
@@ -6250,46 +6474,49 @@
       <c r="G73" s="2">
         <v>4.0</v>
       </c>
-      <c r="H73" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="I73" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="J73" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="K73" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="L73" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="M73" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="N73" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="O73" s="6">
+      <c r="H73" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="I73" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="J73" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K73" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="L73" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="M73" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="N73" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="O73" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="P73" s="8">
         <v>0.0</v>
       </c>
     </row>
     <row r="74" ht="12.75" customHeight="1">
       <c r="A74" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="D74" s="5" t="s">
         <v>308</v>
       </c>
+      <c r="D74" s="7" t="s">
+        <v>309</v>
+      </c>
       <c r="E74" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F74" s="2">
         <v>4.0</v>
@@ -6297,46 +6524,49 @@
       <c r="G74" s="2">
         <v>1.0</v>
       </c>
-      <c r="H74" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="I74" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="J74" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="K74" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="L74" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="M74" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="N74" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="O74" s="6">
+      <c r="H74" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="I74" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J74" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K74" s="9">
+        <v>1.0</v>
+      </c>
+      <c r="L74" s="9">
+        <v>1.0</v>
+      </c>
+      <c r="M74" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="N74" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="O74" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="P74" s="8">
         <v>0.0</v>
       </c>
     </row>
     <row r="75" ht="12.75" customHeight="1">
       <c r="A75" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="D75" s="5" t="s">
-        <v>308</v>
+        <v>313</v>
+      </c>
+      <c r="D75" s="7" t="s">
+        <v>309</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F75" s="2">
         <v>2.0</v>
@@ -6344,46 +6574,49 @@
       <c r="G75" s="2">
         <v>1.0</v>
       </c>
-      <c r="H75" s="5" t="s">
-        <v>313</v>
-      </c>
-      <c r="I75" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="J75" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="K75" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="L75" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="M75" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="N75" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="O75" s="6">
+      <c r="H75" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="I75" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J75" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K75" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="L75" s="9">
+        <v>1.0</v>
+      </c>
+      <c r="M75" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="N75" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="O75" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="P75" s="8">
         <v>0.0</v>
       </c>
     </row>
     <row r="76" ht="12.75" customHeight="1">
       <c r="A76" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="D76" s="5" t="s">
-        <v>308</v>
+        <v>317</v>
+      </c>
+      <c r="D76" s="7" t="s">
+        <v>309</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F76" s="2">
         <v>2.0</v>
@@ -6391,46 +6624,49 @@
       <c r="G76" s="2">
         <v>0.0</v>
       </c>
-      <c r="H76" s="5" t="s">
-        <v>317</v>
-      </c>
-      <c r="I76" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="J76" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="K76" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="L76" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="M76" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="N76" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="O76" s="6">
+      <c r="H76" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="I76" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="J76" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K76" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="L76" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="M76" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="N76" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="O76" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="P76" s="8">
         <v>0.0</v>
       </c>
     </row>
     <row r="77" ht="12.75" customHeight="1">
       <c r="A77" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="D77" s="5" t="s">
-        <v>308</v>
+        <v>321</v>
+      </c>
+      <c r="D77" s="7" t="s">
+        <v>309</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F77" s="2">
         <v>2.0</v>
@@ -6438,46 +6674,49 @@
       <c r="G77" s="2">
         <v>0.0</v>
       </c>
-      <c r="H77" s="5" t="s">
-        <v>321</v>
-      </c>
-      <c r="I77" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="J77" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="K77" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="L77" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="M77" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="N77" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="O77" s="6">
+      <c r="H77" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="I77" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="J77" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K77" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="L77" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="M77" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="N77" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="O77" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="P77" s="8">
         <v>0.0</v>
       </c>
     </row>
     <row r="78" ht="12.75" customHeight="1">
       <c r="A78" s="19" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B78" s="20" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C78" s="20" t="s">
-        <v>324</v>
-      </c>
-      <c r="D78" s="5" t="s">
-        <v>308</v>
+        <v>325</v>
+      </c>
+      <c r="D78" s="7" t="s">
+        <v>309</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F78" s="19">
         <v>3.0</v>
@@ -6485,31 +6724,33 @@
       <c r="G78" s="19">
         <v>2.0</v>
       </c>
-      <c r="H78" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="I78" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="J78" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="K78" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="L78" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="M78" s="21">
-        <v>1.0</v>
-      </c>
-      <c r="N78" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="O78" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="P78" s="21"/>
+      <c r="H78" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="I78" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J78" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K78" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="L78" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="M78" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="N78" s="21">
+        <v>1.0</v>
+      </c>
+      <c r="O78" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="P78" s="8">
+        <v>0.0</v>
+      </c>
       <c r="Q78" s="21"/>
       <c r="R78" s="21"/>
       <c r="S78" s="21"/>
@@ -6517,22 +6758,23 @@
       <c r="U78" s="21"/>
       <c r="V78" s="21"/>
       <c r="W78" s="21"/>
+      <c r="X78" s="21"/>
     </row>
     <row r="79" ht="12.75" customHeight="1">
       <c r="A79" s="11" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B79" s="11" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C79" s="13" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D79" s="12" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E79" s="13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F79" s="11">
         <v>4.0</v>
@@ -6541,30 +6783,32 @@
         <v>2.0</v>
       </c>
       <c r="H79" s="12" t="s">
-        <v>329</v>
-      </c>
-      <c r="I79" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="J79" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="K79" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="L79" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="M79" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="N79" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="O79" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="P79" s="14"/>
+        <v>330</v>
+      </c>
+      <c r="I79" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J79" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K79" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="L79" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="M79" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="N79" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="O79" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="P79" s="8">
+        <v>0.0</v>
+      </c>
       <c r="Q79" s="14"/>
       <c r="R79" s="14"/>
       <c r="S79" s="14"/>
@@ -6574,22 +6818,23 @@
       <c r="W79" s="14"/>
       <c r="X79" s="14"/>
       <c r="Y79" s="14"/>
+      <c r="Z79" s="14"/>
     </row>
     <row r="80" ht="12.75" customHeight="1">
       <c r="A80" s="2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="D80" s="5" t="s">
-        <v>308</v>
+        <v>333</v>
+      </c>
+      <c r="D80" s="7" t="s">
+        <v>309</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F80" s="2">
         <v>2.0</v>
@@ -6597,46 +6842,49 @@
       <c r="G80" s="2">
         <v>3.0</v>
       </c>
-      <c r="H80" s="5" t="s">
-        <v>333</v>
-      </c>
-      <c r="I80" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="J80" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="K80" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="L80" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="M80" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="N80" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="O80" s="7">
+      <c r="H80" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="I80" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="J80" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="K80" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="L80" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="M80" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="N80" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="O80" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="P80" s="10">
         <v>1.0</v>
       </c>
     </row>
     <row r="81" ht="12.75" customHeight="1">
       <c r="A81" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="D81" s="5" t="s">
-        <v>308</v>
+        <v>337</v>
+      </c>
+      <c r="D81" s="7" t="s">
+        <v>309</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F81" s="2">
         <v>3.0</v>
@@ -6644,46 +6892,49 @@
       <c r="G81" s="2">
         <v>3.0</v>
       </c>
-      <c r="H81" s="5" t="s">
-        <v>337</v>
-      </c>
-      <c r="I81" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="J81" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="K81" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="L81" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="M81" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="N81" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="O81" s="6">
+      <c r="H81" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="I81" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J81" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K81" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="L81" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="M81" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="N81" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="O81" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="P81" s="8">
         <v>0.0</v>
       </c>
     </row>
     <row r="82" ht="12.75" customHeight="1">
       <c r="A82" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="D82" s="5" t="s">
-        <v>308</v>
+        <v>341</v>
+      </c>
+      <c r="D82" s="7" t="s">
+        <v>309</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F82" s="2">
         <v>3.0</v>
@@ -6691,46 +6942,49 @@
       <c r="G82" s="2">
         <v>2.0</v>
       </c>
-      <c r="H82" s="5" t="s">
-        <v>341</v>
-      </c>
-      <c r="I82" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="J82" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="K82" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="L82" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="M82" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="N82" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="O82" s="6">
+      <c r="H82" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="I82" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J82" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K82" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="L82" s="9">
+        <v>1.0</v>
+      </c>
+      <c r="M82" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="N82" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="O82" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="P82" s="8">
         <v>0.0</v>
       </c>
     </row>
     <row r="83" ht="12.75" customHeight="1">
       <c r="A83" s="11" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B83" s="13" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C83" s="13" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D83" s="12" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E83" s="13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F83" s="11">
         <v>1.0</v>
@@ -6739,30 +6993,32 @@
         <v>3.0</v>
       </c>
       <c r="H83" s="12" t="s">
-        <v>345</v>
-      </c>
-      <c r="I83" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="J83" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="K83" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="L83" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="M83" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="N83" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="O83" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="P83" s="14"/>
+        <v>346</v>
+      </c>
+      <c r="I83" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J83" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K83" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="L83" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="M83" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="N83" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="O83" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="P83" s="8">
+        <v>0.0</v>
+      </c>
       <c r="Q83" s="14"/>
       <c r="R83" s="14"/>
       <c r="S83" s="14"/>
@@ -6772,22 +7028,23 @@
       <c r="W83" s="14"/>
       <c r="X83" s="14"/>
       <c r="Y83" s="14"/>
+      <c r="Z83" s="14"/>
     </row>
     <row r="84" ht="12.75" customHeight="1">
       <c r="A84" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="D84" s="5" t="s">
-        <v>308</v>
+        <v>349</v>
+      </c>
+      <c r="D84" s="7" t="s">
+        <v>309</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F84" s="2">
         <v>1.0</v>
@@ -6795,46 +7052,49 @@
       <c r="G84" s="2">
         <v>3.0</v>
       </c>
-      <c r="H84" s="5" t="s">
-        <v>349</v>
-      </c>
-      <c r="I84" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="J84" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="K84" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="L84" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="M84" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="N84" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="O84" s="6">
+      <c r="H84" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="I84" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="J84" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K84" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="L84" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="M84" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="N84" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="O84" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="P84" s="8">
         <v>0.0</v>
       </c>
     </row>
     <row r="85" ht="12.75" customHeight="1">
       <c r="A85" s="2" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="D85" s="5" t="s">
-        <v>308</v>
+        <v>353</v>
+      </c>
+      <c r="D85" s="7" t="s">
+        <v>309</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F85" s="2">
         <v>4.0</v>
@@ -6842,46 +7102,49 @@
       <c r="G85" s="2">
         <v>3.0</v>
       </c>
-      <c r="H85" s="5" t="s">
-        <v>353</v>
-      </c>
-      <c r="I85" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="J85" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="K85" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="L85" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="M85" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="N85" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="O85" s="6">
+      <c r="H85" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="I85" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="J85" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K85" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="L85" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="M85" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="N85" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="O85" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="P85" s="8">
         <v>0.0</v>
       </c>
     </row>
     <row r="86" ht="12.75" customHeight="1">
       <c r="A86" s="22" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B86" s="22" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C86" s="23" t="s">
-        <v>356</v>
-      </c>
-      <c r="D86" s="5" t="s">
-        <v>308</v>
+        <v>357</v>
+      </c>
+      <c r="D86" s="7" t="s">
+        <v>309</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F86" s="22">
         <v>0.0</v>
@@ -6889,31 +7152,33 @@
       <c r="G86" s="22">
         <v>0.0</v>
       </c>
-      <c r="H86" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="I86" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="J86" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="K86" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="L86" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="M86" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="N86" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="O86" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="P86" s="24"/>
+      <c r="H86" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="I86" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J86" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K86" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="L86" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="M86" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="N86" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="O86" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="P86" s="8">
+        <v>0.0</v>
+      </c>
       <c r="Q86" s="24"/>
       <c r="R86" s="24"/>
       <c r="S86" s="24"/>
@@ -6921,22 +7186,23 @@
       <c r="U86" s="24"/>
       <c r="V86" s="24"/>
       <c r="W86" s="24"/>
+      <c r="X86" s="24"/>
     </row>
     <row r="87" ht="12.75" customHeight="1">
       <c r="A87" s="2" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="D87" s="5" t="s">
         <v>361</v>
       </c>
+      <c r="D87" s="7" t="s">
+        <v>362</v>
+      </c>
       <c r="E87" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F87" s="2">
         <v>0.0</v>
@@ -6944,46 +7210,49 @@
       <c r="G87" s="2">
         <v>0.0</v>
       </c>
-      <c r="H87" s="5" t="s">
-        <v>362</v>
-      </c>
-      <c r="I87" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="J87" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="K87" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="L87" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="M87" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="N87" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="O87" s="6">
+      <c r="H87" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="I87" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="J87" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K87" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="L87" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="M87" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="N87" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="O87" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="P87" s="8">
         <v>0.0</v>
       </c>
     </row>
     <row r="88" ht="12.75" customHeight="1">
       <c r="A88" s="11" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B88" s="11" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C88" s="13" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D88" s="12" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E88" s="13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F88" s="11">
         <v>3.0</v>
@@ -6992,30 +7261,32 @@
         <v>2.0</v>
       </c>
       <c r="H88" s="12" t="s">
-        <v>366</v>
-      </c>
-      <c r="I88" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="J88" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="K88" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="L88" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="M88" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="N88" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="O88" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="P88" s="14"/>
+        <v>367</v>
+      </c>
+      <c r="I88" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J88" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K88" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="L88" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="M88" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="N88" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="O88" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="P88" s="8">
+        <v>0.0</v>
+      </c>
       <c r="Q88" s="14"/>
       <c r="R88" s="14"/>
       <c r="S88" s="14"/>
@@ -7025,22 +7296,23 @@
       <c r="W88" s="14"/>
       <c r="X88" s="14"/>
       <c r="Y88" s="14"/>
+      <c r="Z88" s="14"/>
     </row>
     <row r="89" ht="14.25" customHeight="1">
       <c r="A89" s="11" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B89" s="11" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C89" s="13" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D89" s="12" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E89" s="13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F89" s="11">
         <v>0.0</v>
@@ -7049,30 +7321,32 @@
         <v>0.0</v>
       </c>
       <c r="H89" s="12" t="s">
-        <v>370</v>
-      </c>
-      <c r="I89" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="J89" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="K89" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="L89" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="M89" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="N89" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="O89" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="P89" s="14"/>
+        <v>371</v>
+      </c>
+      <c r="I89" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J89" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K89" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="L89" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="M89" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="N89" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="O89" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="P89" s="8">
+        <v>0.0</v>
+      </c>
       <c r="Q89" s="14"/>
       <c r="R89" s="14"/>
       <c r="S89" s="14"/>
@@ -7082,22 +7356,23 @@
       <c r="W89" s="14"/>
       <c r="X89" s="14"/>
       <c r="Y89" s="14"/>
+      <c r="Z89" s="14"/>
     </row>
     <row r="90" ht="14.25" customHeight="1">
       <c r="A90" s="11" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B90" s="11" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C90" s="13" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D90" s="12" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E90" s="13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F90" s="11">
         <v>0.0</v>
@@ -7106,30 +7381,32 @@
         <v>0.0</v>
       </c>
       <c r="H90" s="12" t="s">
-        <v>374</v>
-      </c>
-      <c r="I90" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="J90" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="K90" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="L90" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="M90" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="N90" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="O90" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="P90" s="14"/>
+        <v>375</v>
+      </c>
+      <c r="I90" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J90" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K90" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="L90" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="M90" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="N90" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="O90" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="P90" s="8">
+        <v>0.0</v>
+      </c>
       <c r="Q90" s="14"/>
       <c r="R90" s="14"/>
       <c r="S90" s="14"/>
@@ -7139,22 +7416,23 @@
       <c r="W90" s="14"/>
       <c r="X90" s="14"/>
       <c r="Y90" s="14"/>
+      <c r="Z90" s="14"/>
     </row>
     <row r="91" ht="12.75" customHeight="1">
       <c r="A91" s="11" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B91" s="11" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C91" s="13" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D91" s="12" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E91" s="13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F91" s="11">
         <v>3.0</v>
@@ -7163,30 +7441,32 @@
         <v>2.0</v>
       </c>
       <c r="H91" s="12" t="s">
-        <v>378</v>
-      </c>
-      <c r="I91" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="J91" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="K91" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="L91" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="M91" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="N91" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="O91" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="P91" s="14"/>
+        <v>379</v>
+      </c>
+      <c r="I91" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J91" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K91" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="L91" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="M91" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="N91" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="O91" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="P91" s="8">
+        <v>0.0</v>
+      </c>
       <c r="Q91" s="14"/>
       <c r="R91" s="14"/>
       <c r="S91" s="14"/>
@@ -7196,606 +7476,1007 @@
       <c r="W91" s="14"/>
       <c r="X91" s="14"/>
       <c r="Y91" s="14"/>
+      <c r="Z91" s="14"/>
     </row>
     <row r="92" ht="12.75" customHeight="1">
       <c r="C92" s="25"/>
+      <c r="K92" s="26"/>
+      <c r="L92" s="26"/>
     </row>
     <row r="93" ht="12.75" customHeight="1">
       <c r="C93" s="25"/>
+      <c r="K93" s="26"/>
+      <c r="L93" s="26"/>
     </row>
     <row r="94" ht="12.75" customHeight="1">
       <c r="C94" s="25"/>
+      <c r="K94" s="26"/>
+      <c r="L94" s="26"/>
     </row>
     <row r="95" ht="12.75" customHeight="1">
       <c r="C95" s="25"/>
+      <c r="K95" s="26"/>
+      <c r="L95" s="26"/>
     </row>
     <row r="96" ht="12.75" customHeight="1">
       <c r="C96" s="25"/>
+      <c r="K96" s="26"/>
+      <c r="L96" s="26"/>
     </row>
     <row r="97" ht="12.75" customHeight="1">
       <c r="C97" s="25"/>
+      <c r="K97" s="26"/>
+      <c r="L97" s="26"/>
     </row>
     <row r="98" ht="12.75" customHeight="1">
       <c r="C98" s="25"/>
+      <c r="K98" s="26"/>
+      <c r="L98" s="26"/>
     </row>
     <row r="99" ht="12.75" customHeight="1">
       <c r="C99" s="25"/>
+      <c r="K99" s="26"/>
+      <c r="L99" s="26"/>
     </row>
     <row r="100" ht="12.75" customHeight="1">
       <c r="C100" s="25"/>
+      <c r="K100" s="26"/>
+      <c r="L100" s="26"/>
     </row>
     <row r="101" ht="12.75" customHeight="1">
       <c r="C101" s="25"/>
+      <c r="K101" s="26"/>
+      <c r="L101" s="26"/>
     </row>
     <row r="102" ht="12.75" customHeight="1">
       <c r="C102" s="25"/>
+      <c r="K102" s="26"/>
+      <c r="L102" s="26"/>
     </row>
     <row r="103" ht="12.75" customHeight="1">
       <c r="C103" s="25"/>
+      <c r="K103" s="26"/>
+      <c r="L103" s="26"/>
     </row>
     <row r="104" ht="12.75" customHeight="1">
       <c r="C104" s="25"/>
+      <c r="K104" s="26"/>
+      <c r="L104" s="26"/>
     </row>
     <row r="105" ht="12.75" customHeight="1">
       <c r="C105" s="25"/>
+      <c r="K105" s="26"/>
+      <c r="L105" s="26"/>
     </row>
     <row r="106" ht="12.75" customHeight="1">
       <c r="C106" s="25"/>
+      <c r="K106" s="26"/>
+      <c r="L106" s="26"/>
     </row>
     <row r="107" ht="12.75" customHeight="1">
       <c r="C107" s="25"/>
+      <c r="K107" s="26"/>
+      <c r="L107" s="26"/>
     </row>
     <row r="108" ht="12.75" customHeight="1">
       <c r="C108" s="25"/>
+      <c r="K108" s="26"/>
+      <c r="L108" s="26"/>
     </row>
     <row r="109" ht="12.75" customHeight="1">
       <c r="C109" s="25"/>
+      <c r="K109" s="26"/>
+      <c r="L109" s="26"/>
     </row>
     <row r="110" ht="12.75" customHeight="1">
       <c r="C110" s="25"/>
+      <c r="K110" s="26"/>
+      <c r="L110" s="26"/>
     </row>
     <row r="111" ht="12.75" customHeight="1">
       <c r="C111" s="25"/>
+      <c r="K111" s="26"/>
+      <c r="L111" s="26"/>
     </row>
     <row r="112" ht="12.75" customHeight="1">
       <c r="C112" s="25"/>
+      <c r="K112" s="26"/>
+      <c r="L112" s="26"/>
     </row>
     <row r="113" ht="12.75" customHeight="1">
       <c r="C113" s="25"/>
+      <c r="K113" s="26"/>
+      <c r="L113" s="26"/>
     </row>
     <row r="114" ht="12.75" customHeight="1">
       <c r="C114" s="25"/>
+      <c r="K114" s="26"/>
+      <c r="L114" s="26"/>
     </row>
     <row r="115" ht="12.75" customHeight="1">
       <c r="C115" s="25"/>
+      <c r="K115" s="26"/>
+      <c r="L115" s="26"/>
     </row>
     <row r="116" ht="12.75" customHeight="1">
       <c r="C116" s="25"/>
+      <c r="K116" s="26"/>
+      <c r="L116" s="26"/>
     </row>
     <row r="117" ht="12.75" customHeight="1">
       <c r="C117" s="25"/>
+      <c r="K117" s="26"/>
+      <c r="L117" s="26"/>
     </row>
     <row r="118" ht="12.75" customHeight="1">
       <c r="C118" s="25"/>
+      <c r="K118" s="26"/>
+      <c r="L118" s="26"/>
     </row>
     <row r="119" ht="12.75" customHeight="1">
       <c r="C119" s="25"/>
+      <c r="K119" s="26"/>
+      <c r="L119" s="26"/>
     </row>
     <row r="120" ht="12.75" customHeight="1">
       <c r="C120" s="25"/>
+      <c r="K120" s="26"/>
+      <c r="L120" s="26"/>
     </row>
     <row r="121" ht="12.75" customHeight="1">
       <c r="C121" s="25"/>
+      <c r="K121" s="26"/>
+      <c r="L121" s="26"/>
     </row>
     <row r="122" ht="12.75" customHeight="1">
       <c r="C122" s="25"/>
+      <c r="K122" s="26"/>
+      <c r="L122" s="26"/>
     </row>
     <row r="123" ht="12.75" customHeight="1">
       <c r="C123" s="25"/>
+      <c r="K123" s="26"/>
+      <c r="L123" s="26"/>
     </row>
     <row r="124" ht="12.75" customHeight="1">
       <c r="C124" s="25"/>
+      <c r="K124" s="26"/>
+      <c r="L124" s="26"/>
     </row>
     <row r="125" ht="12.75" customHeight="1">
       <c r="C125" s="25"/>
+      <c r="K125" s="26"/>
+      <c r="L125" s="26"/>
     </row>
     <row r="126" ht="12.75" customHeight="1">
       <c r="C126" s="25"/>
+      <c r="K126" s="26"/>
+      <c r="L126" s="26"/>
     </row>
     <row r="127" ht="12.75" customHeight="1">
       <c r="C127" s="25"/>
+      <c r="K127" s="26"/>
+      <c r="L127" s="26"/>
     </row>
     <row r="128" ht="12.75" customHeight="1">
       <c r="C128" s="25"/>
+      <c r="K128" s="26"/>
+      <c r="L128" s="26"/>
     </row>
     <row r="129" ht="12.75" customHeight="1">
       <c r="C129" s="25"/>
+      <c r="K129" s="26"/>
+      <c r="L129" s="26"/>
     </row>
     <row r="130" ht="12.75" customHeight="1">
       <c r="C130" s="25"/>
+      <c r="K130" s="26"/>
+      <c r="L130" s="26"/>
     </row>
     <row r="131" ht="12.75" customHeight="1">
       <c r="C131" s="25"/>
+      <c r="K131" s="26"/>
+      <c r="L131" s="26"/>
     </row>
     <row r="132" ht="12.75" customHeight="1">
       <c r="C132" s="25"/>
+      <c r="K132" s="26"/>
+      <c r="L132" s="26"/>
     </row>
     <row r="133" ht="12.75" customHeight="1">
       <c r="C133" s="25"/>
+      <c r="K133" s="26"/>
+      <c r="L133" s="26"/>
     </row>
     <row r="134" ht="12.75" customHeight="1">
       <c r="C134" s="25"/>
+      <c r="K134" s="26"/>
+      <c r="L134" s="26"/>
     </row>
     <row r="135" ht="12.75" customHeight="1">
       <c r="C135" s="25"/>
+      <c r="K135" s="26"/>
+      <c r="L135" s="26"/>
     </row>
     <row r="136" ht="12.75" customHeight="1">
       <c r="C136" s="25"/>
+      <c r="K136" s="26"/>
+      <c r="L136" s="26"/>
     </row>
     <row r="137" ht="12.75" customHeight="1">
       <c r="C137" s="25"/>
+      <c r="K137" s="26"/>
+      <c r="L137" s="26"/>
     </row>
     <row r="138" ht="12.75" customHeight="1">
       <c r="C138" s="25"/>
+      <c r="K138" s="26"/>
+      <c r="L138" s="26"/>
     </row>
     <row r="139" ht="12.75" customHeight="1">
       <c r="C139" s="25"/>
+      <c r="K139" s="26"/>
+      <c r="L139" s="26"/>
     </row>
     <row r="140" ht="12.75" customHeight="1">
       <c r="C140" s="25"/>
+      <c r="K140" s="26"/>
+      <c r="L140" s="26"/>
     </row>
     <row r="141" ht="12.75" customHeight="1">
       <c r="C141" s="25"/>
+      <c r="K141" s="26"/>
+      <c r="L141" s="26"/>
     </row>
     <row r="142" ht="12.75" customHeight="1">
       <c r="C142" s="25"/>
+      <c r="K142" s="26"/>
+      <c r="L142" s="26"/>
     </row>
     <row r="143" ht="12.75" customHeight="1">
       <c r="C143" s="25"/>
+      <c r="K143" s="26"/>
+      <c r="L143" s="26"/>
     </row>
     <row r="144" ht="12.75" customHeight="1">
       <c r="C144" s="25"/>
+      <c r="K144" s="26"/>
+      <c r="L144" s="26"/>
     </row>
     <row r="145" ht="12.75" customHeight="1">
       <c r="C145" s="25"/>
+      <c r="K145" s="26"/>
+      <c r="L145" s="26"/>
     </row>
     <row r="146" ht="12.75" customHeight="1">
       <c r="C146" s="25"/>
+      <c r="K146" s="26"/>
+      <c r="L146" s="26"/>
     </row>
     <row r="147" ht="12.75" customHeight="1">
       <c r="C147" s="25"/>
+      <c r="K147" s="26"/>
+      <c r="L147" s="26"/>
     </row>
     <row r="148" ht="12.75" customHeight="1">
       <c r="C148" s="25"/>
+      <c r="K148" s="26"/>
+      <c r="L148" s="26"/>
     </row>
     <row r="149" ht="12.75" customHeight="1">
       <c r="C149" s="25"/>
+      <c r="K149" s="26"/>
+      <c r="L149" s="26"/>
     </row>
     <row r="150" ht="12.75" customHeight="1">
       <c r="C150" s="25"/>
+      <c r="K150" s="26"/>
+      <c r="L150" s="26"/>
     </row>
     <row r="151" ht="12.75" customHeight="1">
       <c r="C151" s="25"/>
+      <c r="K151" s="26"/>
+      <c r="L151" s="26"/>
     </row>
     <row r="152" ht="12.75" customHeight="1">
       <c r="C152" s="25"/>
+      <c r="K152" s="26"/>
+      <c r="L152" s="26"/>
     </row>
     <row r="153" ht="12.75" customHeight="1">
       <c r="C153" s="25"/>
+      <c r="K153" s="26"/>
+      <c r="L153" s="26"/>
     </row>
     <row r="154" ht="12.75" customHeight="1">
       <c r="C154" s="25"/>
+      <c r="K154" s="26"/>
+      <c r="L154" s="26"/>
     </row>
     <row r="155" ht="12.75" customHeight="1">
       <c r="C155" s="25"/>
+      <c r="K155" s="26"/>
+      <c r="L155" s="26"/>
     </row>
     <row r="156" ht="12.75" customHeight="1">
       <c r="C156" s="25"/>
+      <c r="K156" s="26"/>
+      <c r="L156" s="26"/>
     </row>
     <row r="157" ht="12.75" customHeight="1">
       <c r="C157" s="25"/>
+      <c r="K157" s="26"/>
+      <c r="L157" s="26"/>
     </row>
     <row r="158" ht="12.75" customHeight="1">
       <c r="C158" s="25"/>
+      <c r="K158" s="26"/>
+      <c r="L158" s="26"/>
     </row>
     <row r="159" ht="12.75" customHeight="1">
       <c r="C159" s="25"/>
+      <c r="K159" s="26"/>
+      <c r="L159" s="26"/>
     </row>
     <row r="160" ht="12.75" customHeight="1">
       <c r="C160" s="25"/>
+      <c r="K160" s="26"/>
+      <c r="L160" s="26"/>
     </row>
     <row r="161" ht="12.75" customHeight="1">
       <c r="C161" s="25"/>
+      <c r="K161" s="26"/>
+      <c r="L161" s="26"/>
     </row>
     <row r="162" ht="12.75" customHeight="1">
       <c r="C162" s="25"/>
+      <c r="K162" s="26"/>
+      <c r="L162" s="26"/>
     </row>
     <row r="163" ht="12.75" customHeight="1">
       <c r="C163" s="25"/>
+      <c r="K163" s="26"/>
+      <c r="L163" s="26"/>
     </row>
     <row r="164" ht="12.75" customHeight="1">
       <c r="C164" s="25"/>
+      <c r="K164" s="26"/>
+      <c r="L164" s="26"/>
     </row>
     <row r="165" ht="12.75" customHeight="1">
       <c r="C165" s="25"/>
+      <c r="K165" s="26"/>
+      <c r="L165" s="26"/>
     </row>
     <row r="166" ht="12.75" customHeight="1">
       <c r="C166" s="25"/>
+      <c r="K166" s="26"/>
+      <c r="L166" s="26"/>
     </row>
     <row r="167" ht="12.75" customHeight="1">
       <c r="C167" s="25"/>
+      <c r="K167" s="26"/>
+      <c r="L167" s="26"/>
     </row>
     <row r="168" ht="12.75" customHeight="1">
       <c r="C168" s="25"/>
+      <c r="K168" s="26"/>
+      <c r="L168" s="26"/>
     </row>
     <row r="169" ht="12.75" customHeight="1">
       <c r="C169" s="25"/>
+      <c r="K169" s="26"/>
+      <c r="L169" s="26"/>
     </row>
     <row r="170" ht="12.75" customHeight="1">
       <c r="C170" s="25"/>
+      <c r="K170" s="26"/>
+      <c r="L170" s="26"/>
     </row>
     <row r="171" ht="12.75" customHeight="1">
       <c r="C171" s="25"/>
+      <c r="K171" s="26"/>
+      <c r="L171" s="26"/>
     </row>
     <row r="172" ht="12.75" customHeight="1">
       <c r="C172" s="25"/>
+      <c r="K172" s="26"/>
+      <c r="L172" s="26"/>
     </row>
     <row r="173" ht="12.75" customHeight="1">
       <c r="C173" s="25"/>
+      <c r="K173" s="26"/>
+      <c r="L173" s="26"/>
     </row>
     <row r="174" ht="12.75" customHeight="1">
       <c r="C174" s="25"/>
+      <c r="K174" s="26"/>
+      <c r="L174" s="26"/>
     </row>
     <row r="175" ht="12.75" customHeight="1">
       <c r="C175" s="25"/>
+      <c r="K175" s="26"/>
+      <c r="L175" s="26"/>
     </row>
     <row r="176" ht="12.75" customHeight="1">
       <c r="C176" s="25"/>
+      <c r="K176" s="26"/>
+      <c r="L176" s="26"/>
     </row>
     <row r="177" ht="12.75" customHeight="1">
       <c r="C177" s="25"/>
+      <c r="K177" s="26"/>
+      <c r="L177" s="26"/>
     </row>
     <row r="178" ht="12.75" customHeight="1">
       <c r="C178" s="25"/>
+      <c r="K178" s="26"/>
+      <c r="L178" s="26"/>
     </row>
     <row r="179" ht="12.75" customHeight="1">
       <c r="C179" s="25"/>
+      <c r="K179" s="26"/>
+      <c r="L179" s="26"/>
     </row>
     <row r="180" ht="12.75" customHeight="1">
       <c r="C180" s="25"/>
+      <c r="K180" s="26"/>
+      <c r="L180" s="26"/>
     </row>
     <row r="181" ht="12.75" customHeight="1">
       <c r="C181" s="25"/>
+      <c r="K181" s="26"/>
+      <c r="L181" s="26"/>
     </row>
     <row r="182" ht="12.75" customHeight="1">
       <c r="C182" s="25"/>
+      <c r="K182" s="26"/>
+      <c r="L182" s="26"/>
     </row>
     <row r="183" ht="12.75" customHeight="1">
       <c r="C183" s="25"/>
+      <c r="K183" s="26"/>
+      <c r="L183" s="26"/>
     </row>
     <row r="184" ht="12.75" customHeight="1">
       <c r="C184" s="25"/>
+      <c r="K184" s="26"/>
+      <c r="L184" s="26"/>
     </row>
     <row r="185" ht="12.75" customHeight="1">
       <c r="C185" s="25"/>
+      <c r="K185" s="26"/>
+      <c r="L185" s="26"/>
     </row>
     <row r="186" ht="12.75" customHeight="1">
       <c r="C186" s="25"/>
+      <c r="K186" s="26"/>
+      <c r="L186" s="26"/>
     </row>
     <row r="187" ht="12.75" customHeight="1">
       <c r="C187" s="25"/>
+      <c r="K187" s="26"/>
+      <c r="L187" s="26"/>
     </row>
     <row r="188" ht="12.75" customHeight="1">
       <c r="C188" s="25"/>
+      <c r="K188" s="26"/>
+      <c r="L188" s="26"/>
     </row>
     <row r="189" ht="12.75" customHeight="1">
       <c r="C189" s="25"/>
+      <c r="K189" s="26"/>
+      <c r="L189" s="26"/>
     </row>
     <row r="190" ht="12.75" customHeight="1">
       <c r="C190" s="25"/>
+      <c r="K190" s="26"/>
+      <c r="L190" s="26"/>
     </row>
     <row r="191" ht="12.75" customHeight="1">
       <c r="C191" s="25"/>
+      <c r="K191" s="26"/>
+      <c r="L191" s="26"/>
     </row>
     <row r="192" ht="12.75" customHeight="1">
       <c r="C192" s="25"/>
+      <c r="K192" s="26"/>
+      <c r="L192" s="26"/>
     </row>
     <row r="193" ht="12.75" customHeight="1">
       <c r="C193" s="25"/>
+      <c r="K193" s="26"/>
+      <c r="L193" s="26"/>
     </row>
     <row r="194" ht="12.75" customHeight="1">
       <c r="C194" s="25"/>
+      <c r="K194" s="26"/>
+      <c r="L194" s="26"/>
     </row>
     <row r="195" ht="12.75" customHeight="1">
       <c r="C195" s="25"/>
+      <c r="K195" s="26"/>
+      <c r="L195" s="26"/>
     </row>
     <row r="196" ht="12.75" customHeight="1">
       <c r="C196" s="25"/>
+      <c r="K196" s="26"/>
+      <c r="L196" s="26"/>
     </row>
     <row r="197" ht="12.75" customHeight="1">
       <c r="C197" s="25"/>
+      <c r="K197" s="26"/>
+      <c r="L197" s="26"/>
     </row>
     <row r="198" ht="12.75" customHeight="1">
       <c r="C198" s="25"/>
+      <c r="K198" s="26"/>
+      <c r="L198" s="26"/>
     </row>
     <row r="199" ht="12.75" customHeight="1">
       <c r="C199" s="25"/>
+      <c r="K199" s="26"/>
+      <c r="L199" s="26"/>
     </row>
     <row r="200" ht="12.75" customHeight="1">
       <c r="C200" s="25"/>
+      <c r="K200" s="26"/>
+      <c r="L200" s="26"/>
     </row>
     <row r="201" ht="12.75" customHeight="1">
       <c r="C201" s="25"/>
+      <c r="K201" s="26"/>
+      <c r="L201" s="26"/>
     </row>
     <row r="202" ht="12.75" customHeight="1">
       <c r="C202" s="25"/>
+      <c r="K202" s="26"/>
+      <c r="L202" s="26"/>
     </row>
     <row r="203" ht="12.75" customHeight="1">
       <c r="C203" s="25"/>
+      <c r="K203" s="26"/>
+      <c r="L203" s="26"/>
     </row>
     <row r="204" ht="12.75" customHeight="1">
       <c r="C204" s="25"/>
+      <c r="K204" s="26"/>
+      <c r="L204" s="26"/>
     </row>
     <row r="205" ht="12.75" customHeight="1">
       <c r="C205" s="25"/>
+      <c r="K205" s="26"/>
+      <c r="L205" s="26"/>
     </row>
     <row r="206" ht="12.75" customHeight="1">
       <c r="C206" s="25"/>
+      <c r="K206" s="26"/>
+      <c r="L206" s="26"/>
     </row>
     <row r="207" ht="12.75" customHeight="1">
       <c r="C207" s="25"/>
+      <c r="K207" s="26"/>
+      <c r="L207" s="26"/>
     </row>
     <row r="208" ht="12.75" customHeight="1">
       <c r="C208" s="25"/>
+      <c r="K208" s="26"/>
+      <c r="L208" s="26"/>
     </row>
     <row r="209" ht="12.75" customHeight="1">
       <c r="C209" s="25"/>
+      <c r="K209" s="26"/>
+      <c r="L209" s="26"/>
     </row>
     <row r="210" ht="12.75" customHeight="1">
       <c r="C210" s="25"/>
+      <c r="K210" s="26"/>
+      <c r="L210" s="26"/>
     </row>
     <row r="211" ht="12.75" customHeight="1">
       <c r="C211" s="25"/>
+      <c r="K211" s="26"/>
+      <c r="L211" s="26"/>
     </row>
     <row r="212" ht="12.75" customHeight="1">
       <c r="C212" s="25"/>
+      <c r="K212" s="26"/>
+      <c r="L212" s="26"/>
     </row>
     <row r="213" ht="12.75" customHeight="1">
       <c r="C213" s="25"/>
+      <c r="K213" s="26"/>
+      <c r="L213" s="26"/>
     </row>
     <row r="214" ht="12.75" customHeight="1">
       <c r="C214" s="25"/>
+      <c r="K214" s="26"/>
+      <c r="L214" s="26"/>
     </row>
     <row r="215" ht="12.75" customHeight="1">
       <c r="C215" s="25"/>
+      <c r="K215" s="26"/>
+      <c r="L215" s="26"/>
     </row>
     <row r="216" ht="12.75" customHeight="1">
       <c r="C216" s="25"/>
+      <c r="K216" s="26"/>
+      <c r="L216" s="26"/>
     </row>
     <row r="217" ht="12.75" customHeight="1">
       <c r="C217" s="25"/>
+      <c r="K217" s="26"/>
+      <c r="L217" s="26"/>
     </row>
     <row r="218" ht="12.75" customHeight="1">
       <c r="C218" s="25"/>
+      <c r="K218" s="26"/>
+      <c r="L218" s="26"/>
     </row>
     <row r="219" ht="12.75" customHeight="1">
       <c r="C219" s="25"/>
+      <c r="K219" s="26"/>
+      <c r="L219" s="26"/>
     </row>
     <row r="220" ht="12.75" customHeight="1">
       <c r="C220" s="25"/>
+      <c r="K220" s="26"/>
+      <c r="L220" s="26"/>
     </row>
     <row r="221" ht="12.75" customHeight="1">
       <c r="C221" s="25"/>
+      <c r="K221" s="26"/>
+      <c r="L221" s="26"/>
     </row>
     <row r="222" ht="12.75" customHeight="1">
       <c r="C222" s="25"/>
+      <c r="K222" s="26"/>
+      <c r="L222" s="26"/>
     </row>
     <row r="223" ht="12.75" customHeight="1">
       <c r="C223" s="25"/>
+      <c r="K223" s="26"/>
+      <c r="L223" s="26"/>
     </row>
     <row r="224" ht="12.75" customHeight="1">
       <c r="C224" s="25"/>
+      <c r="K224" s="26"/>
+      <c r="L224" s="26"/>
     </row>
     <row r="225" ht="12.75" customHeight="1">
       <c r="C225" s="25"/>
+      <c r="K225" s="26"/>
+      <c r="L225" s="26"/>
     </row>
     <row r="226" ht="12.75" customHeight="1">
       <c r="C226" s="25"/>
+      <c r="K226" s="26"/>
+      <c r="L226" s="26"/>
     </row>
     <row r="227" ht="12.75" customHeight="1">
       <c r="C227" s="25"/>
+      <c r="K227" s="26"/>
+      <c r="L227" s="26"/>
     </row>
     <row r="228" ht="12.75" customHeight="1">
       <c r="C228" s="25"/>
+      <c r="K228" s="26"/>
+      <c r="L228" s="26"/>
     </row>
     <row r="229" ht="12.75" customHeight="1">
       <c r="C229" s="25"/>
+      <c r="K229" s="26"/>
+      <c r="L229" s="26"/>
     </row>
     <row r="230" ht="12.75" customHeight="1">
       <c r="C230" s="25"/>
+      <c r="K230" s="26"/>
+      <c r="L230" s="26"/>
     </row>
     <row r="231" ht="12.75" customHeight="1">
       <c r="C231" s="25"/>
+      <c r="K231" s="26"/>
+      <c r="L231" s="26"/>
     </row>
     <row r="232" ht="12.75" customHeight="1">
       <c r="C232" s="25"/>
+      <c r="K232" s="26"/>
+      <c r="L232" s="26"/>
     </row>
     <row r="233" ht="12.75" customHeight="1">
       <c r="C233" s="25"/>
+      <c r="K233" s="26"/>
+      <c r="L233" s="26"/>
     </row>
     <row r="234" ht="12.75" customHeight="1">
       <c r="C234" s="25"/>
+      <c r="K234" s="26"/>
+      <c r="L234" s="26"/>
     </row>
     <row r="235" ht="12.75" customHeight="1">
       <c r="C235" s="25"/>
+      <c r="K235" s="26"/>
+      <c r="L235" s="26"/>
     </row>
     <row r="236" ht="12.75" customHeight="1">
       <c r="C236" s="25"/>
+      <c r="K236" s="26"/>
+      <c r="L236" s="26"/>
     </row>
     <row r="237" ht="12.75" customHeight="1">
       <c r="C237" s="25"/>
+      <c r="K237" s="26"/>
+      <c r="L237" s="26"/>
     </row>
     <row r="238" ht="12.75" customHeight="1">
       <c r="C238" s="25"/>
+      <c r="K238" s="26"/>
+      <c r="L238" s="26"/>
     </row>
     <row r="239" ht="12.75" customHeight="1">
       <c r="C239" s="25"/>
+      <c r="K239" s="26"/>
+      <c r="L239" s="26"/>
     </row>
     <row r="240" ht="12.75" customHeight="1">
       <c r="C240" s="25"/>
+      <c r="K240" s="26"/>
+      <c r="L240" s="26"/>
     </row>
     <row r="241" ht="12.75" customHeight="1">
       <c r="C241" s="25"/>
+      <c r="K241" s="26"/>
+      <c r="L241" s="26"/>
     </row>
     <row r="242" ht="12.75" customHeight="1">
       <c r="C242" s="25"/>
+      <c r="K242" s="26"/>
+      <c r="L242" s="26"/>
     </row>
     <row r="243" ht="12.75" customHeight="1">
       <c r="C243" s="25"/>
+      <c r="K243" s="26"/>
+      <c r="L243" s="26"/>
     </row>
     <row r="244" ht="12.75" customHeight="1">
       <c r="C244" s="25"/>
+      <c r="K244" s="26"/>
+      <c r="L244" s="26"/>
     </row>
     <row r="245" ht="12.75" customHeight="1">
       <c r="C245" s="25"/>
+      <c r="K245" s="26"/>
+      <c r="L245" s="26"/>
     </row>
     <row r="246" ht="12.75" customHeight="1">
       <c r="C246" s="25"/>
+      <c r="K246" s="26"/>
+      <c r="L246" s="26"/>
     </row>
     <row r="247" ht="12.75" customHeight="1">
       <c r="C247" s="25"/>
+      <c r="K247" s="26"/>
+      <c r="L247" s="26"/>
     </row>
     <row r="248" ht="12.75" customHeight="1">
       <c r="C248" s="25"/>
+      <c r="K248" s="26"/>
+      <c r="L248" s="26"/>
     </row>
     <row r="249" ht="12.75" customHeight="1">
       <c r="C249" s="25"/>
+      <c r="K249" s="26"/>
+      <c r="L249" s="26"/>
     </row>
     <row r="250" ht="12.75" customHeight="1">
       <c r="C250" s="25"/>
+      <c r="K250" s="26"/>
+      <c r="L250" s="26"/>
     </row>
     <row r="251" ht="12.75" customHeight="1">
       <c r="C251" s="25"/>
+      <c r="K251" s="26"/>
+      <c r="L251" s="26"/>
     </row>
     <row r="252" ht="12.75" customHeight="1">
       <c r="C252" s="25"/>
+      <c r="K252" s="26"/>
+      <c r="L252" s="26"/>
     </row>
     <row r="253" ht="12.75" customHeight="1">
       <c r="C253" s="25"/>
+      <c r="K253" s="26"/>
+      <c r="L253" s="26"/>
     </row>
     <row r="254" ht="12.75" customHeight="1">
       <c r="C254" s="25"/>
+      <c r="K254" s="26"/>
+      <c r="L254" s="26"/>
     </row>
     <row r="255" ht="12.75" customHeight="1">
       <c r="C255" s="25"/>
+      <c r="K255" s="26"/>
+      <c r="L255" s="26"/>
     </row>
     <row r="256" ht="12.75" customHeight="1">
       <c r="C256" s="25"/>
+      <c r="K256" s="26"/>
+      <c r="L256" s="26"/>
     </row>
     <row r="257" ht="12.75" customHeight="1">
       <c r="C257" s="25"/>
+      <c r="K257" s="26"/>
+      <c r="L257" s="26"/>
     </row>
     <row r="258" ht="12.75" customHeight="1">
       <c r="C258" s="25"/>
+      <c r="K258" s="26"/>
+      <c r="L258" s="26"/>
     </row>
     <row r="259" ht="12.75" customHeight="1">
       <c r="C259" s="25"/>
+      <c r="K259" s="26"/>
+      <c r="L259" s="26"/>
     </row>
     <row r="260" ht="12.75" customHeight="1">
       <c r="C260" s="25"/>
+      <c r="K260" s="26"/>
+      <c r="L260" s="26"/>
     </row>
     <row r="261" ht="12.75" customHeight="1">
       <c r="C261" s="25"/>
+      <c r="K261" s="26"/>
+      <c r="L261" s="26"/>
     </row>
     <row r="262" ht="12.75" customHeight="1">
       <c r="C262" s="25"/>
+      <c r="K262" s="26"/>
+      <c r="L262" s="26"/>
     </row>
     <row r="263" ht="12.75" customHeight="1">
       <c r="C263" s="25"/>
+      <c r="K263" s="26"/>
+      <c r="L263" s="26"/>
     </row>
     <row r="264" ht="12.75" customHeight="1">
       <c r="C264" s="25"/>
+      <c r="K264" s="26"/>
+      <c r="L264" s="26"/>
     </row>
     <row r="265" ht="12.75" customHeight="1">
       <c r="C265" s="25"/>
+      <c r="K265" s="26"/>
+      <c r="L265" s="26"/>
     </row>
     <row r="266" ht="12.75" customHeight="1">
       <c r="C266" s="25"/>
+      <c r="K266" s="26"/>
+      <c r="L266" s="26"/>
     </row>
     <row r="267" ht="12.75" customHeight="1">
       <c r="C267" s="25"/>
+      <c r="K267" s="26"/>
+      <c r="L267" s="26"/>
     </row>
     <row r="268" ht="12.75" customHeight="1">
       <c r="C268" s="25"/>
+      <c r="K268" s="26"/>
+      <c r="L268" s="26"/>
     </row>
     <row r="269" ht="12.75" customHeight="1">
       <c r="C269" s="25"/>
+      <c r="K269" s="26"/>
+      <c r="L269" s="26"/>
     </row>
     <row r="270" ht="12.75" customHeight="1">
       <c r="C270" s="25"/>
+      <c r="K270" s="26"/>
+      <c r="L270" s="26"/>
     </row>
     <row r="271" ht="12.75" customHeight="1">
       <c r="C271" s="25"/>
+      <c r="K271" s="26"/>
+      <c r="L271" s="26"/>
     </row>
     <row r="272" ht="12.75" customHeight="1">
       <c r="C272" s="25"/>
+      <c r="K272" s="26"/>
+      <c r="L272" s="26"/>
     </row>
     <row r="273" ht="12.75" customHeight="1">
       <c r="C273" s="25"/>
+      <c r="K273" s="26"/>
+      <c r="L273" s="26"/>
     </row>
     <row r="274" ht="12.75" customHeight="1">
       <c r="C274" s="25"/>
+      <c r="K274" s="26"/>
+      <c r="L274" s="26"/>
     </row>
     <row r="275" ht="12.75" customHeight="1">
       <c r="C275" s="25"/>
+      <c r="K275" s="26"/>
+      <c r="L275" s="26"/>
     </row>
     <row r="276" ht="12.75" customHeight="1">
       <c r="C276" s="25"/>
+      <c r="K276" s="26"/>
+      <c r="L276" s="26"/>
     </row>
     <row r="277" ht="12.75" customHeight="1">
       <c r="C277" s="25"/>
+      <c r="K277" s="26"/>
+      <c r="L277" s="26"/>
     </row>
     <row r="278" ht="12.75" customHeight="1">
       <c r="C278" s="25"/>
+      <c r="K278" s="26"/>
+      <c r="L278" s="26"/>
     </row>
     <row r="279" ht="12.75" customHeight="1">
       <c r="C279" s="25"/>
+      <c r="K279" s="26"/>
+      <c r="L279" s="26"/>
     </row>
     <row r="280" ht="12.75" customHeight="1">
       <c r="C280" s="25"/>
+      <c r="K280" s="26"/>
+      <c r="L280" s="26"/>
     </row>
     <row r="281" ht="12.75" customHeight="1">
       <c r="C281" s="25"/>
+      <c r="K281" s="26"/>
+      <c r="L281" s="26"/>
     </row>
     <row r="282" ht="12.75" customHeight="1">
       <c r="C282" s="25"/>
+      <c r="K282" s="26"/>
+      <c r="L282" s="26"/>
     </row>
     <row r="283" ht="12.75" customHeight="1">
       <c r="C283" s="25"/>
+      <c r="K283" s="26"/>
+      <c r="L283" s="26"/>
     </row>
     <row r="284" ht="12.75" customHeight="1">
       <c r="C284" s="25"/>
+      <c r="K284" s="26"/>
+      <c r="L284" s="26"/>
     </row>
     <row r="285" ht="12.75" customHeight="1">
       <c r="C285" s="25"/>
+      <c r="K285" s="26"/>
+      <c r="L285" s="26"/>
     </row>
     <row r="286" ht="12.75" customHeight="1">
       <c r="C286" s="25"/>
+      <c r="K286" s="26"/>
+      <c r="L286" s="26"/>
     </row>
     <row r="287" ht="12.75" customHeight="1">
       <c r="C287" s="25"/>
+      <c r="K287" s="26"/>
+      <c r="L287" s="26"/>
     </row>
     <row r="288" ht="12.75" customHeight="1">
       <c r="C288" s="25"/>
+      <c r="K288" s="26"/>
+      <c r="L288" s="26"/>
     </row>
     <row r="289" ht="12.75" customHeight="1">
       <c r="C289" s="25"/>
+      <c r="K289" s="26"/>
+      <c r="L289" s="26"/>
     </row>
     <row r="290" ht="12.75" customHeight="1">
       <c r="C290" s="25"/>
+      <c r="K290" s="26"/>
+      <c r="L290" s="26"/>
     </row>
     <row r="291" ht="12.75" customHeight="1">
       <c r="C291" s="25"/>
+      <c r="K291" s="26"/>
+      <c r="L291" s="26"/>
     </row>
     <row r="292" ht="15.75" customHeight="1"/>
     <row r="293" ht="15.75" customHeight="1"/>
